--- a/00-Documentacion/Listado de reportes totales.xlsx
+++ b/00-Documentacion/Listado de reportes totales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0B7E20-ABB8-47EE-BDAC-07AE54E085B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF8047E-89EF-47DE-A995-A439B49FB3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5964" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6060" uniqueCount="1686">
   <si>
     <t xml:space="preserve">Reporte </t>
   </si>
@@ -3330,9 +3330,6 @@
     <t>correo, excel</t>
   </si>
   <si>
-    <t>ws,corre,pdf,excel</t>
-  </si>
-  <si>
     <t>ftp,ws,correo,excel</t>
   </si>
   <si>
@@ -3352,9 +3349,6 @@
   </si>
   <si>
     <t>ftp,correo</t>
-  </si>
-  <si>
-    <t>zip,pdf,corre,excel</t>
   </si>
   <si>
     <t>correo, excel,factura</t>
@@ -5084,6 +5078,12 @@
   </si>
   <si>
     <t>se tomo de los parametros el proceso</t>
+  </si>
+  <si>
+    <t>ws,correo,pdf,excel</t>
+  </si>
+  <si>
+    <t>zip,pdf,correo,excel</t>
   </si>
 </sst>
 </file>
@@ -5544,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9B04FF-17D8-4BD0-8305-46A7C5B17D5A}">
   <dimension ref="A1:H1347"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1327" workbookViewId="0">
+      <selection activeCell="B1333" sqref="B1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5574,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>38</v>
@@ -5591,10 +5591,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -5607,10 +5607,10 @@
         <v>91</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>5</v>
@@ -5625,10 +5625,10 @@
         <v>154</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>4</v>
@@ -5643,10 +5643,10 @@
         <v>302</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5659,10 +5659,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>4</v>
@@ -5677,10 +5677,10 @@
         <v>258</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>4</v>
@@ -5695,10 +5695,10 @@
         <v>298</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>4</v>
@@ -5713,10 +5713,10 @@
         <v>267</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>4</v>
@@ -5731,10 +5731,10 @@
         <v>134</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>4</v>
@@ -5749,10 +5749,10 @@
         <v>229</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>4</v>
@@ -5767,10 +5767,10 @@
         <v>239</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>4</v>
@@ -5785,10 +5785,10 @@
         <v>219</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>4</v>
@@ -5803,10 +5803,10 @@
         <v>93</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -5951,7 +5951,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>56</v>
@@ -5959,7 +5959,9 @@
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="5" t="s">
+        <v>1100</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -6145,10 +6147,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -6293,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>485</v>
@@ -6301,7 +6303,9 @@
       <c r="D37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="5" t="s">
+        <v>1100</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -6333,15 +6337,17 @@
         <v>101</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -6351,7 +6357,7 @@
         <v>325</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>18</v>
@@ -6359,7 +6365,9 @@
       <c r="D40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -6391,10 +6399,10 @@
         <v>217</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>4</v>
@@ -6409,10 +6417,10 @@
         <v>286</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>4</v>
@@ -6427,10 +6435,10 @@
         <v>277</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -6443,7 +6451,7 @@
         <v>331</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>26</v>
@@ -6451,10 +6459,12 @@
       <c r="D45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="5" t="s">
+        <v>1085</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -6593,7 +6603,7 @@
         <v>231</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>25</v>
@@ -6601,10 +6611,12 @@
       <c r="D52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -6699,10 +6711,10 @@
         <v>253</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -6715,10 +6727,10 @@
         <v>319</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -6731,7 +6743,7 @@
         <v>143</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>145</v>
@@ -6739,10 +6751,12 @@
       <c r="D59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -6771,7 +6785,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>21</v>
@@ -6779,7 +6793,9 @@
       <c r="D61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -8285,7 +8301,7 @@
         <v>24</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>103</v>
@@ -8293,10 +8309,12 @@
       <c r="D130" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="9"/>
+      <c r="E130" s="5" t="s">
+        <v>1100</v>
+      </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="H130" s="5"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
@@ -8325,7 +8343,7 @@
         <v>300</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>507</v>
@@ -8333,7 +8351,9 @@
       <c r="D132" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E132" s="9"/>
+      <c r="E132" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -8365,7 +8385,7 @@
         <v>21</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>97</v>
@@ -8373,7 +8393,9 @@
       <c r="D134" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="9"/>
+      <c r="E134" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -8471,7 +8493,7 @@
         <v>20</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>88</v>
@@ -8479,7 +8501,9 @@
       <c r="D139" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E139" s="9"/>
+      <c r="E139" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -8687,7 +8711,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>91</v>
@@ -8695,7 +8719,9 @@
       <c r="D149" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="9"/>
+      <c r="E149" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -8705,7 +8731,7 @@
         <v>18</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>86</v>
@@ -8713,7 +8739,9 @@
       <c r="D150" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E150" s="9"/>
+      <c r="E150" s="5" t="s">
+        <v>1100</v>
+      </c>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -8745,12 +8773,14 @@
         <v>36</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D152" s="9"/>
+        <v>1231</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -8761,12 +8791,14 @@
         <v>37</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D153" s="9"/>
+        <v>1231</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
@@ -8777,10 +8809,10 @@
         <v>227</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -8793,10 +8825,10 @@
         <v>69</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>4</v>
@@ -8811,10 +8843,10 @@
         <v>200</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>4</v>
@@ -9071,7 +9103,7 @@
         <v>205</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>191</v>
@@ -9079,7 +9111,9 @@
       <c r="D168" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E168" s="9"/>
+      <c r="E168" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -9199,7 +9233,7 @@
         <v>328</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>781</v>
@@ -9207,7 +9241,9 @@
       <c r="D174" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="9"/>
+      <c r="E174" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -9305,10 +9341,10 @@
         <v>146</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -9321,10 +9357,10 @@
         <v>341</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>5</v>
@@ -9348,7 +9384,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>1101</v>
+        <v>1684</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5" t="s">
@@ -9370,7 +9406,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="5" t="s">
@@ -9394,7 +9430,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5" t="s">
@@ -9416,7 +9452,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="5" t="s">
@@ -9440,7 +9476,7 @@
         <v>5</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5" t="s">
@@ -9455,10 +9491,10 @@
         <v>132</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>5</v>
@@ -9473,10 +9509,10 @@
         <v>135</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>5</v>
@@ -9491,10 +9527,10 @@
         <v>141</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>5</v>
@@ -9509,10 +9545,10 @@
         <v>122</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -9525,10 +9561,10 @@
         <v>214</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -9541,10 +9577,10 @@
         <v>212</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -9557,10 +9593,10 @@
         <v>264</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -9582,7 +9618,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="5" t="s">
@@ -9604,7 +9640,7 @@
         <v>5</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="5" t="s">
@@ -9626,7 +9662,7 @@
         <v>5</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
@@ -9648,7 +9684,7 @@
         <v>5</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5" t="s">
@@ -9670,7 +9706,7 @@
         <v>5</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="5" t="s">
@@ -9692,7 +9728,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5" t="s">
@@ -9714,7 +9750,7 @@
         <v>5</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5" t="s">
@@ -9736,7 +9772,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="5" t="s">
@@ -9749,7 +9785,7 @@
         <v>102</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>33</v>
@@ -9758,7 +9794,7 @@
         <v>5</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
@@ -9771,10 +9807,10 @@
         <v>139</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>5</v>
@@ -9789,7 +9825,7 @@
         <v>287</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>443</v>
@@ -9797,7 +9833,9 @@
       <c r="D203" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E203" s="9"/>
+      <c r="E203" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -9851,10 +9889,10 @@
         <v>94</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>5</v>
@@ -9869,10 +9907,10 @@
         <v>197</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>5</v>
@@ -9887,10 +9925,10 @@
         <v>234</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>5</v>
@@ -9914,7 +9952,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5" t="s">
@@ -9936,7 +9974,7 @@
         <v>5</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5" t="s">
@@ -9958,7 +9996,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5" t="s">
@@ -9971,7 +10009,7 @@
         <v>242</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>236</v>
@@ -9979,7 +10017,9 @@
       <c r="D212" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E212" s="9"/>
+      <c r="E212" s="5" t="s">
+        <v>1105</v>
+      </c>
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
@@ -9998,7 +10038,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5" t="s">
@@ -10011,10 +10051,10 @@
         <v>96</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>5</v>
@@ -10029,10 +10069,10 @@
         <v>117</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>5</v>
@@ -10047,10 +10087,10 @@
         <v>100</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>5</v>
@@ -10074,7 +10114,7 @@
         <v>5</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5" t="s">
@@ -10096,7 +10136,7 @@
         <v>5</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5" t="s">
@@ -10118,7 +10158,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
@@ -10140,7 +10180,7 @@
         <v>5</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5" t="s">
@@ -10162,7 +10202,7 @@
         <v>5</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5" t="s">
@@ -10184,7 +10224,7 @@
         <v>5</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5" t="s">
@@ -10206,7 +10246,7 @@
         <v>5</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5" t="s">
@@ -10228,7 +10268,7 @@
         <v>5</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5" t="s">
@@ -10250,7 +10290,7 @@
         <v>5</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="5" t="s">
@@ -10272,7 +10312,7 @@
         <v>5</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5" t="s">
@@ -10294,7 +10334,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5" t="s">
@@ -10316,7 +10356,7 @@
         <v>5</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5" t="s">
@@ -10338,7 +10378,7 @@
         <v>5</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="5" t="s">
@@ -10360,7 +10400,7 @@
         <v>5</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="5" t="s">
@@ -10382,7 +10422,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="5" t="s">
@@ -10404,7 +10444,7 @@
         <v>5</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5" t="s">
@@ -10426,7 +10466,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
@@ -10448,7 +10488,7 @@
         <v>5</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5" t="s">
@@ -10470,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5" t="s">
@@ -10492,7 +10532,7 @@
         <v>5</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5" t="s">
@@ -10514,7 +10554,7 @@
         <v>5</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5" t="s">
@@ -10536,7 +10576,7 @@
         <v>5</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5" t="s">
@@ -10558,7 +10598,7 @@
         <v>5</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
@@ -10580,7 +10620,7 @@
         <v>5</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5" t="s">
@@ -10602,7 +10642,7 @@
         <v>5</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5" t="s">
@@ -10624,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5" t="s">
@@ -10646,7 +10686,7 @@
         <v>5</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5" t="s">
@@ -10668,7 +10708,7 @@
         <v>5</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5" t="s">
@@ -10690,7 +10730,7 @@
         <v>5</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5" t="s">
@@ -10712,7 +10752,7 @@
         <v>5</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5" t="s">
@@ -10734,7 +10774,7 @@
         <v>5</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5" t="s">
@@ -10756,7 +10796,7 @@
         <v>5</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5" t="s">
@@ -10778,7 +10818,7 @@
         <v>5</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5" t="s">
@@ -10800,7 +10840,7 @@
         <v>5</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="5" t="s">
@@ -10822,7 +10862,7 @@
         <v>5</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="5" t="s">
@@ -10844,7 +10884,7 @@
         <v>5</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5" t="s">
@@ -10866,7 +10906,7 @@
         <v>5</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="5" t="s">
@@ -10888,7 +10928,7 @@
         <v>5</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="5" t="s">
@@ -10910,7 +10950,7 @@
         <v>5</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="5" t="s">
@@ -10932,7 +10972,7 @@
         <v>5</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F256" s="5"/>
       <c r="G256" s="5" t="s">
@@ -10954,7 +10994,7 @@
         <v>5</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F257" s="5"/>
       <c r="G257" s="5" t="s">
@@ -10976,7 +11016,7 @@
         <v>5</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="5" t="s">
@@ -10998,7 +11038,7 @@
         <v>5</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="5" t="s">
@@ -11020,7 +11060,7 @@
         <v>5</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="5" t="s">
@@ -11042,7 +11082,7 @@
         <v>5</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5" t="s">
@@ -11064,7 +11104,7 @@
         <v>5</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="5" t="s">
@@ -11086,7 +11126,7 @@
         <v>5</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5" t="s">
@@ -11108,7 +11148,7 @@
         <v>5</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5" t="s">
@@ -13629,7 +13669,7 @@
         <v>244</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C379" s="9" t="s">
         <v>238</v>
@@ -13637,7 +13677,9 @@
       <c r="D379" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E379" s="9"/>
+      <c r="E379" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F379" s="9"/>
       <c r="G379" s="9"/>
       <c r="H379" s="9"/>
@@ -13845,7 +13887,7 @@
         <v>179</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C389" s="9" t="s">
         <v>168</v>
@@ -13853,7 +13895,9 @@
       <c r="D389" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E389" s="9"/>
+      <c r="E389" s="5" t="s">
+        <v>1108</v>
+      </c>
       <c r="F389" s="9"/>
       <c r="G389" s="9"/>
       <c r="H389" s="9"/>
@@ -13872,7 +13916,7 @@
         <v>5</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F390" s="5"/>
       <c r="G390" s="5" t="s">
@@ -13885,7 +13929,7 @@
         <v>174</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C391" s="9" t="s">
         <v>166</v>
@@ -13893,7 +13937,9 @@
       <c r="D391" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E391" s="9"/>
+      <c r="E391" s="5" t="s">
+        <v>1115</v>
+      </c>
       <c r="F391" s="9"/>
       <c r="G391" s="9"/>
       <c r="H391" s="9"/>
@@ -13912,7 +13958,7 @@
         <v>5</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F392" s="5"/>
       <c r="G392" s="5" t="s">
@@ -13934,7 +13980,7 @@
         <v>5</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F393" s="5"/>
       <c r="G393" s="5" t="s">
@@ -13956,7 +14002,7 @@
         <v>5</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F394" s="5"/>
       <c r="G394" s="5" t="s">
@@ -13978,7 +14024,7 @@
         <v>5</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="5" t="s">
@@ -14000,7 +14046,7 @@
         <v>5</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F396" s="5"/>
       <c r="G396" s="5" t="s">
@@ -14022,7 +14068,7 @@
         <v>5</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F397" s="5"/>
       <c r="G397" s="5" t="s">
@@ -14044,7 +14090,7 @@
         <v>5</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F398" s="5"/>
       <c r="G398" s="5" t="s">
@@ -14066,7 +14112,7 @@
         <v>5</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F399" s="5"/>
       <c r="G399" s="5" t="s">
@@ -14088,7 +14134,7 @@
         <v>5</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F400" s="5"/>
       <c r="G400" s="5" t="s">
@@ -14110,7 +14156,7 @@
         <v>5</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="5" t="s">
@@ -14132,7 +14178,7 @@
         <v>5</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F402" s="5"/>
       <c r="G402" s="5" t="s">
@@ -14154,7 +14200,7 @@
         <v>5</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F403" s="5"/>
       <c r="G403" s="5" t="s">
@@ -14176,7 +14222,7 @@
         <v>5</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="5" t="s">
@@ -14198,7 +14244,7 @@
         <v>5</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F405" s="5"/>
       <c r="G405" s="5" t="s">
@@ -14220,7 +14266,7 @@
         <v>5</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F406" s="5"/>
       <c r="G406" s="5" t="s">
@@ -14242,7 +14288,7 @@
         <v>5</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F407" s="5"/>
       <c r="G407" s="5" t="s">
@@ -14264,7 +14310,7 @@
         <v>5</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="5" t="s">
@@ -14286,7 +14332,7 @@
         <v>5</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="5" t="s">
@@ -14308,7 +14354,7 @@
         <v>5</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="5" t="s">
@@ -14330,7 +14376,7 @@
         <v>5</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="5" t="s">
@@ -14352,7 +14398,7 @@
         <v>5</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F412" s="5"/>
       <c r="G412" s="5" t="s">
@@ -14374,7 +14420,7 @@
         <v>5</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F413" s="5"/>
       <c r="G413" s="5" t="s">
@@ -14396,7 +14442,7 @@
         <v>5</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F414" s="5"/>
       <c r="G414" s="5" t="s">
@@ -14418,7 +14464,7 @@
         <v>5</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F415" s="5"/>
       <c r="G415" s="5" t="s">
@@ -14440,7 +14486,7 @@
         <v>5</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F416" s="5"/>
       <c r="G416" s="5" t="s">
@@ -14462,7 +14508,7 @@
         <v>5</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F417" s="5"/>
       <c r="G417" s="5" t="s">
@@ -14484,7 +14530,7 @@
         <v>5</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F418" s="5"/>
       <c r="G418" s="5" t="s">
@@ -14506,7 +14552,7 @@
         <v>5</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F419" s="5"/>
       <c r="G419" s="5" t="s">
@@ -14528,7 +14574,7 @@
         <v>5</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="5" t="s">
@@ -14550,7 +14596,7 @@
         <v>5</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F421" s="5"/>
       <c r="G421" s="5" t="s">
@@ -14572,7 +14618,7 @@
         <v>5</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="5" t="s">
@@ -14594,7 +14640,7 @@
         <v>5</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="5" t="s">
@@ -14616,7 +14662,7 @@
         <v>5</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="5" t="s">
@@ -14638,7 +14684,7 @@
         <v>5</v>
       </c>
       <c r="E425" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F425" s="5"/>
       <c r="G425" s="5" t="s">
@@ -14660,7 +14706,7 @@
         <v>5</v>
       </c>
       <c r="E426" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F426" s="5"/>
       <c r="G426" s="5" t="s">
@@ -14682,7 +14728,7 @@
         <v>5</v>
       </c>
       <c r="E427" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F427" s="5"/>
       <c r="G427" s="5" t="s">
@@ -14704,7 +14750,7 @@
         <v>5</v>
       </c>
       <c r="E428" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F428" s="5"/>
       <c r="G428" s="5" t="s">
@@ -14726,7 +14772,7 @@
         <v>5</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F429" s="5"/>
       <c r="G429" s="5" t="s">
@@ -14748,7 +14794,7 @@
         <v>5</v>
       </c>
       <c r="E430" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F430" s="5"/>
       <c r="G430" s="5" t="s">
@@ -14770,7 +14816,7 @@
         <v>5</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="5" t="s">
@@ -14792,7 +14838,7 @@
         <v>5</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F432" s="5"/>
       <c r="G432" s="5" t="s">
@@ -14814,7 +14860,7 @@
         <v>5</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F433" s="5"/>
       <c r="G433" s="5" t="s">
@@ -14836,7 +14882,7 @@
         <v>5</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F434" s="5"/>
       <c r="G434" s="5" t="s">
@@ -14858,7 +14904,7 @@
         <v>5</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F435" s="5"/>
       <c r="G435" s="5" t="s">
@@ -14880,7 +14926,7 @@
         <v>5</v>
       </c>
       <c r="E436" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F436" s="5"/>
       <c r="G436" s="5" t="s">
@@ -14902,7 +14948,7 @@
         <v>5</v>
       </c>
       <c r="E437" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F437" s="5"/>
       <c r="G437" s="5" t="s">
@@ -14924,7 +14970,7 @@
         <v>5</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F438" s="5"/>
       <c r="G438" s="5" t="s">
@@ -14946,7 +14992,7 @@
         <v>5</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F439" s="5"/>
       <c r="G439" s="5" t="s">
@@ -14968,7 +15014,7 @@
         <v>5</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F440" s="5"/>
       <c r="G440" s="5" t="s">
@@ -14990,7 +15036,7 @@
         <v>5</v>
       </c>
       <c r="E441" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F441" s="5"/>
       <c r="G441" s="5" t="s">
@@ -15012,7 +15058,7 @@
         <v>5</v>
       </c>
       <c r="E442" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F442" s="5"/>
       <c r="G442" s="5" t="s">
@@ -15034,7 +15080,7 @@
         <v>5</v>
       </c>
       <c r="E443" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F443" s="5"/>
       <c r="G443" s="5" t="s">
@@ -15056,7 +15102,7 @@
         <v>5</v>
       </c>
       <c r="E444" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F444" s="5"/>
       <c r="G444" s="5" t="s">
@@ -15078,7 +15124,7 @@
         <v>5</v>
       </c>
       <c r="E445" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F445" s="5"/>
       <c r="G445" s="5" t="s">
@@ -15100,7 +15146,7 @@
         <v>5</v>
       </c>
       <c r="E446" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F446" s="5"/>
       <c r="G446" s="5" t="s">
@@ -15122,7 +15168,7 @@
         <v>5</v>
       </c>
       <c r="E447" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F447" s="5"/>
       <c r="G447" s="5" t="s">
@@ -15144,7 +15190,7 @@
         <v>5</v>
       </c>
       <c r="E448" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F448" s="5"/>
       <c r="G448" s="5" t="s">
@@ -15166,7 +15212,7 @@
         <v>5</v>
       </c>
       <c r="E449" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F449" s="5"/>
       <c r="G449" s="5" t="s">
@@ -15188,7 +15234,7 @@
         <v>5</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F450" s="5"/>
       <c r="G450" s="5" t="s">
@@ -15210,7 +15256,7 @@
         <v>5</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F451" s="5"/>
       <c r="G451" s="5" t="s">
@@ -15232,7 +15278,7 @@
         <v>5</v>
       </c>
       <c r="E452" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F452" s="5"/>
       <c r="G452" s="5" t="s">
@@ -15254,7 +15300,7 @@
         <v>5</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F453" s="5"/>
       <c r="G453" s="5" t="s">
@@ -15276,7 +15322,7 @@
         <v>5</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F454" s="5"/>
       <c r="G454" s="5" t="s">
@@ -15298,7 +15344,7 @@
         <v>5</v>
       </c>
       <c r="E455" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F455" s="5"/>
       <c r="G455" s="5" t="s">
@@ -15320,7 +15366,7 @@
         <v>5</v>
       </c>
       <c r="E456" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F456" s="5"/>
       <c r="G456" s="5" t="s">
@@ -15342,7 +15388,7 @@
         <v>5</v>
       </c>
       <c r="E457" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F457" s="5"/>
       <c r="G457" s="5" t="s">
@@ -15364,7 +15410,7 @@
         <v>5</v>
       </c>
       <c r="E458" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F458" s="5"/>
       <c r="G458" s="5" t="s">
@@ -15386,7 +15432,7 @@
         <v>5</v>
       </c>
       <c r="E459" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F459" s="5"/>
       <c r="G459" s="5" t="s">
@@ -15408,7 +15454,7 @@
         <v>5</v>
       </c>
       <c r="E460" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F460" s="5"/>
       <c r="G460" s="5" t="s">
@@ -15430,7 +15476,7 @@
         <v>5</v>
       </c>
       <c r="E461" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F461" s="5"/>
       <c r="G461" s="5" t="s">
@@ -15452,7 +15498,7 @@
         <v>5</v>
       </c>
       <c r="E462" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="5" t="s">
@@ -15474,7 +15520,7 @@
         <v>5</v>
       </c>
       <c r="E463" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F463" s="5"/>
       <c r="G463" s="5" t="s">
@@ -15496,7 +15542,7 @@
         <v>5</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F464" s="5"/>
       <c r="G464" s="5" t="s">
@@ -15518,7 +15564,7 @@
         <v>5</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F465" s="5"/>
       <c r="G465" s="5" t="s">
@@ -15540,7 +15586,7 @@
         <v>5</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F466" s="5"/>
       <c r="G466" s="5" t="s">
@@ -15562,7 +15608,7 @@
         <v>5</v>
       </c>
       <c r="E467" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F467" s="5"/>
       <c r="G467" s="5" t="s">
@@ -15584,7 +15630,7 @@
         <v>5</v>
       </c>
       <c r="E468" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F468" s="5"/>
       <c r="G468" s="5" t="s">
@@ -15606,7 +15652,7 @@
         <v>5</v>
       </c>
       <c r="E469" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F469" s="5"/>
       <c r="G469" s="5" t="s">
@@ -15628,7 +15674,7 @@
         <v>5</v>
       </c>
       <c r="E470" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F470" s="5"/>
       <c r="G470" s="5" t="s">
@@ -15650,7 +15696,7 @@
         <v>5</v>
       </c>
       <c r="E471" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F471" s="5"/>
       <c r="G471" s="5" t="s">
@@ -15672,7 +15718,7 @@
         <v>5</v>
       </c>
       <c r="E472" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F472" s="5"/>
       <c r="G472" s="5" t="s">
@@ -15694,7 +15740,7 @@
         <v>5</v>
       </c>
       <c r="E473" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F473" s="5"/>
       <c r="G473" s="5" t="s">
@@ -15716,7 +15762,7 @@
         <v>5</v>
       </c>
       <c r="E474" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F474" s="5"/>
       <c r="G474" s="5" t="s">
@@ -15738,7 +15784,7 @@
         <v>5</v>
       </c>
       <c r="E475" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F475" s="5"/>
       <c r="G475" s="5" t="s">
@@ -15760,7 +15806,7 @@
         <v>5</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F476" s="5"/>
       <c r="G476" s="5" t="s">
@@ -15782,7 +15828,7 @@
         <v>5</v>
       </c>
       <c r="E477" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F477" s="5"/>
       <c r="G477" s="5" t="s">
@@ -15804,7 +15850,7 @@
         <v>5</v>
       </c>
       <c r="E478" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F478" s="5"/>
       <c r="G478" s="5" t="s">
@@ -15826,7 +15872,7 @@
         <v>5</v>
       </c>
       <c r="E479" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F479" s="5"/>
       <c r="G479" s="5" t="s">
@@ -15848,7 +15894,7 @@
         <v>5</v>
       </c>
       <c r="E480" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F480" s="5"/>
       <c r="G480" s="5" t="s">
@@ -15870,7 +15916,7 @@
         <v>5</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F481" s="5"/>
       <c r="G481" s="5" t="s">
@@ -15892,7 +15938,7 @@
         <v>5</v>
       </c>
       <c r="E482" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F482" s="5"/>
       <c r="G482" s="5" t="s">
@@ -15914,7 +15960,7 @@
         <v>5</v>
       </c>
       <c r="E483" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F483" s="5"/>
       <c r="G483" s="5" t="s">
@@ -15936,7 +15982,7 @@
         <v>5</v>
       </c>
       <c r="E484" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F484" s="5"/>
       <c r="G484" s="5" t="s">
@@ -15958,7 +16004,7 @@
         <v>5</v>
       </c>
       <c r="E485" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F485" s="5"/>
       <c r="G485" s="5" t="s">
@@ -15980,7 +16026,7 @@
         <v>5</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F486" s="5"/>
       <c r="G486" s="5" t="s">
@@ -16002,7 +16048,7 @@
         <v>5</v>
       </c>
       <c r="E487" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F487" s="5"/>
       <c r="G487" s="5" t="s">
@@ -16024,7 +16070,7 @@
         <v>5</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F488" s="5"/>
       <c r="G488" s="5" t="s">
@@ -16046,7 +16092,7 @@
         <v>5</v>
       </c>
       <c r="E489" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F489" s="5"/>
       <c r="G489" s="5" t="s">
@@ -16068,7 +16114,7 @@
         <v>5</v>
       </c>
       <c r="E490" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F490" s="5"/>
       <c r="G490" s="5" t="s">
@@ -16090,7 +16136,7 @@
         <v>5</v>
       </c>
       <c r="E491" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F491" s="5"/>
       <c r="G491" s="5" t="s">
@@ -16112,7 +16158,7 @@
         <v>5</v>
       </c>
       <c r="E492" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F492" s="5"/>
       <c r="G492" s="5" t="s">
@@ -16134,7 +16180,7 @@
         <v>5</v>
       </c>
       <c r="E493" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F493" s="5"/>
       <c r="G493" s="5" t="s">
@@ -16156,7 +16202,7 @@
         <v>5</v>
       </c>
       <c r="E494" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F494" s="5"/>
       <c r="G494" s="5" t="s">
@@ -16178,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="E495" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F495" s="5"/>
       <c r="G495" s="5" t="s">
@@ -16200,7 +16246,7 @@
         <v>5</v>
       </c>
       <c r="E496" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F496" s="5"/>
       <c r="G496" s="5" t="s">
@@ -16222,7 +16268,7 @@
         <v>5</v>
       </c>
       <c r="E497" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F497" s="5"/>
       <c r="G497" s="5" t="s">
@@ -16244,7 +16290,7 @@
         <v>5</v>
       </c>
       <c r="E498" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F498" s="5"/>
       <c r="G498" s="5" t="s">
@@ -16266,7 +16312,7 @@
         <v>5</v>
       </c>
       <c r="E499" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F499" s="5"/>
       <c r="G499" s="5" t="s">
@@ -16288,7 +16334,7 @@
         <v>5</v>
       </c>
       <c r="E500" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F500" s="5"/>
       <c r="G500" s="5" t="s">
@@ -16310,7 +16356,7 @@
         <v>5</v>
       </c>
       <c r="E501" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F501" s="5"/>
       <c r="G501" s="5" t="s">
@@ -16332,7 +16378,7 @@
         <v>5</v>
       </c>
       <c r="E502" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F502" s="5"/>
       <c r="G502" s="5" t="s">
@@ -16354,7 +16400,7 @@
         <v>5</v>
       </c>
       <c r="E503" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F503" s="5"/>
       <c r="G503" s="5" t="s">
@@ -16376,7 +16422,7 @@
         <v>5</v>
       </c>
       <c r="E504" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F504" s="5"/>
       <c r="G504" s="5" t="s">
@@ -16398,7 +16444,7 @@
         <v>5</v>
       </c>
       <c r="E505" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5" t="s">
@@ -16420,7 +16466,7 @@
         <v>5</v>
       </c>
       <c r="E506" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F506" s="5"/>
       <c r="G506" s="5" t="s">
@@ -16442,7 +16488,7 @@
         <v>5</v>
       </c>
       <c r="E507" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F507" s="5"/>
       <c r="G507" s="5" t="s">
@@ -16464,7 +16510,7 @@
         <v>5</v>
       </c>
       <c r="E508" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F508" s="5"/>
       <c r="G508" s="5" t="s">
@@ -16486,7 +16532,7 @@
         <v>5</v>
       </c>
       <c r="E509" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F509" s="5"/>
       <c r="G509" s="5" t="s">
@@ -16508,7 +16554,7 @@
         <v>5</v>
       </c>
       <c r="E510" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F510" s="5"/>
       <c r="G510" s="5" t="s">
@@ -16530,7 +16576,7 @@
         <v>5</v>
       </c>
       <c r="E511" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F511" s="5"/>
       <c r="G511" s="5" t="s">
@@ -16552,7 +16598,7 @@
         <v>5</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F512" s="5"/>
       <c r="G512" s="5" t="s">
@@ -16574,7 +16620,7 @@
         <v>5</v>
       </c>
       <c r="E513" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F513" s="5"/>
       <c r="G513" s="5" t="s">
@@ -16596,7 +16642,7 @@
         <v>5</v>
       </c>
       <c r="E514" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F514" s="5"/>
       <c r="G514" s="5" t="s">
@@ -16618,7 +16664,7 @@
         <v>5</v>
       </c>
       <c r="E515" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F515" s="5"/>
       <c r="G515" s="5" t="s">
@@ -16640,7 +16686,7 @@
         <v>5</v>
       </c>
       <c r="E516" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F516" s="5"/>
       <c r="G516" s="5" t="s">
@@ -16662,7 +16708,7 @@
         <v>5</v>
       </c>
       <c r="E517" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F517" s="5"/>
       <c r="G517" s="5" t="s">
@@ -16684,7 +16730,7 @@
         <v>5</v>
       </c>
       <c r="E518" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F518" s="5"/>
       <c r="G518" s="5" t="s">
@@ -16706,7 +16752,7 @@
         <v>5</v>
       </c>
       <c r="E519" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F519" s="5"/>
       <c r="G519" s="5" t="s">
@@ -16728,7 +16774,7 @@
         <v>5</v>
       </c>
       <c r="E520" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F520" s="5"/>
       <c r="G520" s="5" t="s">
@@ -16750,7 +16796,7 @@
         <v>5</v>
       </c>
       <c r="E521" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F521" s="5"/>
       <c r="G521" s="5" t="s">
@@ -16772,7 +16818,7 @@
         <v>5</v>
       </c>
       <c r="E522" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F522" s="5"/>
       <c r="G522" s="5" t="s">
@@ -16794,7 +16840,7 @@
         <v>5</v>
       </c>
       <c r="E523" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F523" s="5"/>
       <c r="G523" s="5" t="s">
@@ -16816,7 +16862,7 @@
         <v>5</v>
       </c>
       <c r="E524" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F524" s="5"/>
       <c r="G524" s="5" t="s">
@@ -16838,7 +16884,7 @@
         <v>5</v>
       </c>
       <c r="E525" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F525" s="5"/>
       <c r="G525" s="5" t="s">
@@ -16860,7 +16906,7 @@
         <v>5</v>
       </c>
       <c r="E526" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F526" s="5"/>
       <c r="G526" s="5" t="s">
@@ -16882,7 +16928,7 @@
         <v>5</v>
       </c>
       <c r="E527" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F527" s="5"/>
       <c r="G527" s="5" t="s">
@@ -16904,7 +16950,7 @@
         <v>5</v>
       </c>
       <c r="E528" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F528" s="5"/>
       <c r="G528" s="5" t="s">
@@ -16926,7 +16972,7 @@
         <v>5</v>
       </c>
       <c r="E529" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F529" s="5"/>
       <c r="G529" s="5" t="s">
@@ -16948,7 +16994,7 @@
         <v>5</v>
       </c>
       <c r="E530" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F530" s="5"/>
       <c r="G530" s="5" t="s">
@@ -16970,7 +17016,7 @@
         <v>5</v>
       </c>
       <c r="E531" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F531" s="5"/>
       <c r="G531" s="5" t="s">
@@ -16992,7 +17038,7 @@
         <v>5</v>
       </c>
       <c r="E532" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F532" s="5"/>
       <c r="G532" s="5" t="s">
@@ -17014,7 +17060,7 @@
         <v>5</v>
       </c>
       <c r="E533" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F533" s="5"/>
       <c r="G533" s="5" t="s">
@@ -17036,7 +17082,7 @@
         <v>5</v>
       </c>
       <c r="E534" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F534" s="5"/>
       <c r="G534" s="5" t="s">
@@ -17058,7 +17104,7 @@
         <v>5</v>
       </c>
       <c r="E535" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F535" s="5"/>
       <c r="G535" s="5" t="s">
@@ -17080,7 +17126,7 @@
         <v>5</v>
       </c>
       <c r="E536" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F536" s="5"/>
       <c r="G536" s="5" t="s">
@@ -17102,7 +17148,7 @@
         <v>5</v>
       </c>
       <c r="E537" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F537" s="5"/>
       <c r="G537" s="5" t="s">
@@ -17124,7 +17170,7 @@
         <v>5</v>
       </c>
       <c r="E538" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F538" s="5"/>
       <c r="G538" s="5" t="s">
@@ -17146,7 +17192,7 @@
         <v>5</v>
       </c>
       <c r="E539" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F539" s="5"/>
       <c r="G539" s="5" t="s">
@@ -17168,7 +17214,7 @@
         <v>5</v>
       </c>
       <c r="E540" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F540" s="5"/>
       <c r="G540" s="5" t="s">
@@ -17190,7 +17236,7 @@
         <v>5</v>
       </c>
       <c r="E541" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F541" s="5"/>
       <c r="G541" s="5" t="s">
@@ -17212,7 +17258,7 @@
         <v>5</v>
       </c>
       <c r="E542" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F542" s="5"/>
       <c r="G542" s="5" t="s">
@@ -17234,7 +17280,7 @@
         <v>5</v>
       </c>
       <c r="E543" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F543" s="5"/>
       <c r="G543" s="5" t="s">
@@ -17256,7 +17302,7 @@
         <v>5</v>
       </c>
       <c r="E544" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F544" s="5"/>
       <c r="G544" s="5" t="s">
@@ -17278,7 +17324,7 @@
         <v>5</v>
       </c>
       <c r="E545" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F545" s="5"/>
       <c r="G545" s="5" t="s">
@@ -17300,7 +17346,7 @@
         <v>5</v>
       </c>
       <c r="E546" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F546" s="5"/>
       <c r="G546" s="5" t="s">
@@ -17322,7 +17368,7 @@
         <v>5</v>
       </c>
       <c r="E547" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F547" s="5"/>
       <c r="G547" s="5" t="s">
@@ -17344,7 +17390,7 @@
         <v>5</v>
       </c>
       <c r="E548" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F548" s="5"/>
       <c r="G548" s="5" t="s">
@@ -17366,7 +17412,7 @@
         <v>5</v>
       </c>
       <c r="E549" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F549" s="5"/>
       <c r="G549" s="5" t="s">
@@ -17388,7 +17434,7 @@
         <v>5</v>
       </c>
       <c r="E550" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F550" s="5"/>
       <c r="G550" s="5" t="s">
@@ -17410,7 +17456,7 @@
         <v>5</v>
       </c>
       <c r="E551" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F551" s="5"/>
       <c r="G551" s="5" t="s">
@@ -17432,7 +17478,7 @@
         <v>5</v>
       </c>
       <c r="E552" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F552" s="5"/>
       <c r="G552" s="5" t="s">
@@ -17454,7 +17500,7 @@
         <v>5</v>
       </c>
       <c r="E553" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F553" s="5"/>
       <c r="G553" s="5" t="s">
@@ -17476,7 +17522,7 @@
         <v>5</v>
       </c>
       <c r="E554" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F554" s="5"/>
       <c r="G554" s="5" t="s">
@@ -17498,7 +17544,7 @@
         <v>5</v>
       </c>
       <c r="E555" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F555" s="5"/>
       <c r="G555" s="5" t="s">
@@ -17520,7 +17566,7 @@
         <v>5</v>
       </c>
       <c r="E556" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F556" s="5"/>
       <c r="G556" s="5" t="s">
@@ -17533,10 +17579,10 @@
         <v>243</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C557" s="9" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D557" s="9"/>
       <c r="E557" s="9"/>
@@ -17558,7 +17604,7 @@
         <v>4</v>
       </c>
       <c r="E558" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F558" s="5"/>
       <c r="G558" s="5" t="s">
@@ -17571,10 +17617,10 @@
         <v>263</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C559" s="9" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D559" s="9" t="s">
         <v>5</v>
@@ -17598,7 +17644,7 @@
         <v>4</v>
       </c>
       <c r="E560" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F560" s="5"/>
       <c r="G560" s="5" t="s">
@@ -17611,10 +17657,10 @@
         <v>324</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C561" s="9" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D561" s="9"/>
       <c r="E561" s="9"/>
@@ -17627,10 +17673,10 @@
         <v>148</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C562" s="9" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D562" s="9"/>
       <c r="E562" s="9"/>
@@ -17643,10 +17689,10 @@
         <v>233</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C563" s="9" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D563" s="9"/>
       <c r="E563" s="9"/>
@@ -17703,10 +17749,10 @@
         <v>161</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C566" s="9" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D566" s="9" t="s">
         <v>5</v>
@@ -17765,10 +17811,10 @@
         <v>189</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C569" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D569" s="9"/>
       <c r="E569" s="9"/>
@@ -17781,10 +17827,10 @@
         <v>235</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C570" s="9" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D570" s="9" t="s">
         <v>5</v>
@@ -17799,7 +17845,7 @@
         <v>247</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C571" s="9" t="s">
         <v>251</v>
@@ -17807,7 +17853,9 @@
       <c r="D571" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E571" s="9"/>
+      <c r="E571" s="5" t="s">
+        <v>1105</v>
+      </c>
       <c r="F571" s="9"/>
       <c r="G571" s="9"/>
       <c r="H571" s="9"/>
@@ -17826,7 +17874,7 @@
         <v>4</v>
       </c>
       <c r="E572" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F572" s="5"/>
       <c r="G572" s="5" t="s">
@@ -17848,7 +17896,7 @@
         <v>4</v>
       </c>
       <c r="E573" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F573" s="5"/>
       <c r="G573" s="5" t="s">
@@ -17861,7 +17909,7 @@
         <v>211</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C574" s="9" t="s">
         <v>200</v>
@@ -17869,7 +17917,9 @@
       <c r="D574" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E574" s="9"/>
+      <c r="E574" s="5" t="s">
+        <v>1106</v>
+      </c>
       <c r="F574" s="9"/>
       <c r="G574" s="9"/>
       <c r="H574" s="9"/>
@@ -17888,7 +17938,7 @@
         <v>4</v>
       </c>
       <c r="E575" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F575" s="5"/>
       <c r="G575" s="5" t="s">
@@ -17910,7 +17960,7 @@
         <v>4</v>
       </c>
       <c r="E576" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F576" s="5"/>
       <c r="G576" s="5" t="s">
@@ -17923,10 +17973,10 @@
         <v>208</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C577" s="9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D577" s="9"/>
       <c r="E577" s="9"/>
@@ -17939,10 +17989,10 @@
         <v>190</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C578" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D578" s="9"/>
       <c r="E578" s="9"/>
@@ -17955,10 +18005,10 @@
         <v>215</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C579" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D579" s="9"/>
       <c r="E579" s="9"/>
@@ -17971,10 +18021,10 @@
         <v>209</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C580" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D580" s="9"/>
       <c r="E580" s="9"/>
@@ -17987,10 +18037,10 @@
         <v>207</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C581" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D581" s="9"/>
       <c r="E581" s="9"/>
@@ -18069,7 +18119,7 @@
         <v>149</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C585" s="9" t="s">
         <v>29</v>
@@ -18077,7 +18127,9 @@
       <c r="D585" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E585" s="9"/>
+      <c r="E585" s="5" t="s">
+        <v>1100</v>
+      </c>
       <c r="F585" s="9"/>
       <c r="G585" s="9"/>
       <c r="H585" s="9"/>
@@ -18131,10 +18183,10 @@
         <v>259</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C588" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D588" s="9" t="s">
         <v>5</v>
@@ -18149,7 +18201,7 @@
         <v>262</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C589" s="9" t="s">
         <v>308</v>
@@ -18157,7 +18209,9 @@
       <c r="D589" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E589" s="9"/>
+      <c r="E589" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F589" s="9"/>
       <c r="G589" s="9"/>
       <c r="H589" s="9"/>
@@ -18189,7 +18243,7 @@
         <v>261</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C591" s="9" t="s">
         <v>308</v>
@@ -18197,7 +18251,9 @@
       <c r="D591" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E591" s="9"/>
+      <c r="E591" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F591" s="9"/>
       <c r="G591" s="9"/>
       <c r="H591" s="9"/>
@@ -18207,7 +18263,7 @@
         <v>249</v>
       </c>
       <c r="B592" s="9" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C592" s="9" t="s">
         <v>308</v>
@@ -18215,7 +18271,9 @@
       <c r="D592" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E592" s="9"/>
+      <c r="E592" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F592" s="9"/>
       <c r="G592" s="9"/>
       <c r="H592" s="9"/>
@@ -18225,7 +18283,7 @@
         <v>256</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C593" s="9" t="s">
         <v>308</v>
@@ -18233,7 +18291,9 @@
       <c r="D593" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E593" s="9"/>
+      <c r="E593" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F593" s="9"/>
       <c r="G593" s="9"/>
       <c r="H593" s="9"/>
@@ -18243,10 +18303,10 @@
         <v>49</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C594" s="9" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D594" s="9" t="s">
         <v>5</v>
@@ -18261,10 +18321,10 @@
         <v>45</v>
       </c>
       <c r="B595" s="9" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C595" s="9" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D595" s="9"/>
       <c r="E595" s="9"/>
@@ -18277,10 +18337,10 @@
         <v>4</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C596" s="9" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D596" s="9"/>
       <c r="E596" s="9"/>
@@ -18293,10 +18353,10 @@
         <v>343</v>
       </c>
       <c r="B597" s="9" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C597" s="9" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D597" s="9"/>
       <c r="E597" s="9"/>
@@ -18309,10 +18369,10 @@
         <v>315</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C598" s="9" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D598" s="9" t="s">
         <v>5</v>
@@ -18327,10 +18387,10 @@
         <v>163</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C599" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D599" s="9"/>
       <c r="E599" s="9"/>
@@ -18343,10 +18403,10 @@
         <v>81</v>
       </c>
       <c r="B600" s="9" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C600" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D600" s="9"/>
       <c r="E600" s="9"/>
@@ -18403,7 +18463,7 @@
         <v>2</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C603" s="9" t="s">
         <v>558</v>
@@ -18411,7 +18471,9 @@
       <c r="D603" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E603" s="9"/>
+      <c r="E603" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F603" s="9"/>
       <c r="G603" s="9"/>
       <c r="H603" s="9"/>
@@ -18421,7 +18483,7 @@
         <v>128</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C604" s="9" t="s">
         <v>598</v>
@@ -18429,7 +18491,9 @@
       <c r="D604" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E604" s="9"/>
+      <c r="E604" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F604" s="9"/>
       <c r="G604" s="9"/>
       <c r="H604" s="9"/>
@@ -18527,7 +18591,7 @@
         <v>75</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C609" s="9" t="s">
         <v>194</v>
@@ -18535,7 +18599,9 @@
       <c r="D609" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E609" s="9"/>
+      <c r="E609" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F609" s="9"/>
       <c r="G609" s="9"/>
       <c r="H609" s="9"/>
@@ -18567,10 +18633,10 @@
         <v>150</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C611" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D611" s="9"/>
       <c r="E611" s="9"/>
@@ -18583,10 +18649,10 @@
         <v>254</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D612" s="9"/>
       <c r="E612" s="9"/>
@@ -18599,10 +18665,10 @@
         <v>34</v>
       </c>
       <c r="B613" s="9" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C613" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D613" s="9"/>
       <c r="E613" s="9"/>
@@ -18615,10 +18681,10 @@
         <v>35</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C614" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D614" s="9"/>
       <c r="E614" s="9"/>
@@ -18631,10 +18697,10 @@
         <v>33</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C615" s="9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D615" s="9"/>
       <c r="E615" s="9"/>
@@ -18647,10 +18713,10 @@
         <v>1</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C616" s="9" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D616" s="9"/>
       <c r="E616" s="9"/>
@@ -18663,10 +18729,10 @@
         <v>30</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C617" s="9" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D617" s="9"/>
       <c r="E617" s="9"/>
@@ -18679,10 +18745,10 @@
         <v>31</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C618" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D618" s="9"/>
       <c r="E618" s="9"/>
@@ -18695,10 +18761,10 @@
         <v>293</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C619" s="9" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D619" s="9"/>
       <c r="E619" s="9"/>
@@ -18711,10 +18777,10 @@
         <v>232</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C620" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D620" s="9"/>
       <c r="E620" s="9"/>
@@ -18727,10 +18793,10 @@
         <v>116</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C621" s="9" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D621" s="9"/>
       <c r="E621" s="9"/>
@@ -18743,10 +18809,10 @@
         <v>178</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C622" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D622" s="9"/>
       <c r="E622" s="9"/>
@@ -18759,10 +18825,10 @@
         <v>87</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D623" s="9" t="s">
         <v>5</v>
@@ -18777,10 +18843,10 @@
         <v>115</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C624" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D624" s="9" t="s">
         <v>4</v>
@@ -18795,7 +18861,7 @@
         <v>221</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C625" s="9" t="s">
         <v>231</v>
@@ -18803,7 +18869,9 @@
       <c r="D625" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E625" s="9"/>
+      <c r="E625" s="5" t="s">
+        <v>1080</v>
+      </c>
       <c r="F625" s="9"/>
       <c r="G625" s="9"/>
       <c r="H625" s="9"/>
@@ -18829,7 +18897,7 @@
         <v>37</v>
       </c>
       <c r="H626" s="5" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
@@ -18853,7 +18921,7 @@
         <v>37</v>
       </c>
       <c r="H627" s="5" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
@@ -18861,10 +18929,10 @@
         <v>333</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C628" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D628" s="9" t="s">
         <v>5</v>
@@ -18879,7 +18947,7 @@
         <v>288</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C629" s="9" t="s">
         <v>451</v>
@@ -18887,7 +18955,9 @@
       <c r="D629" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E629" s="9"/>
+      <c r="E629" s="5" t="s">
+        <v>1080</v>
+      </c>
       <c r="F629" s="9"/>
       <c r="G629" s="9"/>
       <c r="H629" s="9"/>
@@ -18913,7 +18983,7 @@
         <v>37</v>
       </c>
       <c r="H630" s="5" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
@@ -18921,10 +18991,10 @@
         <v>151</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C631" s="9" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D631" s="9"/>
       <c r="E631" s="9"/>
@@ -18937,10 +19007,10 @@
         <v>275</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C632" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D632" s="9"/>
       <c r="E632" s="9"/>
@@ -18953,10 +19023,10 @@
         <v>105</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C633" s="9" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D633" s="9" t="s">
         <v>5</v>
@@ -19067,7 +19137,7 @@
         <v>106</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C638" s="9" t="s">
         <v>9</v>
@@ -19075,7 +19145,9 @@
       <c r="D638" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E638" s="9"/>
+      <c r="E638" s="5" t="s">
+        <v>1074</v>
+      </c>
       <c r="F638" s="9"/>
       <c r="G638" s="9"/>
       <c r="H638" s="9"/>
@@ -19085,10 +19157,10 @@
         <v>206</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C639" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D639" s="9" t="s">
         <v>5</v>
@@ -19103,10 +19175,10 @@
         <v>167</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C640" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D640" s="9" t="s">
         <v>5</v>
@@ -19121,7 +19193,7 @@
         <v>284</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C641" s="9" t="s">
         <v>423</v>
@@ -19129,7 +19201,9 @@
       <c r="D641" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E641" s="9"/>
+      <c r="E641" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="F641" s="9"/>
       <c r="G641" s="9"/>
       <c r="H641" s="9"/>
@@ -19183,10 +19257,10 @@
         <v>127</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C644" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D644" s="9"/>
       <c r="E644" s="9"/>
@@ -19199,10 +19273,10 @@
         <v>136</v>
       </c>
       <c r="B645" s="9" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C645" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D645" s="9"/>
       <c r="E645" s="9"/>
@@ -19215,10 +19289,10 @@
         <v>265</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C646" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D646" s="9"/>
       <c r="E646" s="9"/>
@@ -19231,7 +19305,7 @@
         <v>184</v>
       </c>
       <c r="B647" s="9" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C647" s="9" t="s">
         <v>175</v>
@@ -19239,7 +19313,9 @@
       <c r="D647" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E647" s="9"/>
+      <c r="E647" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F647" s="9"/>
       <c r="G647" s="9"/>
       <c r="H647" s="9"/>
@@ -19271,10 +19347,10 @@
         <v>192</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C649" s="9" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D649" s="9"/>
       <c r="E649" s="9"/>
@@ -19287,10 +19363,10 @@
         <v>210</v>
       </c>
       <c r="B650" s="9" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C650" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D650" s="9"/>
       <c r="E650" s="9"/>
@@ -19325,7 +19401,7 @@
         <v>220</v>
       </c>
       <c r="B652" s="9" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C652" s="9" t="s">
         <v>531</v>
@@ -19333,7 +19409,9 @@
       <c r="D652" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E652" s="9"/>
+      <c r="E652" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F652" s="9"/>
       <c r="G652" s="9"/>
       <c r="H652" s="9"/>
@@ -19409,10 +19487,10 @@
         <v>88</v>
       </c>
       <c r="B656" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C656" s="9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D656" s="9" t="s">
         <v>5</v>
@@ -19427,10 +19505,10 @@
         <v>162</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C657" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D657" s="9"/>
       <c r="E657" s="9"/>
@@ -19443,10 +19521,10 @@
         <v>203</v>
       </c>
       <c r="B658" s="9" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C658" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D658" s="9" t="s">
         <v>5</v>
@@ -19461,10 +19539,10 @@
         <v>257</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C659" s="9" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D659" s="9"/>
       <c r="E659" s="9"/>
@@ -19477,7 +19555,7 @@
         <v>180</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C660" s="9" t="s">
         <v>170</v>
@@ -19485,7 +19563,9 @@
       <c r="D660" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E660" s="9"/>
+      <c r="E660" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F660" s="9"/>
       <c r="G660" s="9"/>
       <c r="H660" s="9"/>
@@ -19517,10 +19597,10 @@
         <v>237</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C662" s="9" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D662" s="9" t="s">
         <v>5</v>
@@ -19535,10 +19615,10 @@
         <v>224</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C663" s="9" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D663" s="9"/>
       <c r="E663" s="9"/>
@@ -19551,10 +19631,10 @@
         <v>292</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C664" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D664" s="9"/>
       <c r="E664" s="9"/>
@@ -19567,10 +19647,10 @@
         <v>289</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C665" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D665" s="9"/>
       <c r="E665" s="9"/>
@@ -19583,10 +19663,10 @@
         <v>291</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C666" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D666" s="9"/>
       <c r="E666" s="9"/>
@@ -19599,10 +19679,10 @@
         <v>281</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C667" s="9" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D667" s="9"/>
       <c r="E667" s="9"/>
@@ -19615,10 +19695,10 @@
         <v>280</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C668" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D668" s="9"/>
       <c r="E668" s="9"/>
@@ -19631,7 +19711,7 @@
         <v>130</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C669" s="9" t="s">
         <v>600</v>
@@ -19639,7 +19719,9 @@
       <c r="D669" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E669" s="9"/>
+      <c r="E669" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F669" s="9"/>
       <c r="G669" s="9"/>
       <c r="H669" s="9"/>
@@ -19737,10 +19819,10 @@
         <v>182</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C674" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D674" s="9"/>
       <c r="E674" s="9"/>
@@ -19753,7 +19835,7 @@
         <v>246</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C675" s="9" t="s">
         <v>280</v>
@@ -19761,7 +19843,9 @@
       <c r="D675" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E675" s="9"/>
+      <c r="E675" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F675" s="9"/>
       <c r="G675" s="9"/>
       <c r="H675" s="9"/>
@@ -19793,10 +19877,10 @@
         <v>299</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C677" s="9" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D677" s="9"/>
       <c r="E677" s="9"/>
@@ -19809,7 +19893,7 @@
         <v>330</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C678" s="9" t="s">
         <v>13</v>
@@ -19817,7 +19901,9 @@
       <c r="D678" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E678" s="9"/>
+      <c r="E678" s="5" t="s">
+        <v>1084</v>
+      </c>
       <c r="F678" s="9"/>
       <c r="G678" s="9"/>
       <c r="H678" s="9"/>
@@ -19849,7 +19935,7 @@
         <v>290</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C680" s="9" t="s">
         <v>456</v>
@@ -19857,7 +19943,9 @@
       <c r="D680" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E680" s="9"/>
+      <c r="E680" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="F680" s="9"/>
       <c r="G680" s="9"/>
       <c r="H680" s="9"/>
@@ -19876,7 +19964,7 @@
         <v>5</v>
       </c>
       <c r="E681" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F681" s="5"/>
       <c r="G681" s="5" t="s">
@@ -19898,7 +19986,7 @@
         <v>5</v>
       </c>
       <c r="E682" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F682" s="5"/>
       <c r="G682" s="5" t="s">
@@ -19911,7 +19999,7 @@
         <v>269</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="C683" s="9" t="s">
         <v>446</v>
@@ -19919,7 +20007,9 @@
       <c r="D683" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E683" s="9"/>
+      <c r="E683" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="F683" s="9"/>
       <c r="G683" s="9"/>
       <c r="H683" s="9"/>
@@ -19938,7 +20028,7 @@
         <v>4</v>
       </c>
       <c r="E684" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F684" s="5"/>
       <c r="G684" s="5" t="s">
@@ -19960,7 +20050,7 @@
         <v>4</v>
       </c>
       <c r="E685" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F685" s="5"/>
       <c r="G685" s="5" t="s">
@@ -19982,7 +20072,7 @@
         <v>4</v>
       </c>
       <c r="E686" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F686" s="5"/>
       <c r="G686" s="5" t="s">
@@ -20004,7 +20094,7 @@
         <v>4</v>
       </c>
       <c r="E687" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F687" s="5"/>
       <c r="G687" s="5" t="s">
@@ -20026,7 +20116,7 @@
         <v>4</v>
       </c>
       <c r="E688" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F688" s="5"/>
       <c r="G688" s="5" t="s">
@@ -20369,7 +20459,7 @@
         <v>310</v>
       </c>
       <c r="B704" s="9" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C704" s="9" t="s">
         <v>17</v>
@@ -20377,7 +20467,9 @@
       <c r="D704" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E704" s="9"/>
+      <c r="E704" s="5" t="s">
+        <v>1082</v>
+      </c>
       <c r="F704" s="9"/>
       <c r="G704" s="9"/>
       <c r="H704" s="9"/>
@@ -20453,10 +20545,10 @@
         <v>313</v>
       </c>
       <c r="B708" s="9" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C708" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D708" s="9"/>
       <c r="E708" s="9"/>
@@ -20469,7 +20561,7 @@
         <v>228</v>
       </c>
       <c r="B709" s="9" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C709" s="9" t="s">
         <v>142</v>
@@ -20477,7 +20569,9 @@
       <c r="D709" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E709" s="9"/>
+      <c r="E709" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="F709" s="9"/>
       <c r="G709" s="9"/>
       <c r="H709" s="9"/>
@@ -20496,7 +20590,7 @@
         <v>5</v>
       </c>
       <c r="E710" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F710" s="5"/>
       <c r="G710" s="5" t="s">
@@ -20509,7 +20603,7 @@
         <v>349</v>
       </c>
       <c r="B711" s="9" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C711" s="9" t="s">
         <v>27</v>
@@ -20517,7 +20611,9 @@
       <c r="D711" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E711" s="9"/>
+      <c r="E711" s="5" t="s">
+        <v>1114</v>
+      </c>
       <c r="F711" s="9"/>
       <c r="G711" s="9"/>
       <c r="H711" s="9"/>
@@ -20536,7 +20632,7 @@
         <v>4</v>
       </c>
       <c r="E712" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F712" s="5"/>
       <c r="G712" s="5" t="s">
@@ -20558,7 +20654,7 @@
         <v>4</v>
       </c>
       <c r="E713" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F713" s="5"/>
       <c r="G713" s="5" t="s">
@@ -20571,7 +20667,7 @@
         <v>248</v>
       </c>
       <c r="B714" s="9" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C714" s="9" t="s">
         <v>376</v>
@@ -20598,7 +20694,7 @@
         <v>5</v>
       </c>
       <c r="E715" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F715" s="5"/>
       <c r="G715" s="5" t="s">
@@ -20611,7 +20707,7 @@
         <v>142</v>
       </c>
       <c r="B716" s="9" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="C716" s="9" t="s">
         <v>140</v>
@@ -20619,7 +20715,9 @@
       <c r="D716" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E716" s="9"/>
+      <c r="E716" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="F716" s="9"/>
       <c r="G716" s="9"/>
       <c r="H716" s="9"/>
@@ -20638,7 +20736,7 @@
         <v>5</v>
       </c>
       <c r="E717" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F717" s="5"/>
       <c r="G717" s="5" t="s">
@@ -20651,7 +20749,7 @@
         <v>346</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C718" s="9" t="s">
         <v>1027</v>
@@ -20659,7 +20757,9 @@
       <c r="D718" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E718" s="9"/>
+      <c r="E718" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="F718" s="9"/>
       <c r="G718" s="9"/>
       <c r="H718" s="9"/>
@@ -20678,7 +20778,7 @@
         <v>4</v>
       </c>
       <c r="E719" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F719" s="5"/>
       <c r="G719" s="5" t="s">
@@ -20691,7 +20791,7 @@
         <v>126</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C720" s="9" t="s">
         <v>128</v>
@@ -20699,7 +20799,9 @@
       <c r="D720" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E720" s="9"/>
+      <c r="E720" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="F720" s="9"/>
       <c r="G720" s="9"/>
       <c r="H720" s="9"/>
@@ -20718,7 +20820,7 @@
         <v>5</v>
       </c>
       <c r="E721" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F721" s="5"/>
       <c r="G721" s="5" t="s">
@@ -20731,7 +20833,7 @@
         <v>345</v>
       </c>
       <c r="B722" s="9" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C722" s="9" t="s">
         <v>998</v>
@@ -20739,7 +20841,9 @@
       <c r="D722" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E722" s="9"/>
+      <c r="E722" s="5" t="s">
+        <v>1107</v>
+      </c>
       <c r="F722" s="9"/>
       <c r="G722" s="9"/>
       <c r="H722" s="9"/>
@@ -20758,7 +20862,7 @@
         <v>4</v>
       </c>
       <c r="E723" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F723" s="5"/>
       <c r="G723" s="5" t="s">
@@ -20771,10 +20875,10 @@
         <v>131</v>
       </c>
       <c r="B724" s="9" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C724" s="9" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D724" s="9"/>
       <c r="E724" s="9"/>
@@ -20787,10 +20891,10 @@
         <v>276</v>
       </c>
       <c r="B725" s="9" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C725" s="9" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D725" s="9"/>
       <c r="E725" s="9"/>
@@ -20803,10 +20907,10 @@
         <v>95</v>
       </c>
       <c r="B726" s="9" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C726" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D726" s="9" t="s">
         <v>5</v>
@@ -20821,10 +20925,10 @@
         <v>85</v>
       </c>
       <c r="B727" s="9" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C727" s="9" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D727" s="9"/>
       <c r="E727" s="9"/>
@@ -20837,10 +20941,10 @@
         <v>271</v>
       </c>
       <c r="B728" s="9" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C728" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D728" s="9"/>
       <c r="E728" s="9"/>
@@ -20853,10 +20957,10 @@
         <v>29</v>
       </c>
       <c r="B729" s="9" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C729" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D729" s="9"/>
       <c r="E729" s="9"/>
@@ -20869,10 +20973,10 @@
         <v>204</v>
       </c>
       <c r="B730" s="9" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C730" s="9" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D730" s="9"/>
       <c r="E730" s="9"/>
@@ -20885,10 +20989,10 @@
         <v>238</v>
       </c>
       <c r="B731" s="9" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C731" s="9" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D731" s="9"/>
       <c r="E731" s="9"/>
@@ -20901,10 +21005,10 @@
         <v>274</v>
       </c>
       <c r="B732" s="9" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C732" s="9" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D732" s="9"/>
       <c r="E732" s="9"/>
@@ -20917,10 +21021,10 @@
         <v>272</v>
       </c>
       <c r="B733" s="9" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C733" s="9" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D733" s="9"/>
       <c r="E733" s="9"/>
@@ -20933,10 +21037,10 @@
         <v>225</v>
       </c>
       <c r="B734" s="9" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C734" s="9" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D734" s="9" t="s">
         <v>4</v>
@@ -20951,7 +21055,7 @@
         <v>336</v>
       </c>
       <c r="B735" s="9" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C735" s="9" t="s">
         <v>15</v>
@@ -20959,7 +21063,9 @@
       <c r="D735" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E735" s="9"/>
+      <c r="E735" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F735" s="9"/>
       <c r="G735" s="9"/>
       <c r="H735" s="9"/>
@@ -20991,10 +21097,10 @@
         <v>339</v>
       </c>
       <c r="B737" s="9" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C737" s="9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D737" s="9"/>
       <c r="E737" s="9"/>
@@ -21007,10 +21113,10 @@
         <v>296</v>
       </c>
       <c r="B738" s="9" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C738" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D738" s="9" t="s">
         <v>4</v>
@@ -21025,10 +21131,10 @@
         <v>283</v>
       </c>
       <c r="B739" s="9" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C739" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D739" s="9" t="s">
         <v>4</v>
@@ -21043,10 +21149,10 @@
         <v>64</v>
       </c>
       <c r="B740" s="9" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C740" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D740" s="9"/>
       <c r="E740" s="9"/>
@@ -21059,10 +21165,10 @@
         <v>48</v>
       </c>
       <c r="B741" s="9" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C741" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D741" s="9" t="s">
         <v>5</v>
@@ -21077,10 +21183,10 @@
         <v>65</v>
       </c>
       <c r="B742" s="9" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C742" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D742" s="9" t="s">
         <v>5</v>
@@ -21095,10 +21201,10 @@
         <v>47</v>
       </c>
       <c r="B743" s="9" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C743" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D743" s="9" t="s">
         <v>5</v>
@@ -21113,10 +21219,10 @@
         <v>68</v>
       </c>
       <c r="B744" s="9" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C744" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D744" s="9" t="s">
         <v>5</v>
@@ -21131,10 +21237,10 @@
         <v>58</v>
       </c>
       <c r="B745" s="9" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C745" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D745" s="9" t="s">
         <v>5</v>
@@ -21149,10 +21255,10 @@
         <v>62</v>
       </c>
       <c r="B746" s="9" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C746" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D746" s="9" t="s">
         <v>5</v>
@@ -21167,10 +21273,10 @@
         <v>63</v>
       </c>
       <c r="B747" s="9" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C747" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D747" s="9" t="s">
         <v>5</v>
@@ -21185,10 +21291,10 @@
         <v>60</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C748" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D748" s="9" t="s">
         <v>5</v>
@@ -21203,10 +21309,10 @@
         <v>55</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C749" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D749" s="9" t="s">
         <v>5</v>
@@ -21221,10 +21327,10 @@
         <v>66</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C750" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D750" s="9" t="s">
         <v>5</v>
@@ -21239,10 +21345,10 @@
         <v>61</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C751" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D751" s="9" t="s">
         <v>5</v>
@@ -21257,10 +21363,10 @@
         <v>56</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C752" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D752" s="9" t="s">
         <v>5</v>
@@ -21275,10 +21381,10 @@
         <v>73</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C753" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D753" s="9" t="s">
         <v>5</v>
@@ -21293,10 +21399,10 @@
         <v>53</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C754" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D754" s="9" t="s">
         <v>5</v>
@@ -21311,10 +21417,10 @@
         <v>57</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C755" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D755" s="9" t="s">
         <v>5</v>
@@ -21329,10 +21435,10 @@
         <v>59</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C756" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D756" s="9" t="s">
         <v>5</v>
@@ -21347,10 +21453,10 @@
         <v>54</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="C757" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D757" s="9" t="s">
         <v>5</v>
@@ -21365,10 +21471,10 @@
         <v>51</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C758" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D758" s="9" t="s">
         <v>5</v>
@@ -21383,10 +21489,10 @@
         <v>52</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C759" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D759" s="9" t="s">
         <v>5</v>
@@ -21401,10 +21507,10 @@
         <v>50</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C760" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D760" s="9" t="s">
         <v>5</v>
@@ -21419,10 +21525,10 @@
         <v>46</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C761" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D761" s="9" t="s">
         <v>5</v>
@@ -21437,10 +21543,10 @@
         <v>67</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C762" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D762" s="9" t="s">
         <v>5</v>
@@ -21455,7 +21561,7 @@
         <v>322</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C763" s="9" t="s">
         <v>746</v>
@@ -21463,7 +21569,9 @@
       <c r="D763" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E763" s="9"/>
+      <c r="E763" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F763" s="9"/>
       <c r="G763" s="9"/>
       <c r="H763" s="9"/>
@@ -21539,10 +21647,10 @@
         <v>138</v>
       </c>
       <c r="B767" s="9" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C767" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D767" s="9"/>
       <c r="E767" s="9"/>
@@ -21555,10 +21663,10 @@
         <v>7</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C768" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D768" s="9"/>
       <c r="E768" s="9"/>
@@ -21571,7 +21679,7 @@
         <v>321</v>
       </c>
       <c r="B769" s="9" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C769" s="9" t="s">
         <v>16</v>
@@ -21579,7 +21687,9 @@
       <c r="D769" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E769" s="9"/>
+      <c r="E769" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F769" s="9"/>
       <c r="G769" s="9"/>
       <c r="H769" s="9"/>
@@ -23019,7 +23129,7 @@
         <v>14</v>
       </c>
       <c r="B835" s="9" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C835" s="9" t="s">
         <v>30</v>
@@ -23027,7 +23137,9 @@
       <c r="D835" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E835" s="9"/>
+      <c r="E835" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="F835" s="9"/>
       <c r="G835" s="9"/>
       <c r="H835" s="9"/>
@@ -23103,10 +23215,10 @@
         <v>8</v>
       </c>
       <c r="B839" s="9" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C839" s="9" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D839" s="9"/>
       <c r="E839" s="9"/>
@@ -23119,10 +23231,10 @@
         <v>23</v>
       </c>
       <c r="B840" s="9" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C840" s="9" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D840" s="9"/>
       <c r="E840" s="9"/>
@@ -23135,7 +23247,7 @@
         <v>16</v>
       </c>
       <c r="B841" s="9" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C841" s="9" t="s">
         <v>31</v>
@@ -23143,7 +23255,9 @@
       <c r="D841" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E841" s="9"/>
+      <c r="E841" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="F841" s="9"/>
       <c r="G841" s="9"/>
       <c r="H841" s="9"/>
@@ -23395,7 +23509,7 @@
         <v>329</v>
       </c>
       <c r="B853" s="9" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C853" s="9" t="s">
         <v>20</v>
@@ -23403,7 +23517,9 @@
       <c r="D853" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E853" s="9"/>
+      <c r="E853" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="F853" s="9"/>
       <c r="G853" s="9"/>
       <c r="H853" s="9"/>
@@ -23435,7 +23551,7 @@
         <v>169</v>
       </c>
       <c r="B855" s="9" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C855" s="9" t="s">
         <v>161</v>
@@ -23443,7 +23559,9 @@
       <c r="D855" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E855" s="9"/>
+      <c r="E855" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F855" s="9"/>
       <c r="G855" s="9"/>
       <c r="H855" s="9"/>
@@ -23475,10 +23593,10 @@
         <v>72</v>
       </c>
       <c r="B857" s="9" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C857" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D857" s="9" t="s">
         <v>5</v>
@@ -23493,10 +23611,10 @@
         <v>171</v>
       </c>
       <c r="B858" s="9" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C858" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D858" s="9" t="s">
         <v>5</v>
@@ -23511,10 +23629,10 @@
         <v>90</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C859" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D859" s="9" t="s">
         <v>5</v>
@@ -23529,10 +23647,10 @@
         <v>97</v>
       </c>
       <c r="B860" s="9" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C860" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D860" s="9" t="s">
         <v>5</v>
@@ -23547,7 +23665,7 @@
         <v>213</v>
       </c>
       <c r="B861" s="9" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C861" s="9" t="s">
         <v>204</v>
@@ -23555,7 +23673,9 @@
       <c r="D861" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E861" s="9"/>
+      <c r="E861" s="5" t="s">
+        <v>1064</v>
+      </c>
       <c r="F861" s="9"/>
       <c r="G861" s="9"/>
       <c r="H861" s="9"/>
@@ -23609,10 +23729,10 @@
         <v>133</v>
       </c>
       <c r="B864" s="9" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C864" s="9" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D864" s="9" t="s">
         <v>5</v>
@@ -23627,10 +23747,10 @@
         <v>147</v>
       </c>
       <c r="B865" s="9" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C865" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D865" s="9" t="s">
         <v>5</v>
@@ -23645,10 +23765,10 @@
         <v>112</v>
       </c>
       <c r="B866" s="9" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C866" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D866" s="9"/>
       <c r="E866" s="9"/>
@@ -23661,7 +23781,7 @@
         <v>5</v>
       </c>
       <c r="B867" s="9" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C867" s="9" t="s">
         <v>579</v>
@@ -23669,7 +23789,9 @@
       <c r="D867" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E867" s="9"/>
+      <c r="E867" s="5" t="s">
+        <v>1100</v>
+      </c>
       <c r="F867" s="9"/>
       <c r="G867" s="9"/>
       <c r="H867" s="9"/>
@@ -23745,10 +23867,10 @@
         <v>111</v>
       </c>
       <c r="B871" s="9" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C871" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D871" s="9"/>
       <c r="E871" s="9"/>
@@ -23761,10 +23883,10 @@
         <v>241</v>
       </c>
       <c r="B872" s="9" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C872" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D872" s="9"/>
       <c r="E872" s="9"/>
@@ -23777,10 +23899,10 @@
         <v>120</v>
       </c>
       <c r="B873" s="9" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C873" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D873" s="9"/>
       <c r="E873" s="9"/>
@@ -23793,10 +23915,10 @@
         <v>152</v>
       </c>
       <c r="B874" s="9" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C874" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D874" s="9"/>
       <c r="E874" s="9"/>
@@ -23809,10 +23931,10 @@
         <v>166</v>
       </c>
       <c r="B875" s="9" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C875" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D875" s="9"/>
       <c r="E875" s="9"/>
@@ -23825,7 +23947,7 @@
         <v>118</v>
       </c>
       <c r="B876" s="9" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C876" s="9" t="s">
         <v>123</v>
@@ -23833,7 +23955,9 @@
       <c r="D876" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E876" s="9"/>
+      <c r="E876" s="5" t="s">
+        <v>1105</v>
+      </c>
       <c r="F876" s="9"/>
       <c r="G876" s="9"/>
       <c r="H876" s="9"/>
@@ -23852,7 +23976,7 @@
         <v>5</v>
       </c>
       <c r="E877" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F877" s="5"/>
       <c r="G877" s="5" t="s">
@@ -23874,7 +23998,7 @@
         <v>4</v>
       </c>
       <c r="E878" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F878" s="5"/>
       <c r="G878" s="5" t="s">
@@ -23896,7 +24020,7 @@
         <v>4</v>
       </c>
       <c r="E879" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F879" s="5"/>
       <c r="G879" s="5" t="s">
@@ -23918,7 +24042,7 @@
         <v>4</v>
       </c>
       <c r="E880" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F880" s="5"/>
       <c r="G880" s="5" t="s">
@@ -23940,7 +24064,7 @@
         <v>4</v>
       </c>
       <c r="E881" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F881" s="5"/>
       <c r="G881" s="5" t="s">
@@ -23962,7 +24086,7 @@
         <v>4</v>
       </c>
       <c r="E882" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F882" s="5"/>
       <c r="G882" s="5" t="s">
@@ -23975,7 +24099,7 @@
         <v>41</v>
       </c>
       <c r="B883" s="9" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C883" s="9" t="s">
         <v>137</v>
@@ -23983,7 +24107,9 @@
       <c r="D883" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E883" s="9"/>
+      <c r="E883" s="5" t="s">
+        <v>1103</v>
+      </c>
       <c r="F883" s="9"/>
       <c r="G883" s="9"/>
       <c r="H883" s="9"/>
@@ -23993,7 +24119,7 @@
         <v>144</v>
       </c>
       <c r="B884" s="9" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C884" s="9" t="s">
         <v>147</v>
@@ -24001,7 +24127,9 @@
       <c r="D884" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E884" s="9"/>
+      <c r="E884" s="5" t="s">
+        <v>1106</v>
+      </c>
       <c r="F884" s="9"/>
       <c r="G884" s="9"/>
       <c r="H884" s="9"/>
@@ -24020,7 +24148,7 @@
         <v>4</v>
       </c>
       <c r="E885" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F885" s="5"/>
       <c r="G885" s="5" t="s">
@@ -24033,10 +24161,10 @@
         <v>92</v>
       </c>
       <c r="B886" s="9" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C886" s="9" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D886" s="9"/>
       <c r="E886" s="9"/>
@@ -24049,10 +24177,10 @@
         <v>129</v>
       </c>
       <c r="B887" s="9" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C887" s="9" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D887" s="9" t="s">
         <v>5</v>
@@ -24067,10 +24195,10 @@
         <v>338</v>
       </c>
       <c r="B888" s="9" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C888" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D888" s="9" t="s">
         <v>5</v>
@@ -24085,10 +24213,10 @@
         <v>340</v>
       </c>
       <c r="B889" s="9" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C889" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D889" s="9"/>
       <c r="E889" s="9"/>
@@ -24101,10 +24229,10 @@
         <v>218</v>
       </c>
       <c r="B890" s="9" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C890" s="9" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D890" s="9" t="s">
         <v>5</v>
@@ -24119,10 +24247,10 @@
         <v>230</v>
       </c>
       <c r="B891" s="9" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C891" s="9" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D891" s="9"/>
       <c r="E891" s="9"/>
@@ -24135,10 +24263,10 @@
         <v>195</v>
       </c>
       <c r="B892" s="9" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C892" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D892" s="9" t="s">
         <v>5</v>
@@ -24153,10 +24281,10 @@
         <v>123</v>
       </c>
       <c r="B893" s="9" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C893" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D893" s="9"/>
       <c r="E893" s="9"/>
@@ -24169,10 +24297,10 @@
         <v>77</v>
       </c>
       <c r="B894" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D894" s="9" t="s">
         <v>5</v>
@@ -24187,10 +24315,10 @@
         <v>305</v>
       </c>
       <c r="B895" s="9" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C895" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D895" s="9"/>
       <c r="E895" s="9"/>
@@ -24203,10 +24331,10 @@
         <v>278</v>
       </c>
       <c r="B896" s="9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C896" s="9" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D896" s="9"/>
       <c r="E896" s="9"/>
@@ -24219,10 +24347,10 @@
         <v>279</v>
       </c>
       <c r="B897" s="9" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C897" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D897" s="9"/>
       <c r="E897" s="9"/>
@@ -24235,10 +24363,10 @@
         <v>273</v>
       </c>
       <c r="B898" s="9" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C898" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D898" s="9"/>
       <c r="E898" s="9"/>
@@ -24251,10 +24379,10 @@
         <v>223</v>
       </c>
       <c r="B899" s="9" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C899" s="9" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D899" s="9"/>
       <c r="E899" s="9"/>
@@ -24267,10 +24395,10 @@
         <v>99</v>
       </c>
       <c r="B900" s="9" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C900" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D900" s="9" t="s">
         <v>5</v>
@@ -24285,10 +24413,10 @@
         <v>26</v>
       </c>
       <c r="B901" s="9" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D901" s="9"/>
       <c r="E901" s="9"/>
@@ -24301,10 +24429,10 @@
         <v>193</v>
       </c>
       <c r="B902" s="9" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C902" s="9" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D902" s="9"/>
       <c r="E902" s="9"/>
@@ -24317,7 +24445,7 @@
         <v>194</v>
       </c>
       <c r="B903" s="9" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C903" s="9" t="s">
         <v>187</v>
@@ -24325,7 +24453,9 @@
       <c r="D903" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E903" s="9"/>
+      <c r="E903" s="5" t="s">
+        <v>1079</v>
+      </c>
       <c r="F903" s="9"/>
       <c r="G903" s="9"/>
       <c r="H903" s="9"/>
@@ -24379,10 +24509,10 @@
         <v>137</v>
       </c>
       <c r="B906" s="9" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C906" s="9" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D906" s="9" t="s">
         <v>5</v>
@@ -24397,7 +24527,7 @@
         <v>201</v>
       </c>
       <c r="B907" s="9" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C907" s="9" t="s">
         <v>14</v>
@@ -24405,7 +24535,9 @@
       <c r="D907" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E907" s="9"/>
+      <c r="E907" s="5" t="s">
+        <v>1080</v>
+      </c>
       <c r="F907" s="9"/>
       <c r="G907" s="9"/>
       <c r="H907" s="9"/>
@@ -24431,7 +24563,7 @@
         <v>37</v>
       </c>
       <c r="H908" s="5" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.25">
@@ -24455,7 +24587,7 @@
         <v>37</v>
       </c>
       <c r="H909" s="5" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.25">
@@ -24463,10 +24595,10 @@
         <v>191</v>
       </c>
       <c r="B910" s="9" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C910" s="9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D910" s="9" t="s">
         <v>5</v>
@@ -24481,10 +24613,10 @@
         <v>187</v>
       </c>
       <c r="B911" s="9" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C911" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D911" s="9" t="s">
         <v>4</v>
@@ -24499,7 +24631,7 @@
         <v>326</v>
       </c>
       <c r="B912" s="9" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C912" s="9" t="s">
         <v>985</v>
@@ -24507,7 +24639,9 @@
       <c r="D912" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E912" s="9"/>
+      <c r="E912" s="5" t="s">
+        <v>1103</v>
+      </c>
       <c r="F912" s="9"/>
       <c r="G912" s="9"/>
       <c r="H912" s="9"/>
@@ -24526,7 +24660,7 @@
         <v>4</v>
       </c>
       <c r="E913" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F913" s="5"/>
       <c r="G913" s="5" t="s">
@@ -24548,7 +24682,7 @@
         <v>4</v>
       </c>
       <c r="E914" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F914" s="5"/>
       <c r="G914" s="5" t="s">
@@ -24570,7 +24704,7 @@
         <v>4</v>
       </c>
       <c r="E915" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F915" s="5"/>
       <c r="G915" s="5" t="s">
@@ -24979,7 +25113,7 @@
         <v>317</v>
       </c>
       <c r="B934" s="9" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C934" s="9" t="s">
         <v>22</v>
@@ -24987,7 +25121,9 @@
       <c r="D934" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E934" s="9"/>
+      <c r="E934" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F934" s="9"/>
       <c r="G934" s="9"/>
       <c r="H934" s="9"/>
@@ -25019,10 +25155,10 @@
         <v>285</v>
       </c>
       <c r="B936" s="9" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C936" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D936" s="9" t="s">
         <v>4</v>
@@ -25037,10 +25173,10 @@
         <v>311</v>
       </c>
       <c r="B937" s="9" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C937" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D937" s="9" t="s">
         <v>4</v>
@@ -25055,10 +25191,10 @@
         <v>316</v>
       </c>
       <c r="B938" s="9" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C938" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D938" s="9" t="s">
         <v>4</v>
@@ -25082,7 +25218,7 @@
         <v>4</v>
       </c>
       <c r="E939" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F939" s="5"/>
       <c r="G939" s="5" t="s">
@@ -25104,7 +25240,7 @@
         <v>4</v>
       </c>
       <c r="E940" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F940" s="5"/>
       <c r="G940" s="5" t="s">
@@ -25126,7 +25262,7 @@
         <v>4</v>
       </c>
       <c r="E941" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F941" s="5"/>
       <c r="G941" s="5" t="s">
@@ -25148,7 +25284,7 @@
         <v>4</v>
       </c>
       <c r="E942" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F942" s="5"/>
       <c r="G942" s="5" t="s">
@@ -25170,7 +25306,7 @@
         <v>4</v>
       </c>
       <c r="E943" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F943" s="5"/>
       <c r="G943" s="5" t="s">
@@ -25192,7 +25328,7 @@
         <v>4</v>
       </c>
       <c r="E944" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F944" s="5"/>
       <c r="G944" s="5" t="s">
@@ -25214,7 +25350,7 @@
         <v>4</v>
       </c>
       <c r="E945" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F945" s="5"/>
       <c r="G945" s="5" t="s">
@@ -25236,7 +25372,7 @@
         <v>4</v>
       </c>
       <c r="E946" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F946" s="5"/>
       <c r="G946" s="5" t="s">
@@ -25258,7 +25394,7 @@
         <v>4</v>
       </c>
       <c r="E947" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F947" s="5"/>
       <c r="G947" s="5" t="s">
@@ -25280,7 +25416,7 @@
         <v>4</v>
       </c>
       <c r="E948" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F948" s="5"/>
       <c r="G948" s="5" t="s">
@@ -25302,7 +25438,7 @@
         <v>4</v>
       </c>
       <c r="E949" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F949" s="5"/>
       <c r="G949" s="5" t="s">
@@ -25324,7 +25460,7 @@
         <v>4</v>
       </c>
       <c r="E950" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F950" s="5"/>
       <c r="G950" s="5" t="s">
@@ -25346,7 +25482,7 @@
         <v>4</v>
       </c>
       <c r="E951" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F951" s="5"/>
       <c r="G951" s="5" t="s">
@@ -25368,7 +25504,7 @@
         <v>4</v>
       </c>
       <c r="E952" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F952" s="5"/>
       <c r="G952" s="5" t="s">
@@ -25390,7 +25526,7 @@
         <v>4</v>
       </c>
       <c r="E953" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F953" s="5"/>
       <c r="G953" s="5" t="s">
@@ -25412,7 +25548,7 @@
         <v>4</v>
       </c>
       <c r="E954" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F954" s="5"/>
       <c r="G954" s="5" t="s">
@@ -25434,7 +25570,7 @@
         <v>4</v>
       </c>
       <c r="E955" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F955" s="5"/>
       <c r="G955" s="5" t="s">
@@ -25456,7 +25592,7 @@
         <v>4</v>
       </c>
       <c r="E956" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F956" s="5"/>
       <c r="G956" s="5" t="s">
@@ -25478,7 +25614,7 @@
         <v>4</v>
       </c>
       <c r="E957" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F957" s="5"/>
       <c r="G957" s="5" t="s">
@@ -25500,7 +25636,7 @@
         <v>4</v>
       </c>
       <c r="E958" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F958" s="5"/>
       <c r="G958" s="5" t="s">
@@ -25522,7 +25658,7 @@
         <v>4</v>
       </c>
       <c r="E959" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F959" s="5"/>
       <c r="G959" s="5" t="s">
@@ -25544,7 +25680,7 @@
         <v>4</v>
       </c>
       <c r="E960" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F960" s="5"/>
       <c r="G960" s="5" t="s">
@@ -25566,7 +25702,7 @@
         <v>4</v>
       </c>
       <c r="E961" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F961" s="5"/>
       <c r="G961" s="5" t="s">
@@ -25588,7 +25724,7 @@
         <v>4</v>
       </c>
       <c r="E962" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F962" s="5"/>
       <c r="G962" s="5" t="s">
@@ -25610,7 +25746,7 @@
         <v>4</v>
       </c>
       <c r="E963" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F963" s="5"/>
       <c r="G963" s="5" t="s">
@@ -25632,7 +25768,7 @@
         <v>4</v>
       </c>
       <c r="E964" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F964" s="5"/>
       <c r="G964" s="5" t="s">
@@ -25654,7 +25790,7 @@
         <v>4</v>
       </c>
       <c r="E965" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F965" s="5"/>
       <c r="G965" s="5" t="s">
@@ -25676,7 +25812,7 @@
         <v>4</v>
       </c>
       <c r="E966" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F966" s="5"/>
       <c r="G966" s="5" t="s">
@@ -25698,7 +25834,7 @@
         <v>4</v>
       </c>
       <c r="E967" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F967" s="5"/>
       <c r="G967" s="5" t="s">
@@ -25720,7 +25856,7 @@
         <v>4</v>
       </c>
       <c r="E968" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F968" s="5"/>
       <c r="G968" s="5" t="s">
@@ -25742,7 +25878,7 @@
         <v>4</v>
       </c>
       <c r="E969" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F969" s="5"/>
       <c r="G969" s="5" t="s">
@@ -25764,7 +25900,7 @@
         <v>4</v>
       </c>
       <c r="E970" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F970" s="5"/>
       <c r="G970" s="5" t="s">
@@ -25786,7 +25922,7 @@
         <v>4</v>
       </c>
       <c r="E971" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F971" s="5"/>
       <c r="G971" s="5" t="s">
@@ -25808,7 +25944,7 @@
         <v>4</v>
       </c>
       <c r="E972" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F972" s="5"/>
       <c r="G972" s="5" t="s">
@@ -25830,7 +25966,7 @@
         <v>4</v>
       </c>
       <c r="E973" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F973" s="5"/>
       <c r="G973" s="5" t="s">
@@ -25852,7 +25988,7 @@
         <v>4</v>
       </c>
       <c r="E974" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F974" s="5"/>
       <c r="G974" s="5" t="s">
@@ -25874,7 +26010,7 @@
         <v>4</v>
       </c>
       <c r="E975" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F975" s="5"/>
       <c r="G975" s="5" t="s">
@@ -25896,7 +26032,7 @@
         <v>4</v>
       </c>
       <c r="E976" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F976" s="5"/>
       <c r="G976" s="5" t="s">
@@ -25918,7 +26054,7 @@
         <v>4</v>
       </c>
       <c r="E977" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F977" s="5"/>
       <c r="G977" s="5" t="s">
@@ -25940,7 +26076,7 @@
         <v>4</v>
       </c>
       <c r="E978" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F978" s="5"/>
       <c r="G978" s="5" t="s">
@@ -25962,7 +26098,7 @@
         <v>4</v>
       </c>
       <c r="E979" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F979" s="5"/>
       <c r="G979" s="5" t="s">
@@ -25984,7 +26120,7 @@
         <v>4</v>
       </c>
       <c r="E980" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F980" s="5"/>
       <c r="G980" s="5" t="s">
@@ -26006,7 +26142,7 @@
         <v>4</v>
       </c>
       <c r="E981" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F981" s="5"/>
       <c r="G981" s="5" t="s">
@@ -26028,7 +26164,7 @@
         <v>4</v>
       </c>
       <c r="E982" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F982" s="5"/>
       <c r="G982" s="5" t="s">
@@ -26050,7 +26186,7 @@
         <v>4</v>
       </c>
       <c r="E983" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F983" s="5"/>
       <c r="G983" s="5" t="s">
@@ -26072,7 +26208,7 @@
         <v>4</v>
       </c>
       <c r="E984" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F984" s="5"/>
       <c r="G984" s="5" t="s">
@@ -26094,7 +26230,7 @@
         <v>4</v>
       </c>
       <c r="E985" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F985" s="5"/>
       <c r="G985" s="5" t="s">
@@ -26116,7 +26252,7 @@
         <v>4</v>
       </c>
       <c r="E986" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F986" s="5"/>
       <c r="G986" s="5" t="s">
@@ -26138,7 +26274,7 @@
         <v>4</v>
       </c>
       <c r="E987" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F987" s="5"/>
       <c r="G987" s="5" t="s">
@@ -26160,7 +26296,7 @@
         <v>4</v>
       </c>
       <c r="E988" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F988" s="5"/>
       <c r="G988" s="5" t="s">
@@ -26182,7 +26318,7 @@
         <v>4</v>
       </c>
       <c r="E989" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F989" s="5"/>
       <c r="G989" s="5" t="s">
@@ -26204,7 +26340,7 @@
         <v>4</v>
       </c>
       <c r="E990" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F990" s="5"/>
       <c r="G990" s="5" t="s">
@@ -26226,7 +26362,7 @@
         <v>4</v>
       </c>
       <c r="E991" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F991" s="5"/>
       <c r="G991" s="5" t="s">
@@ -26248,7 +26384,7 @@
         <v>4</v>
       </c>
       <c r="E992" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F992" s="5"/>
       <c r="G992" s="5" t="s">
@@ -26270,7 +26406,7 @@
         <v>4</v>
       </c>
       <c r="E993" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F993" s="5"/>
       <c r="G993" s="5" t="s">
@@ -26292,7 +26428,7 @@
         <v>4</v>
       </c>
       <c r="E994" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F994" s="5"/>
       <c r="G994" s="5" t="s">
@@ -26314,7 +26450,7 @@
         <v>4</v>
       </c>
       <c r="E995" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F995" s="5"/>
       <c r="G995" s="5" t="s">
@@ -26336,7 +26472,7 @@
         <v>4</v>
       </c>
       <c r="E996" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F996" s="5"/>
       <c r="G996" s="5" t="s">
@@ -26358,7 +26494,7 @@
         <v>4</v>
       </c>
       <c r="E997" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F997" s="5"/>
       <c r="G997" s="5" t="s">
@@ -26380,7 +26516,7 @@
         <v>4</v>
       </c>
       <c r="E998" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F998" s="5"/>
       <c r="G998" s="5" t="s">
@@ -26402,7 +26538,7 @@
         <v>4</v>
       </c>
       <c r="E999" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F999" s="5"/>
       <c r="G999" s="5" t="s">
@@ -26424,7 +26560,7 @@
         <v>4</v>
       </c>
       <c r="E1000" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1000" s="5"/>
       <c r="G1000" s="5" t="s">
@@ -26446,7 +26582,7 @@
         <v>4</v>
       </c>
       <c r="E1001" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1001" s="5"/>
       <c r="G1001" s="5" t="s">
@@ -26468,7 +26604,7 @@
         <v>4</v>
       </c>
       <c r="E1002" s="7" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1002" s="7"/>
       <c r="G1002" s="7" t="s">
@@ -26490,7 +26626,7 @@
         <v>4</v>
       </c>
       <c r="E1003" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1003" s="10"/>
       <c r="G1003" s="10" t="s">
@@ -26512,7 +26648,7 @@
         <v>4</v>
       </c>
       <c r="E1004" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1004" s="10"/>
       <c r="G1004" s="10" t="s">
@@ -26534,7 +26670,7 @@
         <v>4</v>
       </c>
       <c r="E1005" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1005" s="10"/>
       <c r="G1005" s="10" t="s">
@@ -26556,7 +26692,7 @@
         <v>4</v>
       </c>
       <c r="E1006" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1006" s="10"/>
       <c r="G1006" s="10" t="s">
@@ -26578,7 +26714,7 @@
         <v>4</v>
       </c>
       <c r="E1007" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1007" s="10"/>
       <c r="G1007" s="10" t="s">
@@ -26600,7 +26736,7 @@
         <v>4</v>
       </c>
       <c r="E1008" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1008" s="10"/>
       <c r="G1008" s="10" t="s">
@@ -26622,7 +26758,7 @@
         <v>4</v>
       </c>
       <c r="E1009" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1009" s="10"/>
       <c r="G1009" s="10" t="s">
@@ -26644,7 +26780,7 @@
         <v>4</v>
       </c>
       <c r="E1010" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1010" s="10"/>
       <c r="G1010" s="10" t="s">
@@ -26666,7 +26802,7 @@
         <v>4</v>
       </c>
       <c r="E1011" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1011" s="10"/>
       <c r="G1011" s="10" t="s">
@@ -26688,7 +26824,7 @@
         <v>4</v>
       </c>
       <c r="E1012" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1012" s="10"/>
       <c r="G1012" s="10" t="s">
@@ -26710,7 +26846,7 @@
         <v>4</v>
       </c>
       <c r="E1013" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1013" s="10"/>
       <c r="G1013" s="10" t="s">
@@ -26732,7 +26868,7 @@
         <v>4</v>
       </c>
       <c r="E1014" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1014" s="10"/>
       <c r="G1014" s="10" t="s">
@@ -26754,7 +26890,7 @@
         <v>4</v>
       </c>
       <c r="E1015" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1015" s="10"/>
       <c r="G1015" s="10" t="s">
@@ -26776,7 +26912,7 @@
         <v>4</v>
       </c>
       <c r="E1016" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1016" s="10"/>
       <c r="G1016" s="10" t="s">
@@ -26798,7 +26934,7 @@
         <v>4</v>
       </c>
       <c r="E1017" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1017" s="10"/>
       <c r="G1017" s="10" t="s">
@@ -26820,7 +26956,7 @@
         <v>4</v>
       </c>
       <c r="E1018" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1018" s="10"/>
       <c r="G1018" s="10" t="s">
@@ -26842,7 +26978,7 @@
         <v>4</v>
       </c>
       <c r="E1019" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1019" s="10"/>
       <c r="G1019" s="10" t="s">
@@ -26864,7 +27000,7 @@
         <v>4</v>
       </c>
       <c r="E1020" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1020" s="10"/>
       <c r="G1020" s="10" t="s">
@@ -26886,7 +27022,7 @@
         <v>4</v>
       </c>
       <c r="E1021" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1021" s="10"/>
       <c r="G1021" s="10" t="s">
@@ -26908,7 +27044,7 @@
         <v>4</v>
       </c>
       <c r="E1022" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1022" s="10"/>
       <c r="G1022" s="10" t="s">
@@ -26930,7 +27066,7 @@
         <v>4</v>
       </c>
       <c r="E1023" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1023" s="10"/>
       <c r="G1023" s="10" t="s">
@@ -26952,7 +27088,7 @@
         <v>4</v>
       </c>
       <c r="E1024" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1024" s="10"/>
       <c r="G1024" s="10" t="s">
@@ -26974,7 +27110,7 @@
         <v>4</v>
       </c>
       <c r="E1025" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1025" s="10"/>
       <c r="G1025" s="10" t="s">
@@ -26996,7 +27132,7 @@
         <v>4</v>
       </c>
       <c r="E1026" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1026" s="10"/>
       <c r="G1026" s="10" t="s">
@@ -27018,7 +27154,7 @@
         <v>4</v>
       </c>
       <c r="E1027" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1027" s="10"/>
       <c r="G1027" s="10" t="s">
@@ -27040,7 +27176,7 @@
         <v>4</v>
       </c>
       <c r="E1028" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1028" s="10"/>
       <c r="G1028" s="10" t="s">
@@ -27062,7 +27198,7 @@
         <v>4</v>
       </c>
       <c r="E1029" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1029" s="10"/>
       <c r="G1029" s="10" t="s">
@@ -27084,7 +27220,7 @@
         <v>4</v>
       </c>
       <c r="E1030" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1030" s="10"/>
       <c r="G1030" s="10" t="s">
@@ -27106,7 +27242,7 @@
         <v>4</v>
       </c>
       <c r="E1031" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1031" s="10"/>
       <c r="G1031" s="10" t="s">
@@ -27128,7 +27264,7 @@
         <v>4</v>
       </c>
       <c r="E1032" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1032" s="10"/>
       <c r="G1032" s="10" t="s">
@@ -27150,7 +27286,7 @@
         <v>4</v>
       </c>
       <c r="E1033" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1033" s="10"/>
       <c r="G1033" s="10" t="s">
@@ -27172,7 +27308,7 @@
         <v>4</v>
       </c>
       <c r="E1034" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1034" s="10"/>
       <c r="G1034" s="10" t="s">
@@ -27194,7 +27330,7 @@
         <v>4</v>
       </c>
       <c r="E1035" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1035" s="10"/>
       <c r="G1035" s="10" t="s">
@@ -27216,7 +27352,7 @@
         <v>4</v>
       </c>
       <c r="E1036" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1036" s="10"/>
       <c r="G1036" s="10" t="s">
@@ -27238,7 +27374,7 @@
         <v>4</v>
       </c>
       <c r="E1037" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1037" s="10"/>
       <c r="G1037" s="10" t="s">
@@ -27260,7 +27396,7 @@
         <v>4</v>
       </c>
       <c r="E1038" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1038" s="10"/>
       <c r="G1038" s="10" t="s">
@@ -27282,7 +27418,7 @@
         <v>4</v>
       </c>
       <c r="E1039" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1039" s="10"/>
       <c r="G1039" s="10" t="s">
@@ -27304,7 +27440,7 @@
         <v>4</v>
       </c>
       <c r="E1040" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1040" s="10"/>
       <c r="G1040" s="10" t="s">
@@ -27326,7 +27462,7 @@
         <v>4</v>
       </c>
       <c r="E1041" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1041" s="10"/>
       <c r="G1041" s="10" t="s">
@@ -27348,7 +27484,7 @@
         <v>4</v>
       </c>
       <c r="E1042" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1042" s="10"/>
       <c r="G1042" s="10" t="s">
@@ -27370,7 +27506,7 @@
         <v>4</v>
       </c>
       <c r="E1043" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1043" s="10"/>
       <c r="G1043" s="10" t="s">
@@ -27392,7 +27528,7 @@
         <v>4</v>
       </c>
       <c r="E1044" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1044" s="10"/>
       <c r="G1044" s="10" t="s">
@@ -27414,7 +27550,7 @@
         <v>4</v>
       </c>
       <c r="E1045" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1045" s="10"/>
       <c r="G1045" s="10" t="s">
@@ -27436,7 +27572,7 @@
         <v>4</v>
       </c>
       <c r="E1046" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1046" s="10"/>
       <c r="G1046" s="10" t="s">
@@ -27458,7 +27594,7 @@
         <v>4</v>
       </c>
       <c r="E1047" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1047" s="10"/>
       <c r="G1047" s="10" t="s">
@@ -27480,7 +27616,7 @@
         <v>4</v>
       </c>
       <c r="E1048" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1048" s="10"/>
       <c r="G1048" s="10" t="s">
@@ -27502,7 +27638,7 @@
         <v>4</v>
       </c>
       <c r="E1049" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1049" s="10"/>
       <c r="G1049" s="10" t="s">
@@ -27524,7 +27660,7 @@
         <v>4</v>
       </c>
       <c r="E1050" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1050" s="10"/>
       <c r="G1050" s="10" t="s">
@@ -27546,7 +27682,7 @@
         <v>4</v>
       </c>
       <c r="E1051" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1051" s="10"/>
       <c r="G1051" s="10" t="s">
@@ -27568,7 +27704,7 @@
         <v>4</v>
       </c>
       <c r="E1052" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1052" s="10"/>
       <c r="G1052" s="10" t="s">
@@ -27590,7 +27726,7 @@
         <v>4</v>
       </c>
       <c r="E1053" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1053" s="10"/>
       <c r="G1053" s="10" t="s">
@@ -27612,7 +27748,7 @@
         <v>4</v>
       </c>
       <c r="E1054" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1054" s="10"/>
       <c r="G1054" s="10" t="s">
@@ -27634,7 +27770,7 @@
         <v>4</v>
       </c>
       <c r="E1055" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1055" s="10"/>
       <c r="G1055" s="10" t="s">
@@ -27656,7 +27792,7 @@
         <v>4</v>
       </c>
       <c r="E1056" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1056" s="10"/>
       <c r="G1056" s="10" t="s">
@@ -27678,7 +27814,7 @@
         <v>4</v>
       </c>
       <c r="E1057" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1057" s="10"/>
       <c r="G1057" s="10" t="s">
@@ -27700,7 +27836,7 @@
         <v>4</v>
       </c>
       <c r="E1058" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1058" s="10"/>
       <c r="G1058" s="10" t="s">
@@ -27722,7 +27858,7 @@
         <v>4</v>
       </c>
       <c r="E1059" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1059" s="10"/>
       <c r="G1059" s="10" t="s">
@@ -27744,7 +27880,7 @@
         <v>4</v>
       </c>
       <c r="E1060" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1060" s="10"/>
       <c r="G1060" s="10" t="s">
@@ -27766,7 +27902,7 @@
         <v>4</v>
       </c>
       <c r="E1061" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1061" s="10"/>
       <c r="G1061" s="10" t="s">
@@ -27788,7 +27924,7 @@
         <v>4</v>
       </c>
       <c r="E1062" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1062" s="10"/>
       <c r="G1062" s="10" t="s">
@@ -27810,7 +27946,7 @@
         <v>4</v>
       </c>
       <c r="E1063" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1063" s="10"/>
       <c r="G1063" s="10" t="s">
@@ -27832,7 +27968,7 @@
         <v>4</v>
       </c>
       <c r="E1064" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1064" s="10"/>
       <c r="G1064" s="10" t="s">
@@ -27854,7 +27990,7 @@
         <v>4</v>
       </c>
       <c r="E1065" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1065" s="10"/>
       <c r="G1065" s="10" t="s">
@@ -27876,7 +28012,7 @@
         <v>4</v>
       </c>
       <c r="E1066" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1066" s="10"/>
       <c r="G1066" s="10" t="s">
@@ -27898,7 +28034,7 @@
         <v>4</v>
       </c>
       <c r="E1067" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1067" s="10"/>
       <c r="G1067" s="10" t="s">
@@ -27920,7 +28056,7 @@
         <v>4</v>
       </c>
       <c r="E1068" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1068" s="10"/>
       <c r="G1068" s="10" t="s">
@@ -27942,7 +28078,7 @@
         <v>4</v>
       </c>
       <c r="E1069" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1069" s="10"/>
       <c r="G1069" s="10" t="s">
@@ -27964,7 +28100,7 @@
         <v>4</v>
       </c>
       <c r="E1070" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1070" s="10"/>
       <c r="G1070" s="10" t="s">
@@ -27986,7 +28122,7 @@
         <v>4</v>
       </c>
       <c r="E1071" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1071" s="10"/>
       <c r="G1071" s="10" t="s">
@@ -28008,7 +28144,7 @@
         <v>4</v>
       </c>
       <c r="E1072" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1072" s="10"/>
       <c r="G1072" s="10" t="s">
@@ -28030,7 +28166,7 @@
         <v>4</v>
       </c>
       <c r="E1073" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1073" s="10"/>
       <c r="G1073" s="10" t="s">
@@ -28052,7 +28188,7 @@
         <v>4</v>
       </c>
       <c r="E1074" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1074" s="10"/>
       <c r="G1074" s="10" t="s">
@@ -28074,7 +28210,7 @@
         <v>4</v>
       </c>
       <c r="E1075" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1075" s="10"/>
       <c r="G1075" s="10" t="s">
@@ -28096,7 +28232,7 @@
         <v>4</v>
       </c>
       <c r="E1076" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1076" s="10"/>
       <c r="G1076" s="10" t="s">
@@ -28118,7 +28254,7 @@
         <v>4</v>
       </c>
       <c r="E1077" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1077" s="10"/>
       <c r="G1077" s="10" t="s">
@@ -28140,7 +28276,7 @@
         <v>4</v>
       </c>
       <c r="E1078" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1078" s="10"/>
       <c r="G1078" s="10" t="s">
@@ -28162,7 +28298,7 @@
         <v>4</v>
       </c>
       <c r="E1079" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1079" s="10"/>
       <c r="G1079" s="10" t="s">
@@ -28184,7 +28320,7 @@
         <v>4</v>
       </c>
       <c r="E1080" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1080" s="10"/>
       <c r="G1080" s="10" t="s">
@@ -28206,7 +28342,7 @@
         <v>4</v>
       </c>
       <c r="E1081" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1081" s="10"/>
       <c r="G1081" s="10" t="s">
@@ -28228,7 +28364,7 @@
         <v>4</v>
       </c>
       <c r="E1082" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1082" s="10"/>
       <c r="G1082" s="10" t="s">
@@ -28250,7 +28386,7 @@
         <v>4</v>
       </c>
       <c r="E1083" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1083" s="10"/>
       <c r="G1083" s="10" t="s">
@@ -28272,7 +28408,7 @@
         <v>4</v>
       </c>
       <c r="E1084" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1084" s="10"/>
       <c r="G1084" s="10" t="s">
@@ -28294,7 +28430,7 @@
         <v>4</v>
       </c>
       <c r="E1085" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1085" s="10"/>
       <c r="G1085" s="10" t="s">
@@ -28316,7 +28452,7 @@
         <v>4</v>
       </c>
       <c r="E1086" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1086" s="10"/>
       <c r="G1086" s="10" t="s">
@@ -28338,7 +28474,7 @@
         <v>4</v>
       </c>
       <c r="E1087" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1087" s="10"/>
       <c r="G1087" s="10" t="s">
@@ -28360,7 +28496,7 @@
         <v>4</v>
       </c>
       <c r="E1088" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1088" s="10"/>
       <c r="G1088" s="10" t="s">
@@ -28382,7 +28518,7 @@
         <v>4</v>
       </c>
       <c r="E1089" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1089" s="10"/>
       <c r="G1089" s="10" t="s">
@@ -28404,7 +28540,7 @@
         <v>4</v>
       </c>
       <c r="E1090" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1090" s="10"/>
       <c r="G1090" s="10" t="s">
@@ -28426,7 +28562,7 @@
         <v>4</v>
       </c>
       <c r="E1091" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1091" s="10"/>
       <c r="G1091" s="10" t="s">
@@ -28448,7 +28584,7 @@
         <v>4</v>
       </c>
       <c r="E1092" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1092" s="10"/>
       <c r="G1092" s="10" t="s">
@@ -28470,7 +28606,7 @@
         <v>4</v>
       </c>
       <c r="E1093" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1093" s="10"/>
       <c r="G1093" s="10" t="s">
@@ -28492,7 +28628,7 @@
         <v>4</v>
       </c>
       <c r="E1094" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1094" s="10"/>
       <c r="G1094" s="10" t="s">
@@ -28514,7 +28650,7 @@
         <v>4</v>
       </c>
       <c r="E1095" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1095" s="10"/>
       <c r="G1095" s="10" t="s">
@@ -28536,7 +28672,7 @@
         <v>4</v>
       </c>
       <c r="E1096" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1096" s="10"/>
       <c r="G1096" s="10" t="s">
@@ -28558,7 +28694,7 @@
         <v>4</v>
       </c>
       <c r="E1097" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1097" s="10"/>
       <c r="G1097" s="10" t="s">
@@ -28580,7 +28716,7 @@
         <v>4</v>
       </c>
       <c r="E1098" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1098" s="10"/>
       <c r="G1098" s="10" t="s">
@@ -28602,7 +28738,7 @@
         <v>4</v>
       </c>
       <c r="E1099" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1099" s="10"/>
       <c r="G1099" s="10" t="s">
@@ -28624,7 +28760,7 @@
         <v>4</v>
       </c>
       <c r="E1100" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1100" s="10"/>
       <c r="G1100" s="10" t="s">
@@ -28646,7 +28782,7 @@
         <v>4</v>
       </c>
       <c r="E1101" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1101" s="10"/>
       <c r="G1101" s="10" t="s">
@@ -28668,7 +28804,7 @@
         <v>4</v>
       </c>
       <c r="E1102" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1102" s="10"/>
       <c r="G1102" s="10" t="s">
@@ -28690,7 +28826,7 @@
         <v>4</v>
       </c>
       <c r="E1103" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1103" s="10"/>
       <c r="G1103" s="10" t="s">
@@ -28712,7 +28848,7 @@
         <v>4</v>
       </c>
       <c r="E1104" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1104" s="10"/>
       <c r="G1104" s="10" t="s">
@@ -28734,7 +28870,7 @@
         <v>4</v>
       </c>
       <c r="E1105" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1105" s="10"/>
       <c r="G1105" s="10" t="s">
@@ -28756,7 +28892,7 @@
         <v>4</v>
       </c>
       <c r="E1106" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1106" s="10"/>
       <c r="G1106" s="10" t="s">
@@ -28778,7 +28914,7 @@
         <v>4</v>
       </c>
       <c r="E1107" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1107" s="10"/>
       <c r="G1107" s="10" t="s">
@@ -28800,7 +28936,7 @@
         <v>4</v>
       </c>
       <c r="E1108" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1108" s="10"/>
       <c r="G1108" s="10" t="s">
@@ -28822,7 +28958,7 @@
         <v>4</v>
       </c>
       <c r="E1109" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1109" s="10"/>
       <c r="G1109" s="10" t="s">
@@ -28844,7 +28980,7 @@
         <v>4</v>
       </c>
       <c r="E1110" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1110" s="10"/>
       <c r="G1110" s="10" t="s">
@@ -28866,7 +29002,7 @@
         <v>4</v>
       </c>
       <c r="E1111" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1111" s="10"/>
       <c r="G1111" s="10" t="s">
@@ -28888,7 +29024,7 @@
         <v>4</v>
       </c>
       <c r="E1112" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1112" s="10"/>
       <c r="G1112" s="10" t="s">
@@ -28910,7 +29046,7 @@
         <v>4</v>
       </c>
       <c r="E1113" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1113" s="10"/>
       <c r="G1113" s="10" t="s">
@@ -28932,7 +29068,7 @@
         <v>4</v>
       </c>
       <c r="E1114" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1114" s="10"/>
       <c r="G1114" s="10" t="s">
@@ -28954,7 +29090,7 @@
         <v>4</v>
       </c>
       <c r="E1115" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1115" s="10"/>
       <c r="G1115" s="10" t="s">
@@ -28976,7 +29112,7 @@
         <v>4</v>
       </c>
       <c r="E1116" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1116" s="10"/>
       <c r="G1116" s="10" t="s">
@@ -28998,7 +29134,7 @@
         <v>4</v>
       </c>
       <c r="E1117" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1117" s="10"/>
       <c r="G1117" s="10" t="s">
@@ -29020,7 +29156,7 @@
         <v>4</v>
       </c>
       <c r="E1118" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1118" s="10"/>
       <c r="G1118" s="10" t="s">
@@ -29042,7 +29178,7 @@
         <v>4</v>
       </c>
       <c r="E1119" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1119" s="10"/>
       <c r="G1119" s="10" t="s">
@@ -29064,7 +29200,7 @@
         <v>4</v>
       </c>
       <c r="E1120" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1120" s="10"/>
       <c r="G1120" s="10" t="s">
@@ -29086,7 +29222,7 @@
         <v>4</v>
       </c>
       <c r="E1121" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1121" s="10"/>
       <c r="G1121" s="10" t="s">
@@ -29108,7 +29244,7 @@
         <v>4</v>
       </c>
       <c r="E1122" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1122" s="10"/>
       <c r="G1122" s="10" t="s">
@@ -29130,7 +29266,7 @@
         <v>4</v>
       </c>
       <c r="E1123" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1123" s="10"/>
       <c r="G1123" s="10" t="s">
@@ -29152,7 +29288,7 @@
         <v>4</v>
       </c>
       <c r="E1124" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1124" s="10"/>
       <c r="G1124" s="10" t="s">
@@ -29174,7 +29310,7 @@
         <v>4</v>
       </c>
       <c r="E1125" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1125" s="10"/>
       <c r="G1125" s="10" t="s">
@@ -29196,7 +29332,7 @@
         <v>4</v>
       </c>
       <c r="E1126" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1126" s="10"/>
       <c r="G1126" s="10" t="s">
@@ -29218,7 +29354,7 @@
         <v>4</v>
       </c>
       <c r="E1127" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1127" s="10"/>
       <c r="G1127" s="10" t="s">
@@ -29240,7 +29376,7 @@
         <v>4</v>
       </c>
       <c r="E1128" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1128" s="10"/>
       <c r="G1128" s="10" t="s">
@@ -29262,7 +29398,7 @@
         <v>4</v>
       </c>
       <c r="E1129" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1129" s="10"/>
       <c r="G1129" s="10" t="s">
@@ -29284,7 +29420,7 @@
         <v>4</v>
       </c>
       <c r="E1130" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1130" s="10"/>
       <c r="G1130" s="10" t="s">
@@ -29306,7 +29442,7 @@
         <v>4</v>
       </c>
       <c r="E1131" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1131" s="10"/>
       <c r="G1131" s="10" t="s">
@@ -29328,7 +29464,7 @@
         <v>4</v>
       </c>
       <c r="E1132" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1132" s="10"/>
       <c r="G1132" s="10" t="s">
@@ -29350,7 +29486,7 @@
         <v>4</v>
       </c>
       <c r="E1133" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1133" s="10"/>
       <c r="G1133" s="10" t="s">
@@ -29372,7 +29508,7 @@
         <v>4</v>
       </c>
       <c r="E1134" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1134" s="10"/>
       <c r="G1134" s="10" t="s">
@@ -29394,7 +29530,7 @@
         <v>4</v>
       </c>
       <c r="E1135" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1135" s="10"/>
       <c r="G1135" s="10" t="s">
@@ -29416,7 +29552,7 @@
         <v>4</v>
       </c>
       <c r="E1136" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1136" s="10"/>
       <c r="G1136" s="10" t="s">
@@ -29438,7 +29574,7 @@
         <v>4</v>
       </c>
       <c r="E1137" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1137" s="10"/>
       <c r="G1137" s="10" t="s">
@@ -29460,7 +29596,7 @@
         <v>4</v>
       </c>
       <c r="E1138" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1138" s="10"/>
       <c r="G1138" s="10" t="s">
@@ -29482,7 +29618,7 @@
         <v>4</v>
       </c>
       <c r="E1139" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1139" s="10"/>
       <c r="G1139" s="10" t="s">
@@ -29504,7 +29640,7 @@
         <v>4</v>
       </c>
       <c r="E1140" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1140" s="10"/>
       <c r="G1140" s="10" t="s">
@@ -29526,7 +29662,7 @@
         <v>4</v>
       </c>
       <c r="E1141" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1141" s="10"/>
       <c r="G1141" s="10" t="s">
@@ -29548,7 +29684,7 @@
         <v>4</v>
       </c>
       <c r="E1142" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1142" s="10"/>
       <c r="G1142" s="10" t="s">
@@ -29570,7 +29706,7 @@
         <v>4</v>
       </c>
       <c r="E1143" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1143" s="10"/>
       <c r="G1143" s="10" t="s">
@@ -29592,7 +29728,7 @@
         <v>4</v>
       </c>
       <c r="E1144" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1144" s="10"/>
       <c r="G1144" s="10" t="s">
@@ -29614,7 +29750,7 @@
         <v>4</v>
       </c>
       <c r="E1145" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1145" s="10"/>
       <c r="G1145" s="10" t="s">
@@ -29636,7 +29772,7 @@
         <v>4</v>
       </c>
       <c r="E1146" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1146" s="10"/>
       <c r="G1146" s="10" t="s">
@@ -29658,7 +29794,7 @@
         <v>4</v>
       </c>
       <c r="E1147" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1147" s="10"/>
       <c r="G1147" s="10" t="s">
@@ -29680,7 +29816,7 @@
         <v>4</v>
       </c>
       <c r="E1148" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1148" s="10"/>
       <c r="G1148" s="10" t="s">
@@ -29693,7 +29829,7 @@
         <v>173</v>
       </c>
       <c r="B1149" s="8" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C1149" s="8" t="s">
         <v>163</v>
@@ -29701,7 +29837,9 @@
       <c r="D1149" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1149" s="8"/>
+      <c r="E1149" s="10" t="s">
+        <v>1116</v>
+      </c>
       <c r="F1149" s="8"/>
       <c r="G1149" s="8"/>
       <c r="H1149" s="8"/>
@@ -29720,7 +29858,7 @@
         <v>4</v>
       </c>
       <c r="E1150" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1150" s="10"/>
       <c r="G1150" s="10" t="s">
@@ -29742,7 +29880,7 @@
         <v>4</v>
       </c>
       <c r="E1151" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F1151" s="10"/>
       <c r="G1151" s="10" t="s">
@@ -29755,7 +29893,7 @@
         <v>332</v>
       </c>
       <c r="B1152" s="8" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C1152" s="8" t="s">
         <v>922</v>
@@ -29763,7 +29901,9 @@
       <c r="D1152" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1152" s="8"/>
+      <c r="E1152" s="10" t="s">
+        <v>1685</v>
+      </c>
       <c r="F1152" s="8"/>
       <c r="G1152" s="8"/>
       <c r="H1152" s="8"/>
@@ -29782,7 +29922,7 @@
         <v>4</v>
       </c>
       <c r="E1153" s="10" t="s">
-        <v>1109</v>
+        <v>1685</v>
       </c>
       <c r="F1153" s="10"/>
       <c r="G1153" s="10" t="s">
@@ -29795,10 +29935,10 @@
         <v>245</v>
       </c>
       <c r="B1154" s="8" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C1154" s="8" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D1154" s="9" t="s">
         <v>4</v>
@@ -29813,10 +29953,10 @@
         <v>252</v>
       </c>
       <c r="B1155" s="8" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C1155" s="8" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D1155" s="9" t="s">
         <v>4</v>
@@ -29831,7 +29971,7 @@
         <v>216</v>
       </c>
       <c r="B1156" s="8" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C1156" s="8" t="s">
         <v>970</v>
@@ -29839,7 +29979,9 @@
       <c r="D1156" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1156" s="8"/>
+      <c r="E1156" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1156" s="8"/>
       <c r="G1156" s="8"/>
       <c r="H1156" s="8"/>
@@ -29902,7 +30044,7 @@
         <v>4</v>
       </c>
       <c r="E1159" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F1159" s="10"/>
       <c r="G1159" s="10" t="s">
@@ -29924,7 +30066,7 @@
         <v>4</v>
       </c>
       <c r="E1160" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F1160" s="10"/>
       <c r="G1160" s="10" t="s">
@@ -29937,7 +30079,7 @@
         <v>181</v>
       </c>
       <c r="B1161" s="8" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C1161" s="8" t="s">
         <v>1061</v>
@@ -29945,7 +30087,9 @@
       <c r="D1161" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1161" s="8"/>
+      <c r="E1161" s="10" t="s">
+        <v>1105</v>
+      </c>
       <c r="F1161" s="8"/>
       <c r="G1161" s="8"/>
       <c r="H1161" s="8"/>
@@ -29955,7 +30099,7 @@
         <v>104</v>
       </c>
       <c r="B1162" s="8" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C1162" s="8" t="s">
         <v>135</v>
@@ -29963,7 +30107,9 @@
       <c r="D1162" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1162" s="8"/>
+      <c r="E1162" s="10" t="s">
+        <v>1103</v>
+      </c>
       <c r="F1162" s="8"/>
       <c r="G1162" s="8"/>
       <c r="H1162" s="8"/>
@@ -29982,7 +30128,7 @@
         <v>4</v>
       </c>
       <c r="E1163" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F1163" s="10"/>
       <c r="G1163" s="10" t="s">
@@ -29995,10 +30141,10 @@
         <v>177</v>
       </c>
       <c r="B1164" s="8" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C1164" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D1164" s="9" t="s">
         <v>4</v>
@@ -30013,10 +30159,10 @@
         <v>255</v>
       </c>
       <c r="B1165" s="8" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C1165" s="8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D1165" s="9" t="s">
         <v>4</v>
@@ -30031,10 +30177,10 @@
         <v>202</v>
       </c>
       <c r="B1166" s="8" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C1166" s="8" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D1166" s="9" t="s">
         <v>4</v>
@@ -30049,10 +30195,10 @@
         <v>198</v>
       </c>
       <c r="B1167" s="8" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C1167" s="8" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D1167" s="9" t="s">
         <v>4</v>
@@ -30067,10 +30213,10 @@
         <v>344</v>
       </c>
       <c r="B1168" s="8" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C1168" s="8" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D1168" s="8"/>
       <c r="E1168" s="8"/>
@@ -30083,10 +30229,10 @@
         <v>76</v>
       </c>
       <c r="B1169" s="8" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C1169" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D1169" s="8" t="s">
         <v>5</v>
@@ -30101,7 +30247,7 @@
         <v>337</v>
       </c>
       <c r="B1170" s="8" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C1170" s="8" t="s">
         <v>12</v>
@@ -30109,7 +30255,9 @@
       <c r="D1170" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1170" s="8"/>
+      <c r="E1170" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1170" s="8"/>
       <c r="G1170" s="8"/>
       <c r="H1170" s="8"/>
@@ -30141,10 +30289,10 @@
         <v>260</v>
       </c>
       <c r="B1172" s="8" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C1172" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D1172" s="8"/>
       <c r="E1172" s="8"/>
@@ -30157,10 +30305,10 @@
         <v>308</v>
       </c>
       <c r="B1173" s="8" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C1173" s="8" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D1173" s="8"/>
       <c r="E1173" s="8"/>
@@ -30173,10 +30321,10 @@
         <v>109</v>
       </c>
       <c r="B1174" s="8" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C1174" s="8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D1174" s="8" t="s">
         <v>5</v>
@@ -30191,10 +30339,10 @@
         <v>86</v>
       </c>
       <c r="B1175" s="8" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C1175" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D1175" s="8"/>
       <c r="E1175" s="8"/>
@@ -30273,7 +30421,7 @@
         <v>98</v>
       </c>
       <c r="B1179" s="8" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C1179" s="8" t="s">
         <v>113</v>
@@ -30281,7 +30429,9 @@
       <c r="D1179" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1179" s="8"/>
+      <c r="E1179" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1179" s="8"/>
       <c r="G1179" s="8"/>
       <c r="H1179" s="8"/>
@@ -30335,10 +30485,10 @@
         <v>83</v>
       </c>
       <c r="B1182" s="8" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C1182" s="8" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D1182" s="8"/>
       <c r="E1182" s="8"/>
@@ -30519,7 +30669,7 @@
         <v>334</v>
       </c>
       <c r="B1190" s="8" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C1190" s="8" t="s">
         <v>1089</v>
@@ -30527,7 +30677,9 @@
       <c r="D1190" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1190" s="8"/>
+      <c r="E1190" s="10" t="s">
+        <v>1090</v>
+      </c>
       <c r="F1190" s="8"/>
       <c r="G1190" s="8"/>
       <c r="H1190" s="8"/>
@@ -30569,7 +30721,9 @@
       <c r="D1192" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1192" s="8"/>
+      <c r="E1192" s="10" t="s">
+        <v>1090</v>
+      </c>
       <c r="F1192" s="8"/>
       <c r="G1192" s="8"/>
       <c r="H1192" s="8"/>
@@ -30579,10 +30733,10 @@
         <v>335</v>
       </c>
       <c r="B1193" s="8" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C1193" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D1193" s="8" t="s">
         <v>5</v>
@@ -30597,7 +30751,7 @@
         <v>19</v>
       </c>
       <c r="B1194" s="8" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C1194" s="8" t="s">
         <v>70</v>
@@ -30605,7 +30759,9 @@
       <c r="D1194" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1194" s="8"/>
+      <c r="E1194" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1194" s="8"/>
       <c r="G1194" s="8"/>
       <c r="H1194" s="8"/>
@@ -30637,10 +30793,10 @@
         <v>155</v>
       </c>
       <c r="B1196" s="8" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C1196" s="8" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D1196" s="8" t="s">
         <v>5</v>
@@ -30655,10 +30811,10 @@
         <v>250</v>
       </c>
       <c r="B1197" s="8" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C1197" s="8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D1197" s="8" t="s">
         <v>5</v>
@@ -30673,10 +30829,10 @@
         <v>251</v>
       </c>
       <c r="B1198" s="8" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C1198" s="8" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D1198" s="8" t="s">
         <v>5</v>
@@ -30691,10 +30847,10 @@
         <v>74</v>
       </c>
       <c r="B1199" s="8" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C1199" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D1199" s="9" t="s">
         <v>4</v>
@@ -30709,10 +30865,10 @@
         <v>301</v>
       </c>
       <c r="B1200" s="8" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C1200" s="8" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D1200" s="9" t="s">
         <v>4</v>
@@ -30727,10 +30883,10 @@
         <v>342</v>
       </c>
       <c r="B1201" s="8" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1201" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D1201" s="8"/>
       <c r="E1201" s="8"/>
@@ -30743,10 +30899,10 @@
         <v>297</v>
       </c>
       <c r="B1202" s="8" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C1202" s="8" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D1202" s="8" t="s">
         <v>4</v>
@@ -30761,7 +30917,7 @@
         <v>110</v>
       </c>
       <c r="B1203" s="8" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C1203" s="8" t="s">
         <v>119</v>
@@ -30769,7 +30925,9 @@
       <c r="D1203" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1203" s="8"/>
+      <c r="E1203" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1203" s="8"/>
       <c r="G1203" s="8"/>
       <c r="H1203" s="8"/>
@@ -30801,10 +30959,10 @@
         <v>165</v>
       </c>
       <c r="B1205" s="8" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C1205" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D1205" s="8" t="s">
         <v>5</v>
@@ -30819,10 +30977,10 @@
         <v>79</v>
       </c>
       <c r="B1206" s="8" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C1206" s="8" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D1206" s="8" t="s">
         <v>5</v>
@@ -30837,10 +30995,10 @@
         <v>89</v>
       </c>
       <c r="B1207" s="8" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C1207" s="8" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D1207" s="8" t="s">
         <v>5</v>
@@ -30855,10 +31013,10 @@
         <v>226</v>
       </c>
       <c r="B1208" s="8" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C1208" s="8" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D1208" s="8" t="s">
         <v>5</v>
@@ -30873,7 +31031,7 @@
         <v>164</v>
       </c>
       <c r="B1209" s="8" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C1209" s="8" t="s">
         <v>155</v>
@@ -30881,7 +31039,9 @@
       <c r="D1209" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1209" s="8"/>
+      <c r="E1209" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1209" s="8"/>
       <c r="G1209" s="8"/>
       <c r="H1209" s="8"/>
@@ -30913,7 +31073,7 @@
         <v>25</v>
       </c>
       <c r="B1211" s="8" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C1211" s="8" t="s">
         <v>132</v>
@@ -30921,7 +31081,9 @@
       <c r="D1211" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1211" s="8"/>
+      <c r="E1211" s="10" t="s">
+        <v>1064</v>
+      </c>
       <c r="F1211" s="8"/>
       <c r="G1211" s="8"/>
       <c r="H1211" s="8"/>
@@ -30975,10 +31137,10 @@
         <v>168</v>
       </c>
       <c r="B1214" s="8" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C1214" s="8" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D1214" s="8"/>
       <c r="E1214" s="8"/>
@@ -30991,10 +31153,10 @@
         <v>78</v>
       </c>
       <c r="B1215" s="8" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C1215" s="8" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D1215" s="8" t="s">
         <v>5</v>
@@ -31009,10 +31171,10 @@
         <v>199</v>
       </c>
       <c r="B1216" s="8" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C1216" s="8" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D1216" s="8" t="s">
         <v>5</v>
@@ -31036,7 +31198,7 @@
         <v>5</v>
       </c>
       <c r="E1217" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1217" s="10"/>
       <c r="G1217" s="10" t="s">
@@ -31058,7 +31220,7 @@
         <v>5</v>
       </c>
       <c r="E1218" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1218" s="10"/>
       <c r="G1218" s="10" t="s">
@@ -31080,7 +31242,7 @@
         <v>5</v>
       </c>
       <c r="E1219" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1219" s="10"/>
       <c r="G1219" s="10" t="s">
@@ -31102,7 +31264,7 @@
         <v>5</v>
       </c>
       <c r="E1220" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1220" s="10"/>
       <c r="G1220" s="10" t="s">
@@ -31124,7 +31286,7 @@
         <v>5</v>
       </c>
       <c r="E1221" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1221" s="10"/>
       <c r="G1221" s="10" t="s">
@@ -31146,7 +31308,7 @@
         <v>5</v>
       </c>
       <c r="E1222" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1222" s="10"/>
       <c r="G1222" s="10" t="s">
@@ -31168,7 +31330,7 @@
         <v>5</v>
       </c>
       <c r="E1223" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1223" s="10"/>
       <c r="G1223" s="10" t="s">
@@ -31190,7 +31352,7 @@
         <v>5</v>
       </c>
       <c r="E1224" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1224" s="10"/>
       <c r="G1224" s="10" t="s">
@@ -31212,7 +31374,7 @@
         <v>5</v>
       </c>
       <c r="E1225" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1225" s="10"/>
       <c r="G1225" s="10" t="s">
@@ -31234,7 +31396,7 @@
         <v>5</v>
       </c>
       <c r="E1226" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1226" s="10"/>
       <c r="G1226" s="10" t="s">
@@ -31256,7 +31418,7 @@
         <v>5</v>
       </c>
       <c r="E1227" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1227" s="10"/>
       <c r="G1227" s="10" t="s">
@@ -31278,7 +31440,7 @@
         <v>5</v>
       </c>
       <c r="E1228" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1228" s="10"/>
       <c r="G1228" s="10" t="s">
@@ -31300,7 +31462,7 @@
         <v>5</v>
       </c>
       <c r="E1229" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1229" s="10"/>
       <c r="G1229" s="10" t="s">
@@ -31322,7 +31484,7 @@
         <v>5</v>
       </c>
       <c r="E1230" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1230" s="10"/>
       <c r="G1230" s="10" t="s">
@@ -31344,7 +31506,7 @@
         <v>5</v>
       </c>
       <c r="E1231" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1231" s="10"/>
       <c r="G1231" s="10" t="s">
@@ -31366,7 +31528,7 @@
         <v>5</v>
       </c>
       <c r="E1232" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F1232" s="10"/>
       <c r="G1232" s="10" t="s">
@@ -31379,7 +31541,7 @@
         <v>80</v>
       </c>
       <c r="B1233" s="8" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C1233" s="8" t="s">
         <v>180</v>
@@ -31387,7 +31549,9 @@
       <c r="D1233" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1233" s="8"/>
+      <c r="E1233" s="10" t="s">
+        <v>1109</v>
+      </c>
       <c r="F1233" s="8"/>
       <c r="G1233" s="8"/>
       <c r="H1233" s="8"/>
@@ -31397,10 +31561,10 @@
         <v>113</v>
       </c>
       <c r="B1234" s="8" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C1234" s="8" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D1234" s="8"/>
       <c r="E1234" s="8"/>
@@ -31413,10 +31577,10 @@
         <v>6</v>
       </c>
       <c r="B1235" s="8" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C1235" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D1235" s="8"/>
       <c r="E1235" s="8"/>
@@ -31429,10 +31593,10 @@
         <v>28</v>
       </c>
       <c r="B1236" s="8" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C1236" s="8" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D1236" s="8"/>
       <c r="E1236" s="8"/>
@@ -31445,10 +31609,10 @@
         <v>11</v>
       </c>
       <c r="B1237" s="8" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C1237" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D1237" s="8"/>
       <c r="E1237" s="8"/>
@@ -31461,10 +31625,10 @@
         <v>32</v>
       </c>
       <c r="B1238" s="8" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C1238" s="8" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D1238" s="8"/>
       <c r="E1238" s="8"/>
@@ -31477,10 +31641,10 @@
         <v>43</v>
       </c>
       <c r="B1239" s="8" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C1239" s="8" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D1239" s="8"/>
       <c r="E1239" s="8"/>
@@ -31493,10 +31657,10 @@
         <v>42</v>
       </c>
       <c r="B1240" s="8" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C1240" s="8" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D1240" s="8"/>
       <c r="E1240" s="8"/>
@@ -31509,10 +31673,10 @@
         <v>103</v>
       </c>
       <c r="B1241" s="8" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C1241" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D1241" s="8" t="s">
         <v>5</v>
@@ -31527,10 +31691,10 @@
         <v>121</v>
       </c>
       <c r="B1242" s="8" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C1242" s="8" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D1242" s="8" t="s">
         <v>5</v>
@@ -31545,10 +31709,10 @@
         <v>38</v>
       </c>
       <c r="B1243" s="8" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C1243" s="8" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D1243" s="8"/>
       <c r="E1243" s="8"/>
@@ -31561,10 +31725,10 @@
         <v>82</v>
       </c>
       <c r="B1244" s="8" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C1244" s="8" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D1244" s="8" t="s">
         <v>5</v>
@@ -31579,10 +31743,10 @@
         <v>44</v>
       </c>
       <c r="B1245" s="8" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C1245" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D1245" s="8" t="s">
         <v>5</v>
@@ -31597,10 +31761,10 @@
         <v>107</v>
       </c>
       <c r="B1246" s="8" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C1246" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D1246" s="8" t="s">
         <v>5</v>
@@ -31615,7 +31779,7 @@
         <v>160</v>
       </c>
       <c r="B1247" s="8" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C1247" s="8" t="s">
         <v>11</v>
@@ -31623,7 +31787,9 @@
       <c r="D1247" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1247" s="8"/>
+      <c r="E1247" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F1247" s="8"/>
       <c r="G1247" s="8"/>
       <c r="H1247" s="8"/>
@@ -31655,15 +31821,17 @@
         <v>294</v>
       </c>
       <c r="B1249" s="8" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C1249" s="8" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D1249" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1249" s="8"/>
+      <c r="E1249" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F1249" s="8"/>
       <c r="G1249" s="8"/>
       <c r="H1249" s="8"/>
@@ -31673,7 +31841,7 @@
         <v>240</v>
       </c>
       <c r="B1250" s="8" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C1250" s="8" t="s">
         <v>234</v>
@@ -31681,7 +31849,9 @@
       <c r="D1250" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1250" s="8"/>
+      <c r="E1250" s="10" t="s">
+        <v>1103</v>
+      </c>
       <c r="F1250" s="8"/>
       <c r="G1250" s="8"/>
       <c r="H1250" s="8"/>
@@ -31700,7 +31870,7 @@
         <v>5</v>
       </c>
       <c r="E1251" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F1251" s="10"/>
       <c r="G1251" s="10" t="s">
@@ -31713,7 +31883,7 @@
         <v>236</v>
       </c>
       <c r="B1252" s="8" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C1252" s="8" t="s">
         <v>365</v>
@@ -31721,7 +31891,9 @@
       <c r="D1252" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1252" s="8"/>
+      <c r="E1252" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1252" s="8"/>
       <c r="G1252" s="8"/>
       <c r="H1252" s="8"/>
@@ -31775,7 +31947,7 @@
         <v>119</v>
       </c>
       <c r="B1255" s="8" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C1255" s="8" t="s">
         <v>172</v>
@@ -31783,7 +31955,9 @@
       <c r="D1255" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1255" s="8"/>
+      <c r="E1255" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1255" s="8"/>
       <c r="G1255" s="8"/>
       <c r="H1255" s="8"/>
@@ -31859,7 +32033,7 @@
         <v>108</v>
       </c>
       <c r="B1259" s="8" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C1259" s="8" t="s">
         <v>28</v>
@@ -31867,7 +32041,9 @@
       <c r="D1259" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1259" s="8"/>
+      <c r="E1259" s="10" t="s">
+        <v>1064</v>
+      </c>
       <c r="F1259" s="8"/>
       <c r="G1259" s="8"/>
       <c r="H1259" s="8"/>
@@ -32295,7 +32471,7 @@
         <v>188</v>
       </c>
       <c r="B1279" s="8" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C1279" s="8" t="s">
         <v>184</v>
@@ -32303,7 +32479,9 @@
       <c r="D1279" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1279" s="8"/>
+      <c r="E1279" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1279" s="8"/>
       <c r="G1279" s="8"/>
       <c r="H1279" s="8"/>
@@ -32335,10 +32513,10 @@
         <v>124</v>
       </c>
       <c r="B1281" s="8" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C1281" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D1281" s="8" t="s">
         <v>5</v>
@@ -32353,7 +32531,7 @@
         <v>183</v>
       </c>
       <c r="B1282" s="8" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C1282" s="8" t="s">
         <v>10</v>
@@ -32361,7 +32539,9 @@
       <c r="D1282" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1282" s="8"/>
+      <c r="E1282" s="10" t="s">
+        <v>1079</v>
+      </c>
       <c r="F1282" s="8"/>
       <c r="G1282" s="8"/>
       <c r="H1282" s="8"/>
@@ -32393,10 +32573,10 @@
         <v>309</v>
       </c>
       <c r="B1284" s="8" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C1284" s="8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D1284" s="8" t="s">
         <v>5</v>
@@ -32411,10 +32591,10 @@
         <v>172</v>
       </c>
       <c r="B1285" s="8" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C1285" s="8" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D1285" s="8" t="s">
         <v>5</v>
@@ -32453,7 +32633,7 @@
         <v>153</v>
       </c>
       <c r="B1287" s="8" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C1287" s="8" t="s">
         <v>32</v>
@@ -32461,7 +32641,9 @@
       <c r="D1287" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1287" s="8"/>
+      <c r="E1287" s="10" t="s">
+        <v>1064</v>
+      </c>
       <c r="F1287" s="8"/>
       <c r="G1287" s="8"/>
       <c r="H1287" s="8"/>
@@ -32471,10 +32653,10 @@
         <v>158</v>
       </c>
       <c r="B1288" s="8" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C1288" s="8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D1288" s="8" t="s">
         <v>5</v>
@@ -32489,10 +32671,10 @@
         <v>170</v>
       </c>
       <c r="B1289" s="8" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C1289" s="8" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D1289" s="8" t="s">
         <v>5</v>
@@ -32507,10 +32689,10 @@
         <v>303</v>
       </c>
       <c r="B1290" s="8" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="C1290" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D1290" s="8" t="s">
         <v>5</v>
@@ -32525,10 +32707,10 @@
         <v>304</v>
       </c>
       <c r="B1291" s="8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C1291" s="8" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D1291" s="8" t="s">
         <v>5</v>
@@ -32543,10 +32725,10 @@
         <v>266</v>
       </c>
       <c r="B1292" s="8" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C1292" s="8" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D1292" s="8" t="s">
         <v>5</v>
@@ -32561,10 +32743,10 @@
         <v>157</v>
       </c>
       <c r="B1293" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C1293" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D1293" s="8" t="s">
         <v>5</v>
@@ -32579,10 +32761,10 @@
         <v>222</v>
       </c>
       <c r="B1294" s="8" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C1294" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D1294" s="8" t="s">
         <v>5</v>
@@ -32619,7 +32801,7 @@
         <v>159</v>
       </c>
       <c r="B1296" s="8" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C1296" s="8" t="s">
         <v>8</v>
@@ -32627,7 +32809,9 @@
       <c r="D1296" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1296" s="8"/>
+      <c r="E1296" s="10" t="s">
+        <v>1077</v>
+      </c>
       <c r="F1296" s="8"/>
       <c r="G1296" s="8"/>
       <c r="H1296" s="8"/>
@@ -32637,10 +32821,10 @@
         <v>318</v>
       </c>
       <c r="B1297" s="8" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C1297" s="8" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D1297" s="8" t="s">
         <v>5</v>
@@ -32655,7 +32839,7 @@
         <v>114</v>
       </c>
       <c r="B1298" s="8" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C1298" s="8" t="s">
         <v>7</v>
@@ -32663,7 +32847,9 @@
       <c r="D1298" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1298" s="8"/>
+      <c r="E1298" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F1298" s="8"/>
       <c r="G1298" s="8"/>
       <c r="H1298" s="8"/>
@@ -32695,10 +32881,10 @@
         <v>295</v>
       </c>
       <c r="B1300" s="8" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C1300" s="8" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D1300" s="8" t="s">
         <v>5</v>
@@ -32713,10 +32899,10 @@
         <v>185</v>
       </c>
       <c r="B1301" s="8" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C1301" s="8" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D1301" s="8"/>
       <c r="E1301" s="8"/>
@@ -32729,7 +32915,7 @@
         <v>9</v>
       </c>
       <c r="B1302" s="8" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C1302" s="8" t="s">
         <v>54</v>
@@ -32737,7 +32923,9 @@
       <c r="D1302" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1302" s="8"/>
+      <c r="E1302" s="10" t="s">
+        <v>1100</v>
+      </c>
       <c r="F1302" s="8"/>
       <c r="G1302" s="8"/>
       <c r="H1302" s="8"/>
@@ -32769,10 +32957,10 @@
         <v>10</v>
       </c>
       <c r="B1304" s="8" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C1304" s="8" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D1304" s="8"/>
       <c r="E1304" s="8"/>
@@ -32785,10 +32973,10 @@
         <v>12</v>
       </c>
       <c r="B1305" s="8" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C1305" s="8" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D1305" s="8"/>
       <c r="E1305" s="8"/>
@@ -32801,7 +32989,7 @@
         <v>323</v>
       </c>
       <c r="B1306" s="8" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C1306" s="8" t="s">
         <v>19</v>
@@ -32809,7 +32997,9 @@
       <c r="D1306" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1306" s="8"/>
+      <c r="E1306" s="10" t="s">
+        <v>1083</v>
+      </c>
       <c r="F1306" s="8"/>
       <c r="G1306" s="8"/>
       <c r="H1306" s="8"/>
@@ -33325,7 +33515,7 @@
         <v>39</v>
       </c>
       <c r="B1330" s="8" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C1330" s="8" t="s">
         <v>616</v>
@@ -33333,7 +33523,9 @@
       <c r="D1330" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1330" s="8"/>
+      <c r="E1330" s="10" t="s">
+        <v>1084</v>
+      </c>
       <c r="F1330" s="8"/>
       <c r="G1330" s="8"/>
       <c r="H1330" s="8"/>
@@ -33348,8 +33540,8 @@
       <c r="C1331" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="D1331" s="10" t="s">
-        <v>4</v>
+      <c r="D1331" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E1331" s="10" t="s">
         <v>1084</v>
@@ -33370,8 +33562,8 @@
       <c r="C1332" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="D1332" s="10" t="s">
-        <v>4</v>
+      <c r="D1332" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E1332" s="10" t="s">
         <v>1084</v>
@@ -33392,8 +33584,8 @@
       <c r="C1333" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="D1333" s="10" t="s">
-        <v>4</v>
+      <c r="D1333" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E1333" s="10" t="s">
         <v>1084</v>
@@ -33414,8 +33606,8 @@
       <c r="C1334" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="D1334" s="10" t="s">
-        <v>4</v>
+      <c r="D1334" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E1334" s="10" t="s">
         <v>1084</v>
@@ -33436,8 +33628,8 @@
       <c r="C1335" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="D1335" s="10" t="s">
-        <v>4</v>
+      <c r="D1335" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E1335" s="10" t="s">
         <v>1084</v>
@@ -33453,10 +33645,10 @@
         <v>71</v>
       </c>
       <c r="B1336" s="8" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C1336" s="8" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D1336" s="8" t="s">
         <v>5</v>
@@ -33471,10 +33663,10 @@
         <v>70</v>
       </c>
       <c r="B1337" s="8" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C1337" s="8" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D1337" s="8" t="s">
         <v>5</v>
@@ -33489,10 +33681,10 @@
         <v>320</v>
       </c>
       <c r="B1338" s="8" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C1338" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D1338" s="8" t="s">
         <v>5</v>
@@ -33507,10 +33699,10 @@
         <v>306</v>
       </c>
       <c r="B1339" s="8" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C1339" s="8" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D1339" s="8"/>
       <c r="E1339" s="8"/>
@@ -33523,10 +33715,10 @@
         <v>327</v>
       </c>
       <c r="B1340" s="8" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="C1340" s="8" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D1340" s="8"/>
       <c r="E1340" s="8"/>
@@ -33539,10 +33731,10 @@
         <v>314</v>
       </c>
       <c r="B1341" s="8" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C1341" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D1341" s="8"/>
       <c r="E1341" s="8"/>
@@ -33555,10 +33747,10 @@
         <v>312</v>
       </c>
       <c r="B1342" s="8" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C1342" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D1342" s="8" t="s">
         <v>5</v>
@@ -33573,10 +33765,10 @@
         <v>307</v>
       </c>
       <c r="B1343" s="8" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C1343" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D1343" s="8"/>
       <c r="E1343" s="8"/>
@@ -33589,10 +33781,10 @@
         <v>145</v>
       </c>
       <c r="B1344" s="8" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C1344" s="8" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D1344" s="8"/>
       <c r="E1344" s="8"/>
@@ -33605,10 +33797,10 @@
         <v>125</v>
       </c>
       <c r="B1345" s="8" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C1345" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D1345" s="8"/>
       <c r="E1345" s="8"/>
@@ -33621,10 +33813,10 @@
         <v>270</v>
       </c>
       <c r="B1346" s="8" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C1346" s="8" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D1346" s="8"/>
       <c r="E1346" s="8"/>
@@ -33637,10 +33829,10 @@
         <v>84</v>
       </c>
       <c r="B1347" s="8" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C1347" s="8" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D1347" s="8" t="s">
         <v>5</v>

--- a/00-Documentacion/Listado de reportes totales.xlsx
+++ b/00-Documentacion/Listado de reportes totales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19399D-76CC-461A-8826-BE7D85710403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E1CC5-1B8C-45BB-B549-D40DA14F633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11900" uniqueCount="1730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11883" uniqueCount="1734">
   <si>
     <t xml:space="preserve">Reporte </t>
   </si>
@@ -5080,9 +5080,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>factura</t>
-  </si>
-  <si>
     <t>Transfiere</t>
   </si>
   <si>
@@ -5228,6 +5225,21 @@
   </si>
   <si>
     <t>correo,excel. txt</t>
+  </si>
+  <si>
+    <t>factura -M:\ORFEO2\BIN\FACTURACION3.EXE -C</t>
+  </si>
+  <si>
+    <t>factura - M:\ORFEO2\BIN\FACTURACION3.EXE -C</t>
+  </si>
+  <si>
+    <t>ws,correo,txt</t>
+  </si>
+  <si>
+    <t>correo, txt</t>
+  </si>
+  <si>
+    <t>pdf,correo,excel,zip,txt</t>
   </si>
 </sst>
 </file>
@@ -5689,7 +5701,7 @@
   <dimension ref="A1:R1347"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,9 +5909,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="8" t="s">
-        <v>1680</v>
-      </c>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -5915,7 +5925,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -5951,7 +5961,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -5987,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -6023,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -6059,7 +6069,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -6095,7 +6105,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -6131,7 +6141,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6167,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6201,7 +6211,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6237,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
@@ -6275,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
@@ -6313,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
@@ -6351,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
@@ -6389,7 +6399,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
@@ -6427,7 +6437,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
@@ -6465,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -6501,7 +6511,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
@@ -6539,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
@@ -6577,7 +6587,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
@@ -6615,7 +6625,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
@@ -6653,7 +6663,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
@@ -6691,7 +6701,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
@@ -6729,7 +6739,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
@@ -6767,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
@@ -6803,7 +6813,7 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -6839,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
@@ -6877,7 +6887,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
@@ -6915,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
@@ -6953,7 +6963,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -6991,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
@@ -7029,7 +7039,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
@@ -7067,7 +7077,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -7103,7 +7113,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
@@ -7141,7 +7151,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -7177,7 +7187,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -7213,7 +7223,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -7251,7 +7261,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -11197,7 +11207,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -11233,7 +11243,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
@@ -12155,7 +12165,7 @@
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
@@ -12225,7 +12235,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5" t="s">
@@ -12271,7 +12281,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="5" t="s">
@@ -12311,7 +12321,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5" t="s">
@@ -12399,7 +12409,7 @@
         <v>5</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5" t="s">
@@ -12441,7 +12451,7 @@
         <v>5</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -12479,7 +12489,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
@@ -12517,7 +12527,7 @@
         <v>5</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
@@ -12587,7 +12597,7 @@
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
@@ -12625,7 +12635,7 @@
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
@@ -12663,7 +12673,7 @@
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
@@ -12728,7 +12738,7 @@
         <v>1679</v>
       </c>
       <c r="R193" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="194" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -12770,7 +12780,7 @@
         <v>1679</v>
       </c>
       <c r="R194" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="195" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -12812,7 +12822,7 @@
         <v>1679</v>
       </c>
       <c r="R195" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -12854,7 +12864,7 @@
         <v>1679</v>
       </c>
       <c r="R196" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -12896,7 +12906,7 @@
         <v>1679</v>
       </c>
       <c r="R197" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
@@ -12938,7 +12948,7 @@
         <v>1679</v>
       </c>
       <c r="R198" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -12980,7 +12990,7 @@
         <v>1679</v>
       </c>
       <c r="R199" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -13022,7 +13032,7 @@
         <v>1679</v>
       </c>
       <c r="R200" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
@@ -13064,7 +13074,7 @@
         <v>1679</v>
       </c>
       <c r="R201" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
@@ -13081,7 +13091,7 @@
         <v>5</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
@@ -13121,7 +13131,7 @@
         <v>5</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
@@ -13155,7 +13165,7 @@
         <v>5</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
@@ -13191,7 +13201,7 @@
         <v>5</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5" t="s">
@@ -13227,7 +13237,7 @@
         <v>5</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
@@ -13267,7 +13277,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
@@ -13307,7 +13317,7 @@
         <v>5</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
@@ -13347,7 +13357,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5" t="s">
@@ -13385,7 +13395,7 @@
         <v>5</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5" t="s">
@@ -13423,7 +13433,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5" t="s">
@@ -13461,7 +13471,7 @@
         <v>5</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
@@ -13497,7 +13507,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5" t="s">
@@ -13535,7 +13545,7 @@
         <v>5</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
@@ -13575,7 +13585,7 @@
         <v>5</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
@@ -13615,7 +13625,7 @@
         <v>5</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
@@ -13655,7 +13665,7 @@
         <v>5</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5" t="s">
@@ -13697,7 +13707,7 @@
         <v>5</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5" t="s">
@@ -13739,7 +13749,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
@@ -13781,7 +13791,7 @@
         <v>5</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5" t="s">
@@ -13823,7 +13833,7 @@
         <v>5</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5" t="s">
@@ -13865,7 +13875,7 @@
         <v>5</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5" t="s">
@@ -13907,7 +13917,7 @@
         <v>5</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5" t="s">
@@ -13949,7 +13959,7 @@
         <v>5</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5" t="s">
@@ -13991,7 +14001,7 @@
         <v>5</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="5" t="s">
@@ -14033,7 +14043,7 @@
         <v>5</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5" t="s">
@@ -14075,7 +14085,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5" t="s">
@@ -14117,7 +14127,7 @@
         <v>5</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5" t="s">
@@ -14159,7 +14169,7 @@
         <v>5</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="5" t="s">
@@ -14201,7 +14211,7 @@
         <v>5</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="5" t="s">
@@ -14243,7 +14253,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="5" t="s">
@@ -14285,7 +14295,7 @@
         <v>5</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5" t="s">
@@ -14327,7 +14337,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
@@ -14369,7 +14379,7 @@
         <v>5</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5" t="s">
@@ -14411,7 +14421,7 @@
         <v>5</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5" t="s">
@@ -14453,7 +14463,7 @@
         <v>5</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5" t="s">
@@ -14495,7 +14505,7 @@
         <v>5</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5" t="s">
@@ -14537,7 +14547,7 @@
         <v>5</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5" t="s">
@@ -14579,7 +14589,7 @@
         <v>5</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
@@ -14621,7 +14631,7 @@
         <v>5</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5" t="s">
@@ -14663,7 +14673,7 @@
         <v>5</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5" t="s">
@@ -14705,7 +14715,7 @@
         <v>5</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5" t="s">
@@ -14747,7 +14757,7 @@
         <v>5</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5" t="s">
@@ -14789,7 +14799,7 @@
         <v>5</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5" t="s">
@@ -14831,7 +14841,7 @@
         <v>5</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5" t="s">
@@ -14873,7 +14883,7 @@
         <v>5</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5" t="s">
@@ -14915,7 +14925,7 @@
         <v>5</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5" t="s">
@@ -14957,7 +14967,7 @@
         <v>5</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5" t="s">
@@ -14999,7 +15009,7 @@
         <v>5</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5" t="s">
@@ -15041,7 +15051,7 @@
         <v>5</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="5" t="s">
@@ -15083,7 +15093,7 @@
         <v>5</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F251" s="5"/>
       <c r="G251" s="5" t="s">
@@ -15125,7 +15135,7 @@
         <v>5</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5" t="s">
@@ -15167,7 +15177,7 @@
         <v>5</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="5" t="s">
@@ -15209,7 +15219,7 @@
         <v>5</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="5" t="s">
@@ -15251,7 +15261,7 @@
         <v>5</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="5" t="s">
@@ -15293,7 +15303,7 @@
         <v>5</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F256" s="5"/>
       <c r="G256" s="5" t="s">
@@ -15335,7 +15345,7 @@
         <v>5</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F257" s="5"/>
       <c r="G257" s="5" t="s">
@@ -15377,7 +15387,7 @@
         <v>5</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="5" t="s">
@@ -15419,7 +15429,7 @@
         <v>5</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="5" t="s">
@@ -15461,7 +15471,7 @@
         <v>5</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="5" t="s">
@@ -15503,7 +15513,7 @@
         <v>5</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5" t="s">
@@ -15545,7 +15555,7 @@
         <v>5</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="5" t="s">
@@ -15587,7 +15597,7 @@
         <v>5</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5" t="s">
@@ -15629,7 +15639,7 @@
         <v>5</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5" t="s">
@@ -15671,7 +15681,7 @@
         <v>5</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F265" s="5"/>
       <c r="G265" s="5" t="s">
@@ -15713,7 +15723,7 @@
         <v>5</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F266" s="5"/>
       <c r="G266" s="5" t="s">
@@ -15755,7 +15765,7 @@
         <v>5</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F267" s="5"/>
       <c r="G267" s="5" t="s">
@@ -15797,7 +15807,7 @@
         <v>5</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F268" s="5"/>
       <c r="G268" s="5" t="s">
@@ -15839,7 +15849,7 @@
         <v>5</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F269" s="5"/>
       <c r="G269" s="5" t="s">
@@ -15881,7 +15891,7 @@
         <v>5</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F270" s="5"/>
       <c r="G270" s="5" t="s">
@@ -15923,7 +15933,7 @@
         <v>5</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F271" s="5"/>
       <c r="G271" s="5" t="s">
@@ -15965,7 +15975,7 @@
         <v>5</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="5" t="s">
@@ -16007,7 +16017,7 @@
         <v>5</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5" t="s">
@@ -16049,7 +16059,7 @@
         <v>5</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5" t="s">
@@ -16091,7 +16101,7 @@
         <v>5</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F275" s="5"/>
       <c r="G275" s="5" t="s">
@@ -16133,7 +16143,7 @@
         <v>5</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F276" s="5"/>
       <c r="G276" s="5" t="s">
@@ -16175,7 +16185,7 @@
         <v>5</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F277" s="5"/>
       <c r="G277" s="5" t="s">
@@ -16217,7 +16227,7 @@
         <v>5</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F278" s="5"/>
       <c r="G278" s="5" t="s">
@@ -16259,7 +16269,7 @@
         <v>5</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F279" s="5"/>
       <c r="G279" s="5" t="s">
@@ -16301,7 +16311,7 @@
         <v>5</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F280" s="5"/>
       <c r="G280" s="5" t="s">
@@ -16343,7 +16353,7 @@
         <v>5</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F281" s="5"/>
       <c r="G281" s="5" t="s">
@@ -16385,7 +16395,7 @@
         <v>5</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F282" s="5"/>
       <c r="G282" s="5" t="s">
@@ -16427,7 +16437,7 @@
         <v>5</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F283" s="5"/>
       <c r="G283" s="5" t="s">
@@ -16469,7 +16479,7 @@
         <v>5</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="5" t="s">
@@ -16511,7 +16521,7 @@
         <v>5</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="5" t="s">
@@ -16553,7 +16563,7 @@
         <v>5</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="5" t="s">
@@ -16595,7 +16605,7 @@
         <v>5</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F287" s="5"/>
       <c r="G287" s="5" t="s">
@@ -16637,7 +16647,7 @@
         <v>5</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="5" t="s">
@@ -16679,7 +16689,7 @@
         <v>5</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F289" s="5"/>
       <c r="G289" s="5" t="s">
@@ -16721,7 +16731,7 @@
         <v>5</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="5" t="s">
@@ -16763,7 +16773,7 @@
         <v>5</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F291" s="5"/>
       <c r="G291" s="5" t="s">
@@ -16805,7 +16815,7 @@
         <v>5</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="5" t="s">
@@ -16847,7 +16857,7 @@
         <v>5</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="5" t="s">
@@ -16889,7 +16899,7 @@
         <v>5</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="5" t="s">
@@ -16931,7 +16941,7 @@
         <v>5</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="5" t="s">
@@ -16973,7 +16983,7 @@
         <v>5</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="5" t="s">
@@ -17015,7 +17025,7 @@
         <v>5</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F297" s="5"/>
       <c r="G297" s="5" t="s">
@@ -17057,7 +17067,7 @@
         <v>5</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="5" t="s">
@@ -17099,7 +17109,7 @@
         <v>5</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F299" s="5"/>
       <c r="G299" s="5" t="s">
@@ -17141,7 +17151,7 @@
         <v>5</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="5" t="s">
@@ -17183,7 +17193,7 @@
         <v>5</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F301" s="5"/>
       <c r="G301" s="5" t="s">
@@ -17225,7 +17235,7 @@
         <v>5</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F302" s="5"/>
       <c r="G302" s="5" t="s">
@@ -17267,7 +17277,7 @@
         <v>5</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F303" s="5"/>
       <c r="G303" s="5" t="s">
@@ -17309,7 +17319,7 @@
         <v>5</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F304" s="5"/>
       <c r="G304" s="5" t="s">
@@ -17351,7 +17361,7 @@
         <v>5</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F305" s="5"/>
       <c r="G305" s="5" t="s">
@@ -17393,7 +17403,7 @@
         <v>5</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="5" t="s">
@@ -17435,7 +17445,7 @@
         <v>5</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F307" s="5"/>
       <c r="G307" s="5" t="s">
@@ -17477,7 +17487,7 @@
         <v>5</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="5" t="s">
@@ -17519,7 +17529,7 @@
         <v>5</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F309" s="5"/>
       <c r="G309" s="5" t="s">
@@ -17561,7 +17571,7 @@
         <v>5</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F310" s="5"/>
       <c r="G310" s="5" t="s">
@@ -17603,7 +17613,7 @@
         <v>5</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F311" s="5"/>
       <c r="G311" s="5" t="s">
@@ -17645,7 +17655,7 @@
         <v>5</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F312" s="5"/>
       <c r="G312" s="5" t="s">
@@ -17687,7 +17697,7 @@
         <v>5</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F313" s="5"/>
       <c r="G313" s="5" t="s">
@@ -17729,7 +17739,7 @@
         <v>5</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="5" t="s">
@@ -17771,7 +17781,7 @@
         <v>5</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F315" s="5"/>
       <c r="G315" s="5" t="s">
@@ -17813,7 +17823,7 @@
         <v>5</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F316" s="5"/>
       <c r="G316" s="5" t="s">
@@ -17855,7 +17865,7 @@
         <v>5</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F317" s="5"/>
       <c r="G317" s="5" t="s">
@@ -17897,7 +17907,7 @@
         <v>5</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="5" t="s">
@@ -17939,7 +17949,7 @@
         <v>5</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F319" s="5"/>
       <c r="G319" s="5" t="s">
@@ -17981,7 +17991,7 @@
         <v>5</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F320" s="5"/>
       <c r="G320" s="5" t="s">
@@ -18023,7 +18033,7 @@
         <v>5</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F321" s="5"/>
       <c r="G321" s="5" t="s">
@@ -18065,7 +18075,7 @@
         <v>5</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="5" t="s">
@@ -18107,7 +18117,7 @@
         <v>5</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="5" t="s">
@@ -18149,7 +18159,7 @@
         <v>5</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="5" t="s">
@@ -18191,7 +18201,7 @@
         <v>5</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="5" t="s">
@@ -18233,7 +18243,7 @@
         <v>5</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="5" t="s">
@@ -18275,7 +18285,7 @@
         <v>5</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F327" s="5"/>
       <c r="G327" s="5" t="s">
@@ -18317,7 +18327,7 @@
         <v>5</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F328" s="5"/>
       <c r="G328" s="5" t="s">
@@ -18359,7 +18369,7 @@
         <v>5</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F329" s="5"/>
       <c r="G329" s="5" t="s">
@@ -18401,7 +18411,7 @@
         <v>5</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F330" s="5"/>
       <c r="G330" s="5" t="s">
@@ -18443,7 +18453,7 @@
         <v>5</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F331" s="5"/>
       <c r="G331" s="5" t="s">
@@ -18485,7 +18495,7 @@
         <v>5</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="5" t="s">
@@ -18527,7 +18537,7 @@
         <v>5</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="5" t="s">
@@ -18569,7 +18579,7 @@
         <v>5</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="5" t="s">
@@ -18611,7 +18621,7 @@
         <v>5</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="5" t="s">
@@ -18653,7 +18663,7 @@
         <v>5</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5" t="s">
@@ -18695,7 +18705,7 @@
         <v>5</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="5" t="s">
@@ -18737,7 +18747,7 @@
         <v>5</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5" t="s">
@@ -18779,7 +18789,7 @@
         <v>5</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="5" t="s">
@@ -18821,7 +18831,7 @@
         <v>5</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F340" s="5"/>
       <c r="G340" s="5" t="s">
@@ -18863,7 +18873,7 @@
         <v>5</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="5" t="s">
@@ -18905,7 +18915,7 @@
         <v>5</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F342" s="5"/>
       <c r="G342" s="5" t="s">
@@ -18947,7 +18957,7 @@
         <v>5</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="5" t="s">
@@ -18989,7 +18999,7 @@
         <v>5</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5" t="s">
@@ -19031,7 +19041,7 @@
         <v>5</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="5" t="s">
@@ -19073,7 +19083,7 @@
         <v>5</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5" t="s">
@@ -19115,7 +19125,7 @@
         <v>5</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="5" t="s">
@@ -19157,7 +19167,7 @@
         <v>5</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F348" s="5"/>
       <c r="G348" s="5" t="s">
@@ -19199,7 +19209,7 @@
         <v>5</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F349" s="5"/>
       <c r="G349" s="5" t="s">
@@ -19241,7 +19251,7 @@
         <v>5</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F350" s="5"/>
       <c r="G350" s="5" t="s">
@@ -19283,7 +19293,7 @@
         <v>5</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F351" s="5"/>
       <c r="G351" s="5" t="s">
@@ -19325,7 +19335,7 @@
         <v>5</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="5" t="s">
@@ -19367,7 +19377,7 @@
         <v>5</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F353" s="5"/>
       <c r="G353" s="5" t="s">
@@ -19409,7 +19419,7 @@
         <v>5</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="5" t="s">
@@ -19451,7 +19461,7 @@
         <v>5</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F355" s="5"/>
       <c r="G355" s="5" t="s">
@@ -19493,7 +19503,7 @@
         <v>5</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F356" s="5"/>
       <c r="G356" s="5" t="s">
@@ -19535,7 +19545,7 @@
         <v>5</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="5" t="s">
@@ -19577,7 +19587,7 @@
         <v>5</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="5" t="s">
@@ -19619,7 +19629,7 @@
         <v>5</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="5" t="s">
@@ -19661,7 +19671,7 @@
         <v>5</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F360" s="5"/>
       <c r="G360" s="5" t="s">
@@ -19703,7 +19713,7 @@
         <v>5</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F361" s="5"/>
       <c r="G361" s="5" t="s">
@@ -19745,7 +19755,7 @@
         <v>5</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F362" s="5"/>
       <c r="G362" s="5" t="s">
@@ -19787,7 +19797,7 @@
         <v>5</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F363" s="5"/>
       <c r="G363" s="5" t="s">
@@ -19829,7 +19839,7 @@
         <v>5</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="5" t="s">
@@ -19871,7 +19881,7 @@
         <v>5</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F365" s="5"/>
       <c r="G365" s="5" t="s">
@@ -19913,7 +19923,7 @@
         <v>5</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F366" s="5"/>
       <c r="G366" s="5" t="s">
@@ -19955,7 +19965,7 @@
         <v>5</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F367" s="5"/>
       <c r="G367" s="5" t="s">
@@ -19997,7 +20007,7 @@
         <v>5</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F368" s="5"/>
       <c r="G368" s="5" t="s">
@@ -20039,7 +20049,7 @@
         <v>5</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="5" t="s">
@@ -20081,7 +20091,7 @@
         <v>5</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F370" s="5"/>
       <c r="G370" s="5" t="s">
@@ -20123,7 +20133,7 @@
         <v>5</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F371" s="5"/>
       <c r="G371" s="5" t="s">
@@ -20165,7 +20175,7 @@
         <v>5</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F372" s="5"/>
       <c r="G372" s="5" t="s">
@@ -20207,7 +20217,7 @@
         <v>5</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="5" t="s">
@@ -20249,7 +20259,7 @@
         <v>5</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F374" s="5"/>
       <c r="G374" s="5" t="s">
@@ -20291,7 +20301,7 @@
         <v>5</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F375" s="5"/>
       <c r="G375" s="5" t="s">
@@ -20333,7 +20343,7 @@
         <v>5</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="5" t="s">
@@ -20375,7 +20385,7 @@
         <v>5</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="5" t="s">
@@ -20417,7 +20427,7 @@
         <v>5</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="5" t="s">
@@ -20459,7 +20469,7 @@
         <v>5</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F379" s="9"/>
       <c r="G379" s="9" t="s">
@@ -20501,7 +20511,7 @@
         <v>5</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F380" s="5"/>
       <c r="G380" s="5" t="s">
@@ -20543,7 +20553,7 @@
         <v>5</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="5" t="s">
@@ -20585,7 +20595,7 @@
         <v>5</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F382" s="5"/>
       <c r="G382" s="5" t="s">
@@ -20627,7 +20637,7 @@
         <v>5</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F383" s="5"/>
       <c r="G383" s="5" t="s">
@@ -20669,7 +20679,7 @@
         <v>5</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F384" s="5"/>
       <c r="G384" s="5" t="s">
@@ -20711,7 +20721,7 @@
         <v>5</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F385" s="5"/>
       <c r="G385" s="5" t="s">
@@ -20753,7 +20763,7 @@
         <v>5</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F386" s="5"/>
       <c r="G386" s="5" t="s">
@@ -20795,7 +20805,7 @@
         <v>5</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F387" s="5"/>
       <c r="G387" s="5" t="s">
@@ -20837,7 +20847,7 @@
         <v>5</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F388" s="5"/>
       <c r="G388" s="5" t="s">
@@ -20879,7 +20889,7 @@
         <v>5</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F389" s="9"/>
       <c r="G389" s="9"/>
@@ -20897,7 +20907,9 @@
       <c r="O389" s="8"/>
       <c r="P389" s="8"/>
       <c r="Q389" s="8"/>
-      <c r="R389" s="8"/>
+      <c r="R389" s="8" t="s">
+        <v>1729</v>
+      </c>
     </row>
     <row r="390" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
@@ -20913,7 +20925,7 @@
         <v>5</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F390" s="5"/>
       <c r="G390" s="5" t="s">
@@ -20933,7 +20945,9 @@
       <c r="O390" s="8"/>
       <c r="P390" s="8"/>
       <c r="Q390" s="8"/>
-      <c r="R390" s="8"/>
+      <c r="R390" s="8" t="s">
+        <v>1730</v>
+      </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" s="9">
@@ -27619,7 +27633,7 @@
         <v>4</v>
       </c>
       <c r="E558" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F558" s="5"/>
       <c r="G558" s="5" t="s">
@@ -27638,7 +27652,7 @@
       <c r="P558" s="8"/>
       <c r="Q558" s="8"/>
       <c r="R558" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.25">
@@ -27689,7 +27703,7 @@
         <v>4</v>
       </c>
       <c r="E560" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F560" s="5"/>
       <c r="G560" s="5" t="s">
@@ -27757,7 +27771,7 @@
       </c>
       <c r="D562" s="9"/>
       <c r="E562" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F562" s="9"/>
       <c r="G562" s="9"/>
@@ -27791,7 +27805,7 @@
       </c>
       <c r="D563" s="9"/>
       <c r="E563" s="9" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F563" s="9"/>
       <c r="G563" s="9"/>
@@ -27901,7 +27915,7 @@
         <v>5</v>
       </c>
       <c r="E566" s="9" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F566" s="9"/>
       <c r="G566" s="9"/>
@@ -27939,7 +27953,7 @@
         <v>5</v>
       </c>
       <c r="E567" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F567" s="5"/>
       <c r="G567" s="5" t="s">
@@ -27981,7 +27995,7 @@
         <v>5</v>
       </c>
       <c r="E568" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F568" s="5"/>
       <c r="G568" s="5" t="s">
@@ -28021,7 +28035,7 @@
       </c>
       <c r="D569" s="9"/>
       <c r="E569" s="9" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F569" s="9"/>
       <c r="G569" s="9"/>
@@ -28063,7 +28077,7 @@
         <v>5</v>
       </c>
       <c r="E570" s="9" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F570" s="9"/>
       <c r="G570" s="9"/>
@@ -28105,7 +28119,7 @@
         <v>4</v>
       </c>
       <c r="E571" s="5" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F571" s="9"/>
       <c r="G571" s="9"/>
@@ -28143,7 +28157,7 @@
         <v>4</v>
       </c>
       <c r="E572" s="5" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F572" s="5"/>
       <c r="G572" s="5" t="s">
@@ -28183,7 +28197,7 @@
         <v>4</v>
       </c>
       <c r="E573" s="5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F573" s="5"/>
       <c r="G573" s="5" t="s">
@@ -28227,7 +28241,7 @@
         <v>4</v>
       </c>
       <c r="E574" s="5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F574" s="9"/>
       <c r="G574" s="9"/>
@@ -28269,7 +28283,7 @@
         <v>4</v>
       </c>
       <c r="E575" s="5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F575" s="5"/>
       <c r="G575" s="5" t="s">
@@ -28313,7 +28327,7 @@
         <v>4</v>
       </c>
       <c r="E576" s="5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F576" s="5"/>
       <c r="G576" s="5" t="s">
@@ -28517,7 +28531,7 @@
         <v>5</v>
       </c>
       <c r="E582" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F582" s="5"/>
       <c r="G582" s="5" t="s">
@@ -28555,7 +28569,7 @@
         <v>5</v>
       </c>
       <c r="E583" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F583" s="5"/>
       <c r="G583" s="5" t="s">
@@ -28593,7 +28607,7 @@
         <v>5</v>
       </c>
       <c r="E584" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F584" s="5"/>
       <c r="G584" s="5" t="s">
@@ -28631,7 +28645,7 @@
         <v>5</v>
       </c>
       <c r="E585" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F585" s="9"/>
       <c r="G585" s="9"/>
@@ -28667,7 +28681,7 @@
         <v>5</v>
       </c>
       <c r="E586" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F586" s="5"/>
       <c r="G586" s="5" t="s">
@@ -28705,7 +28719,7 @@
         <v>5</v>
       </c>
       <c r="E587" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F587" s="5"/>
       <c r="G587" s="5" t="s">
@@ -28777,7 +28791,7 @@
         <v>5</v>
       </c>
       <c r="E589" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F589" s="9"/>
       <c r="G589" s="9"/>
@@ -28813,7 +28827,7 @@
         <v>5</v>
       </c>
       <c r="E590" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F590" s="5"/>
       <c r="G590" s="5" t="s">
@@ -28851,7 +28865,7 @@
         <v>5</v>
       </c>
       <c r="E591" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F591" s="9"/>
       <c r="G591" s="9"/>
@@ -28887,7 +28901,7 @@
         <v>5</v>
       </c>
       <c r="E592" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F592" s="9"/>
       <c r="G592" s="9"/>
@@ -28923,7 +28937,7 @@
         <v>5</v>
       </c>
       <c r="E593" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F593" s="9"/>
       <c r="G593" s="9"/>
@@ -28959,7 +28973,7 @@
         <v>5</v>
       </c>
       <c r="E594" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F594" s="9"/>
       <c r="G594" s="9"/>
@@ -28993,7 +29007,7 @@
       </c>
       <c r="D595" s="9"/>
       <c r="E595" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F595" s="9"/>
       <c r="G595" s="9"/>
@@ -29027,7 +29041,7 @@
       </c>
       <c r="D596" s="9"/>
       <c r="E596" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F596" s="9"/>
       <c r="G596" s="9"/>
@@ -29061,7 +29075,7 @@
       </c>
       <c r="D597" s="9"/>
       <c r="E597" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F597" s="9"/>
       <c r="G597" s="9"/>
@@ -29771,7 +29785,7 @@
       </c>
       <c r="D618" s="9"/>
       <c r="E618" s="9" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F618" s="9"/>
       <c r="G618" s="9"/>
@@ -29869,7 +29883,7 @@
       </c>
       <c r="D621" s="9"/>
       <c r="E621" s="9" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F621" s="9"/>
       <c r="G621" s="9"/>
@@ -30013,7 +30027,7 @@
         <v>5</v>
       </c>
       <c r="E625" s="5" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F625" s="9"/>
       <c r="G625" s="9"/>
@@ -30049,7 +30063,7 @@
         <v>5</v>
       </c>
       <c r="E626" s="5" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F626" s="5"/>
       <c r="G626" s="5" t="s">
@@ -30089,7 +30103,7 @@
         <v>5</v>
       </c>
       <c r="E627" s="5" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F627" s="5"/>
       <c r="G627" s="5" t="s">
@@ -30129,7 +30143,7 @@
         <v>5</v>
       </c>
       <c r="E628" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F628" s="9"/>
       <c r="G628" s="9"/>
@@ -30165,7 +30179,7 @@
         <v>5</v>
       </c>
       <c r="E629" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F629" s="9"/>
       <c r="G629" s="9"/>
@@ -30201,7 +30215,7 @@
         <v>5</v>
       </c>
       <c r="E630" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F630" s="5"/>
       <c r="G630" s="5" t="s">
@@ -30305,7 +30319,7 @@
         <v>5</v>
       </c>
       <c r="E633" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F633" s="9"/>
       <c r="G633" s="9"/>
@@ -30341,7 +30355,7 @@
         <v>5</v>
       </c>
       <c r="E634" s="5" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F634" s="5"/>
       <c r="G634" s="5" t="s">
@@ -30381,7 +30395,7 @@
         <v>5</v>
       </c>
       <c r="E635" s="5" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F635" s="5"/>
       <c r="G635" s="5" t="s">
@@ -30421,7 +30435,7 @@
         <v>5</v>
       </c>
       <c r="E636" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F636" s="5"/>
       <c r="G636" s="5" t="s">
@@ -30461,7 +30475,7 @@
         <v>5</v>
       </c>
       <c r="E637" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F637" s="5"/>
       <c r="G637" s="5" t="s">
@@ -30501,7 +30515,7 @@
         <v>5</v>
       </c>
       <c r="E638" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F638" s="9"/>
       <c r="G638" s="9"/>
@@ -30537,7 +30551,7 @@
         <v>5</v>
       </c>
       <c r="E639" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F639" s="9"/>
       <c r="G639" s="9"/>
@@ -30573,7 +30587,7 @@
         <v>5</v>
       </c>
       <c r="E640" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F640" s="9"/>
       <c r="G640" s="9"/>
@@ -30745,7 +30759,7 @@
       </c>
       <c r="D645" s="9"/>
       <c r="E645" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F645" s="9"/>
       <c r="G645" s="9"/>
@@ -30779,7 +30793,7 @@
       </c>
       <c r="D646" s="9"/>
       <c r="E646" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F646" s="9"/>
       <c r="G646" s="9"/>
@@ -30815,7 +30829,7 @@
         <v>4</v>
       </c>
       <c r="E647" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F647" s="9"/>
       <c r="G647" s="9"/>
@@ -30851,7 +30865,7 @@
         <v>4</v>
       </c>
       <c r="E648" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F648" s="5"/>
       <c r="G648" s="5" t="s">
@@ -30887,7 +30901,7 @@
       </c>
       <c r="D649" s="9"/>
       <c r="E649" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F649" s="9"/>
       <c r="G649" s="9"/>
@@ -31199,7 +31213,7 @@
         <v>5</v>
       </c>
       <c r="E658" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F658" s="9"/>
       <c r="G658" s="9"/>
@@ -31267,7 +31281,7 @@
         <v>4</v>
       </c>
       <c r="E660" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F660" s="9"/>
       <c r="G660" s="9"/>
@@ -31303,7 +31317,7 @@
         <v>4</v>
       </c>
       <c r="E661" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F661" s="5"/>
       <c r="G661" s="5" t="s">
@@ -31341,7 +31355,7 @@
         <v>5</v>
       </c>
       <c r="E662" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F662" s="9"/>
       <c r="G662" s="9"/>
@@ -31745,7 +31759,7 @@
       </c>
       <c r="D674" s="9"/>
       <c r="E674" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F674" s="9"/>
       <c r="G674" s="9"/>
@@ -31781,7 +31795,7 @@
         <v>4</v>
       </c>
       <c r="E675" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F675" s="9"/>
       <c r="G675" s="9"/>
@@ -31792,7 +31806,9 @@
       <c r="J675" s="8"/>
       <c r="K675" s="8"/>
       <c r="L675" s="8"/>
-      <c r="M675" s="8"/>
+      <c r="M675" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N675" s="8" t="s">
         <v>1679</v>
       </c>
@@ -31815,7 +31831,7 @@
         <v>4</v>
       </c>
       <c r="E676" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F676" s="5"/>
       <c r="G676" s="5" t="s">
@@ -31828,7 +31844,9 @@
       <c r="J676" s="8"/>
       <c r="K676" s="8"/>
       <c r="L676" s="8"/>
-      <c r="M676" s="8"/>
+      <c r="M676" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N676" s="8" t="s">
         <v>1679</v>
       </c>
@@ -31849,7 +31867,7 @@
       </c>
       <c r="D677" s="9"/>
       <c r="E677" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F677" s="9"/>
       <c r="G677" s="9"/>
@@ -31885,7 +31903,7 @@
         <v>4</v>
       </c>
       <c r="E678" s="5" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F678" s="9"/>
       <c r="G678" s="9"/>
@@ -31921,7 +31939,7 @@
         <v>4</v>
       </c>
       <c r="E679" s="5" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F679" s="5"/>
       <c r="G679" s="5" t="s">
@@ -31959,7 +31977,7 @@
         <v>5</v>
       </c>
       <c r="E680" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F680" s="9"/>
       <c r="G680" s="9"/>
@@ -32001,7 +32019,7 @@
         <v>5</v>
       </c>
       <c r="E681" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F681" s="5"/>
       <c r="G681" s="5" t="s">
@@ -32045,7 +32063,7 @@
         <v>5</v>
       </c>
       <c r="E682" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F682" s="5"/>
       <c r="G682" s="5" t="s">
@@ -32089,7 +32107,7 @@
         <v>4</v>
       </c>
       <c r="E683" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F683" s="9"/>
       <c r="G683" s="9"/>
@@ -32125,7 +32143,7 @@
         <v>4</v>
       </c>
       <c r="E684" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F684" s="5"/>
       <c r="G684" s="5" t="s">
@@ -32163,7 +32181,7 @@
         <v>4</v>
       </c>
       <c r="E685" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F685" s="5"/>
       <c r="G685" s="5" t="s">
@@ -32201,7 +32219,7 @@
         <v>4</v>
       </c>
       <c r="E686" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F686" s="5"/>
       <c r="G686" s="5" t="s">
@@ -32239,7 +32257,7 @@
         <v>4</v>
       </c>
       <c r="E687" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F687" s="5"/>
       <c r="G687" s="5" t="s">
@@ -32277,7 +32295,7 @@
         <v>4</v>
       </c>
       <c r="E688" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F688" s="5"/>
       <c r="G688" s="5" t="s">
@@ -32315,7 +32333,7 @@
         <v>4</v>
       </c>
       <c r="E689" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F689" s="5"/>
       <c r="G689" s="5" t="s">
@@ -32353,7 +32371,7 @@
         <v>4</v>
       </c>
       <c r="E690" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F690" s="5"/>
       <c r="G690" s="5" t="s">
@@ -32391,7 +32409,7 @@
         <v>4</v>
       </c>
       <c r="E691" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F691" s="5"/>
       <c r="G691" s="5" t="s">
@@ -32429,7 +32447,7 @@
         <v>4</v>
       </c>
       <c r="E692" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F692" s="5"/>
       <c r="G692" s="5" t="s">
@@ -32467,7 +32485,7 @@
         <v>4</v>
       </c>
       <c r="E693" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F693" s="5"/>
       <c r="G693" s="5" t="s">
@@ -32505,7 +32523,7 @@
         <v>4</v>
       </c>
       <c r="E694" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F694" s="5"/>
       <c r="G694" s="5" t="s">
@@ -32543,7 +32561,7 @@
         <v>4</v>
       </c>
       <c r="E695" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F695" s="5"/>
       <c r="G695" s="5" t="s">
@@ -32581,7 +32599,7 @@
         <v>4</v>
       </c>
       <c r="E696" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F696" s="5"/>
       <c r="G696" s="5" t="s">
@@ -32619,7 +32637,7 @@
         <v>4</v>
       </c>
       <c r="E697" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F697" s="5"/>
       <c r="G697" s="5" t="s">
@@ -32657,7 +32675,7 @@
         <v>4</v>
       </c>
       <c r="E698" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F698" s="5"/>
       <c r="G698" s="5" t="s">
@@ -32695,7 +32713,7 @@
         <v>4</v>
       </c>
       <c r="E699" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F699" s="5"/>
       <c r="G699" s="5" t="s">
@@ -32733,7 +32751,7 @@
         <v>4</v>
       </c>
       <c r="E700" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F700" s="5"/>
       <c r="G700" s="5" t="s">
@@ -32771,7 +32789,7 @@
         <v>4</v>
       </c>
       <c r="E701" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F701" s="5"/>
       <c r="G701" s="5" t="s">
@@ -32809,7 +32827,7 @@
         <v>4</v>
       </c>
       <c r="E702" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F702" s="5"/>
       <c r="G702" s="5" t="s">
@@ -32847,7 +32865,7 @@
         <v>4</v>
       </c>
       <c r="E703" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F703" s="5"/>
       <c r="G703" s="5" t="s">
@@ -32885,7 +32903,7 @@
         <v>4</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F704" s="9"/>
       <c r="G704" s="9"/>
@@ -32921,7 +32939,7 @@
         <v>4</v>
       </c>
       <c r="E705" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F705" s="5"/>
       <c r="G705" s="5" t="s">
@@ -32959,7 +32977,7 @@
         <v>4</v>
       </c>
       <c r="E706" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F706" s="5"/>
       <c r="G706" s="5" t="s">
@@ -32997,7 +33015,7 @@
         <v>4</v>
       </c>
       <c r="E707" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F707" s="5"/>
       <c r="G707" s="5" t="s">
@@ -33033,7 +33051,7 @@
       </c>
       <c r="D708" s="9"/>
       <c r="E708" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F708" s="9"/>
       <c r="G708" s="9"/>
@@ -33069,7 +33087,7 @@
         <v>5</v>
       </c>
       <c r="E709" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F709" s="9"/>
       <c r="G709" s="9"/>
@@ -33105,7 +33123,7 @@
         <v>5</v>
       </c>
       <c r="E710" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F710" s="5"/>
       <c r="G710" s="5" t="s">
@@ -33143,7 +33161,7 @@
         <v>4</v>
       </c>
       <c r="E711" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F711" s="9"/>
       <c r="G711" s="9"/>
@@ -33179,7 +33197,7 @@
         <v>4</v>
       </c>
       <c r="E712" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F712" s="5"/>
       <c r="G712" s="5" t="s">
@@ -33217,7 +33235,7 @@
         <v>4</v>
       </c>
       <c r="E713" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F713" s="5"/>
       <c r="G713" s="5" t="s">
@@ -33255,7 +33273,7 @@
         <v>5</v>
       </c>
       <c r="E714" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F714" s="9"/>
       <c r="G714" s="9"/>
@@ -33291,7 +33309,7 @@
         <v>5</v>
       </c>
       <c r="E715" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F715" s="5"/>
       <c r="G715" s="5" t="s">
@@ -33329,7 +33347,7 @@
         <v>5</v>
       </c>
       <c r="E716" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F716" s="9"/>
       <c r="G716" s="9"/>
@@ -33350,7 +33368,7 @@
       </c>
       <c r="Q716" s="8"/>
       <c r="R716" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="717" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -33367,7 +33385,7 @@
         <v>5</v>
       </c>
       <c r="E717" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F717" s="5"/>
       <c r="G717" s="5" t="s">
@@ -33390,7 +33408,7 @@
       </c>
       <c r="Q717" s="8"/>
       <c r="R717" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="718" spans="1:18" x14ac:dyDescent="0.25">
@@ -33407,7 +33425,7 @@
         <v>4</v>
       </c>
       <c r="E718" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F718" s="9"/>
       <c r="G718" s="9"/>
@@ -33443,7 +33461,7 @@
         <v>4</v>
       </c>
       <c r="E719" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F719" s="5"/>
       <c r="G719" s="5" t="s">
@@ -33481,7 +33499,7 @@
         <v>5</v>
       </c>
       <c r="E720" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F720" s="9"/>
       <c r="G720" s="9"/>
@@ -33521,7 +33539,7 @@
         <v>5</v>
       </c>
       <c r="E721" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F721" s="5"/>
       <c r="G721" s="5" t="s">
@@ -33631,7 +33649,7 @@
       </c>
       <c r="D724" s="9"/>
       <c r="E724" s="9" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F724" s="9"/>
       <c r="G724" s="9"/>
@@ -33667,7 +33685,7 @@
       </c>
       <c r="D725" s="9"/>
       <c r="E725" s="9" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F725" s="9"/>
       <c r="G725" s="9"/>
@@ -33705,7 +33723,7 @@
         <v>5</v>
       </c>
       <c r="E726" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F726" s="9"/>
       <c r="G726" s="9"/>
@@ -33739,7 +33757,7 @@
       </c>
       <c r="D727" s="9"/>
       <c r="E727" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F727" s="9"/>
       <c r="G727" s="9"/>
@@ -33773,7 +33791,7 @@
       </c>
       <c r="D728" s="9"/>
       <c r="E728" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F728" s="9"/>
       <c r="G728" s="9"/>
@@ -33807,7 +33825,7 @@
       </c>
       <c r="D729" s="9"/>
       <c r="E729" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F729" s="9"/>
       <c r="G729" s="9"/>
@@ -33841,7 +33859,7 @@
       </c>
       <c r="D730" s="9"/>
       <c r="E730" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F730" s="9"/>
       <c r="G730" s="9"/>
@@ -33907,7 +33925,7 @@
       </c>
       <c r="D732" s="9"/>
       <c r="E732" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F732" s="9"/>
       <c r="G732" s="9"/>
@@ -33941,7 +33959,7 @@
       </c>
       <c r="D733" s="9"/>
       <c r="E733" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F733" s="9"/>
       <c r="G733" s="9"/>
@@ -34115,7 +34133,7 @@
         <v>4</v>
       </c>
       <c r="E738" s="9" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F738" s="9"/>
       <c r="G738" s="9"/>
@@ -34153,7 +34171,7 @@
         <v>4</v>
       </c>
       <c r="E739" s="9" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F739" s="9"/>
       <c r="G739" s="9"/>
@@ -34365,7 +34383,7 @@
         <v>5</v>
       </c>
       <c r="E745" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F745" s="9"/>
       <c r="G745" s="9"/>
@@ -34401,7 +34419,7 @@
         <v>5</v>
       </c>
       <c r="E746" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F746" s="9"/>
       <c r="G746" s="9"/>
@@ -34437,7 +34455,7 @@
         <v>5</v>
       </c>
       <c r="E747" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F747" s="9"/>
       <c r="G747" s="9"/>
@@ -34473,7 +34491,7 @@
         <v>5</v>
       </c>
       <c r="E748" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F748" s="9"/>
       <c r="G748" s="9"/>
@@ -34509,7 +34527,7 @@
         <v>5</v>
       </c>
       <c r="E749" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F749" s="9"/>
       <c r="G749" s="9"/>
@@ -34545,7 +34563,7 @@
         <v>5</v>
       </c>
       <c r="E750" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F750" s="9"/>
       <c r="G750" s="9"/>
@@ -34581,7 +34599,7 @@
         <v>5</v>
       </c>
       <c r="E751" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F751" s="9"/>
       <c r="G751" s="9"/>
@@ -34617,7 +34635,7 @@
         <v>5</v>
       </c>
       <c r="E752" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F752" s="9"/>
       <c r="G752" s="9"/>
@@ -34653,7 +34671,7 @@
         <v>5</v>
       </c>
       <c r="E753" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F753" s="9"/>
       <c r="G753" s="9"/>
@@ -34689,7 +34707,7 @@
         <v>5</v>
       </c>
       <c r="E754" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F754" s="9"/>
       <c r="G754" s="9"/>
@@ -34725,7 +34743,7 @@
         <v>5</v>
       </c>
       <c r="E755" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F755" s="9"/>
       <c r="G755" s="9"/>
@@ -34761,7 +34779,7 @@
         <v>5</v>
       </c>
       <c r="E756" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F756" s="9"/>
       <c r="G756" s="9"/>
@@ -34797,7 +34815,7 @@
         <v>5</v>
       </c>
       <c r="E757" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F757" s="9"/>
       <c r="G757" s="9"/>
@@ -34833,7 +34851,7 @@
         <v>5</v>
       </c>
       <c r="E758" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F758" s="9"/>
       <c r="G758" s="9"/>
@@ -34869,7 +34887,7 @@
         <v>5</v>
       </c>
       <c r="E759" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F759" s="9"/>
       <c r="G759" s="9"/>
@@ -34905,7 +34923,7 @@
         <v>5</v>
       </c>
       <c r="E760" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F760" s="9"/>
       <c r="G760" s="9"/>
@@ -34941,7 +34959,7 @@
         <v>5</v>
       </c>
       <c r="E761" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F761" s="9"/>
       <c r="G761" s="9"/>
@@ -34977,7 +34995,7 @@
         <v>5</v>
       </c>
       <c r="E762" s="9" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F762" s="9"/>
       <c r="G762" s="9"/>
@@ -35019,7 +35037,7 @@
         <v>4</v>
       </c>
       <c r="E763" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F763" s="9"/>
       <c r="G763" s="9"/>
@@ -35061,7 +35079,7 @@
         <v>4</v>
       </c>
       <c r="E764" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F764" s="5"/>
       <c r="G764" s="5" t="s">
@@ -35105,7 +35123,7 @@
         <v>4</v>
       </c>
       <c r="E765" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F765" s="5"/>
       <c r="G765" s="5" t="s">
@@ -35149,7 +35167,7 @@
         <v>4</v>
       </c>
       <c r="E766" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F766" s="5"/>
       <c r="G766" s="5" t="s">
@@ -35191,7 +35209,7 @@
       </c>
       <c r="D767" s="9"/>
       <c r="E767" s="9" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F767" s="9"/>
       <c r="G767" s="9"/>
@@ -35231,7 +35249,7 @@
       </c>
       <c r="D768" s="9"/>
       <c r="E768" s="9" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F768" s="9"/>
       <c r="G768" s="9"/>
@@ -35273,7 +35291,7 @@
         <v>4</v>
       </c>
       <c r="E769" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F769" s="9"/>
       <c r="G769" s="9"/>
@@ -35309,7 +35327,7 @@
         <v>4</v>
       </c>
       <c r="E770" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F770" s="5"/>
       <c r="G770" s="5" t="s">
@@ -35347,7 +35365,7 @@
         <v>4</v>
       </c>
       <c r="E771" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F771" s="5"/>
       <c r="G771" s="5" t="s">
@@ -35385,7 +35403,7 @@
         <v>4</v>
       </c>
       <c r="E772" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F772" s="5"/>
       <c r="G772" s="5" t="s">
@@ -35423,7 +35441,7 @@
         <v>4</v>
       </c>
       <c r="E773" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F773" s="5"/>
       <c r="G773" s="5" t="s">
@@ -35461,7 +35479,7 @@
         <v>4</v>
       </c>
       <c r="E774" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F774" s="5"/>
       <c r="G774" s="5" t="s">
@@ -35499,7 +35517,7 @@
         <v>4</v>
       </c>
       <c r="E775" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F775" s="5"/>
       <c r="G775" s="5" t="s">
@@ -35537,7 +35555,7 @@
         <v>4</v>
       </c>
       <c r="E776" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F776" s="5"/>
       <c r="G776" s="5" t="s">
@@ -38907,7 +38925,7 @@
         <v>4</v>
       </c>
       <c r="E853" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F853" s="9"/>
       <c r="G853" s="9"/>
@@ -38951,7 +38969,7 @@
         <v>4</v>
       </c>
       <c r="E854" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F854" s="5"/>
       <c r="G854" s="5" t="s">
@@ -38997,7 +39015,7 @@
         <v>5</v>
       </c>
       <c r="E855" s="5" t="s">
-        <v>1101</v>
+        <v>1719</v>
       </c>
       <c r="F855" s="9"/>
       <c r="G855" s="9"/>
@@ -39006,23 +39024,17 @@
         <v>1679</v>
       </c>
       <c r="J855" s="8"/>
-      <c r="K855" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L855" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M855" s="8"/>
+      <c r="K855" s="8"/>
+      <c r="L855" s="8"/>
+      <c r="M855" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N855" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O855" s="8"/>
-      <c r="P855" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q855" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P855" s="8"/>
+      <c r="Q855" s="8"/>
       <c r="R855" s="8"/>
     </row>
     <row r="856" spans="1:18" x14ac:dyDescent="0.25">
@@ -39039,7 +39051,7 @@
         <v>5</v>
       </c>
       <c r="E856" s="5" t="s">
-        <v>1101</v>
+        <v>1719</v>
       </c>
       <c r="F856" s="5"/>
       <c r="G856" s="5" t="s">
@@ -39050,23 +39062,17 @@
         <v>1679</v>
       </c>
       <c r="J856" s="8"/>
-      <c r="K856" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L856" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M856" s="8"/>
+      <c r="K856" s="8"/>
+      <c r="L856" s="8"/>
+      <c r="M856" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N856" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O856" s="8"/>
-      <c r="P856" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q856" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P856" s="8"/>
+      <c r="Q856" s="8"/>
       <c r="R856" s="8"/>
     </row>
     <row r="857" spans="1:18" x14ac:dyDescent="0.25">
@@ -39125,7 +39131,7 @@
         <v>5</v>
       </c>
       <c r="E858" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F858" s="9"/>
       <c r="G858" s="9"/>
@@ -39253,7 +39259,7 @@
         <v>5</v>
       </c>
       <c r="E861" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F861" s="9"/>
       <c r="G861" s="9"/>
@@ -39289,7 +39295,7 @@
         <v>4</v>
       </c>
       <c r="E862" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F862" s="5"/>
       <c r="G862" s="5" t="s">
@@ -39327,7 +39333,7 @@
         <v>4</v>
       </c>
       <c r="E863" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F863" s="5"/>
       <c r="G863" s="5" t="s">
@@ -39365,7 +39371,7 @@
         <v>5</v>
       </c>
       <c r="E864" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F864" s="9"/>
       <c r="G864" s="9"/>
@@ -39743,7 +39749,7 @@
       </c>
       <c r="D873" s="9"/>
       <c r="E873" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F873" s="9"/>
       <c r="G873" s="9"/>
@@ -39785,7 +39791,7 @@
       </c>
       <c r="D874" s="9"/>
       <c r="E874" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F874" s="9"/>
       <c r="G874" s="9"/>
@@ -39869,7 +39875,7 @@
         <v>5</v>
       </c>
       <c r="E876" s="5" t="s">
-        <v>1697</v>
+        <v>1731</v>
       </c>
       <c r="F876" s="9"/>
       <c r="G876" s="9"/>
@@ -39878,25 +39884,17 @@
         <v>1679</v>
       </c>
       <c r="J876" s="8"/>
-      <c r="K876" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K876" s="8"/>
       <c r="L876" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="M876" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="N876" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N876" s="8"/>
       <c r="O876" s="8"/>
-      <c r="P876" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q876" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P876" s="8"/>
+      <c r="Q876" s="8"/>
       <c r="R876" s="8"/>
     </row>
     <row r="877" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -39913,7 +39911,7 @@
         <v>5</v>
       </c>
       <c r="E877" s="5" t="s">
-        <v>1697</v>
+        <v>1731</v>
       </c>
       <c r="F877" s="5"/>
       <c r="G877" s="5" t="s">
@@ -39924,25 +39922,17 @@
         <v>1679</v>
       </c>
       <c r="J877" s="8"/>
-      <c r="K877" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K877" s="8"/>
       <c r="L877" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="M877" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="N877" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N877" s="8"/>
       <c r="O877" s="8"/>
-      <c r="P877" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q877" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P877" s="8"/>
+      <c r="Q877" s="8"/>
       <c r="R877" s="8"/>
     </row>
     <row r="878" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -40185,7 +40175,7 @@
         <v>4</v>
       </c>
       <c r="E884" s="5" t="s">
-        <v>1101</v>
+        <v>1732</v>
       </c>
       <c r="F884" s="9"/>
       <c r="G884" s="9"/>
@@ -40194,23 +40184,15 @@
         <v>1679</v>
       </c>
       <c r="J884" s="8"/>
-      <c r="K884" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L884" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M884" s="8"/>
-      <c r="N884" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K884" s="8"/>
+      <c r="L884" s="8"/>
+      <c r="M884" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N884" s="8"/>
       <c r="O884" s="8"/>
-      <c r="P884" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q884" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P884" s="8"/>
+      <c r="Q884" s="8"/>
       <c r="R884" s="8"/>
     </row>
     <row r="885" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -40227,7 +40209,7 @@
         <v>4</v>
       </c>
       <c r="E885" s="5" t="s">
-        <v>1101</v>
+        <v>1732</v>
       </c>
       <c r="F885" s="5"/>
       <c r="G885" s="5" t="s">
@@ -40238,23 +40220,15 @@
         <v>1679</v>
       </c>
       <c r="J885" s="8"/>
-      <c r="K885" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L885" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M885" s="8"/>
-      <c r="N885" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K885" s="8"/>
+      <c r="L885" s="8"/>
+      <c r="M885" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N885" s="8"/>
       <c r="O885" s="8"/>
-      <c r="P885" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q885" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P885" s="8"/>
+      <c r="Q885" s="8"/>
       <c r="R885" s="8"/>
     </row>
     <row r="886" spans="1:18" x14ac:dyDescent="0.25">
@@ -40269,7 +40243,7 @@
       </c>
       <c r="D886" s="9"/>
       <c r="E886" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F886" s="9"/>
       <c r="G886" s="9"/>
@@ -40437,7 +40411,7 @@
         <v>5</v>
       </c>
       <c r="E890" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F890" s="9"/>
       <c r="G890" s="9"/>
@@ -40479,7 +40453,7 @@
       </c>
       <c r="D891" s="9"/>
       <c r="E891" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F891" s="9"/>
       <c r="G891" s="9"/>
@@ -40685,7 +40659,7 @@
       </c>
       <c r="D896" s="9"/>
       <c r="E896" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F896" s="9"/>
       <c r="G896" s="9"/>
@@ -40807,7 +40781,7 @@
       </c>
       <c r="D899" s="9"/>
       <c r="E899" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F899" s="9"/>
       <c r="G899" s="9"/>
@@ -40851,7 +40825,7 @@
         <v>5</v>
       </c>
       <c r="E900" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F900" s="9"/>
       <c r="G900" s="9"/>
@@ -40975,7 +40949,7 @@
         <v>4</v>
       </c>
       <c r="E903" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F903" s="9"/>
       <c r="G903" s="9"/>
@@ -41011,7 +40985,7 @@
         <v>4</v>
       </c>
       <c r="E904" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F904" s="5"/>
       <c r="G904" s="5" t="s">
@@ -41049,7 +41023,7 @@
         <v>4</v>
       </c>
       <c r="E905" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F905" s="5"/>
       <c r="G905" s="5" t="s">
@@ -41087,7 +41061,7 @@
         <v>5</v>
       </c>
       <c r="E906" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F906" s="9"/>
       <c r="G906" s="9"/>
@@ -41265,7 +41239,7 @@
         <v>5</v>
       </c>
       <c r="E910" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F910" s="9"/>
       <c r="G910" s="9"/>
@@ -41501,7 +41475,7 @@
         <v>4</v>
       </c>
       <c r="E916" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F916" s="5"/>
       <c r="G916" s="5" t="s">
@@ -41547,7 +41521,7 @@
         <v>4</v>
       </c>
       <c r="E917" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F917" s="5"/>
       <c r="G917" s="5" t="s">
@@ -41593,7 +41567,7 @@
         <v>4</v>
       </c>
       <c r="E918" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F918" s="5"/>
       <c r="G918" s="5" t="s">
@@ -41639,7 +41613,7 @@
         <v>4</v>
       </c>
       <c r="E919" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F919" s="5"/>
       <c r="G919" s="5" t="s">
@@ -41685,7 +41659,7 @@
         <v>4</v>
       </c>
       <c r="E920" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F920" s="5"/>
       <c r="G920" s="5" t="s">
@@ -41731,7 +41705,7 @@
         <v>4</v>
       </c>
       <c r="E921" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F921" s="5"/>
       <c r="G921" s="5" t="s">
@@ -41777,7 +41751,7 @@
         <v>4</v>
       </c>
       <c r="E922" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F922" s="5"/>
       <c r="G922" s="5" t="s">
@@ -41823,7 +41797,7 @@
         <v>4</v>
       </c>
       <c r="E923" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F923" s="5"/>
       <c r="G923" s="5" t="s">
@@ -41869,7 +41843,7 @@
         <v>4</v>
       </c>
       <c r="E924" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F924" s="5"/>
       <c r="G924" s="5" t="s">
@@ -41915,7 +41889,7 @@
         <v>4</v>
       </c>
       <c r="E925" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F925" s="5"/>
       <c r="G925" s="5" t="s">
@@ -41961,7 +41935,7 @@
         <v>4</v>
       </c>
       <c r="E926" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F926" s="5"/>
       <c r="G926" s="5" t="s">
@@ -42007,7 +41981,7 @@
         <v>4</v>
       </c>
       <c r="E927" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F927" s="5"/>
       <c r="G927" s="5" t="s">
@@ -42053,7 +42027,7 @@
         <v>4</v>
       </c>
       <c r="E928" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F928" s="5"/>
       <c r="G928" s="5" t="s">
@@ -42099,7 +42073,7 @@
         <v>4</v>
       </c>
       <c r="E929" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F929" s="5"/>
       <c r="G929" s="5" t="s">
@@ -42145,7 +42119,7 @@
         <v>4</v>
       </c>
       <c r="E930" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F930" s="5"/>
       <c r="G930" s="5" t="s">
@@ -42191,7 +42165,7 @@
         <v>4</v>
       </c>
       <c r="E931" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F931" s="5"/>
       <c r="G931" s="5" t="s">
@@ -42237,7 +42211,7 @@
         <v>4</v>
       </c>
       <c r="E932" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F932" s="5"/>
       <c r="G932" s="5" t="s">
@@ -42283,7 +42257,7 @@
         <v>4</v>
       </c>
       <c r="E933" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F933" s="5"/>
       <c r="G933" s="5" t="s">
@@ -42329,7 +42303,7 @@
         <v>4</v>
       </c>
       <c r="E934" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F934" s="9"/>
       <c r="G934" s="9"/>
@@ -42373,7 +42347,7 @@
         <v>4</v>
       </c>
       <c r="E935" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F935" s="5"/>
       <c r="G935" s="5" t="s">
@@ -51993,7 +51967,7 @@
         <v>4</v>
       </c>
       <c r="E1154" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F1154" s="8"/>
       <c r="G1154" s="8"/>
@@ -52031,7 +52005,7 @@
         <v>4</v>
       </c>
       <c r="E1155" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F1155" s="8"/>
       <c r="G1155" s="8"/>
@@ -52069,7 +52043,7 @@
         <v>4</v>
       </c>
       <c r="E1156" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1156" s="8"/>
       <c r="G1156" s="8"/>
@@ -52105,7 +52079,7 @@
         <v>4</v>
       </c>
       <c r="E1157" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1157" s="10"/>
       <c r="G1157" s="10" t="s">
@@ -52143,7 +52117,7 @@
         <v>4</v>
       </c>
       <c r="E1158" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1158" s="10"/>
       <c r="G1158" s="10" t="s">
@@ -52181,7 +52155,7 @@
         <v>4</v>
       </c>
       <c r="E1159" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F1159" s="10"/>
       <c r="G1159" s="10" t="s">
@@ -52221,7 +52195,7 @@
         <v>4</v>
       </c>
       <c r="E1160" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F1160" s="10"/>
       <c r="G1160" s="10" t="s">
@@ -52261,7 +52235,7 @@
         <v>4</v>
       </c>
       <c r="E1161" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F1161" s="8"/>
       <c r="G1161" s="8"/>
@@ -52299,7 +52273,7 @@
         <v>4</v>
       </c>
       <c r="E1162" s="10" t="s">
-        <v>1695</v>
+        <v>1733</v>
       </c>
       <c r="F1162" s="8"/>
       <c r="G1162" s="8"/>
@@ -52320,7 +52294,9 @@
       <c r="P1162" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="Q1162" s="8"/>
+      <c r="Q1162" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R1162" s="8"/>
     </row>
     <row r="1163" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -52337,7 +52313,7 @@
         <v>4</v>
       </c>
       <c r="E1163" s="10" t="s">
-        <v>1695</v>
+        <v>1733</v>
       </c>
       <c r="F1163" s="10"/>
       <c r="G1163" s="10" t="s">
@@ -52360,7 +52336,9 @@
       <c r="P1163" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="Q1163" s="8"/>
+      <c r="Q1163" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R1163" s="8"/>
     </row>
     <row r="1164" spans="1:18" x14ac:dyDescent="0.25">
@@ -52377,7 +52355,7 @@
         <v>4</v>
       </c>
       <c r="E1164" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F1164" s="8"/>
       <c r="G1164" s="8"/>
@@ -52419,7 +52397,7 @@
         <v>4</v>
       </c>
       <c r="E1165" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1165" s="8"/>
       <c r="G1165" s="8"/>
@@ -52455,7 +52433,7 @@
         <v>4</v>
       </c>
       <c r="E1166" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F1166" s="8"/>
       <c r="G1166" s="8"/>
@@ -52495,7 +52473,7 @@
         <v>4</v>
       </c>
       <c r="E1167" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1167" s="8"/>
       <c r="G1167" s="8"/>
@@ -52697,7 +52675,7 @@
       </c>
       <c r="D1173" s="8"/>
       <c r="E1173" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1173" s="8"/>
       <c r="G1173" s="8"/>
@@ -52733,7 +52711,7 @@
         <v>5</v>
       </c>
       <c r="E1174" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F1174" s="8"/>
       <c r="G1174" s="8"/>
@@ -52756,7 +52734,7 @@
       <c r="P1174" s="8"/>
       <c r="Q1174" s="8"/>
       <c r="R1174" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1175" spans="1:18" x14ac:dyDescent="0.25">
@@ -52771,7 +52749,7 @@
       </c>
       <c r="D1175" s="8"/>
       <c r="E1175" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F1175" s="8"/>
       <c r="G1175" s="8"/>
@@ -53053,7 +53031,7 @@
         <v>5</v>
       </c>
       <c r="E1183" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1183" s="10"/>
       <c r="G1183" s="10" t="s">
@@ -53095,7 +53073,7 @@
         <v>5</v>
       </c>
       <c r="E1184" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1184" s="10"/>
       <c r="G1184" s="10" t="s">
@@ -53137,7 +53115,7 @@
         <v>5</v>
       </c>
       <c r="E1185" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1185" s="10"/>
       <c r="G1185" s="10" t="s">
@@ -53179,7 +53157,7 @@
         <v>5</v>
       </c>
       <c r="E1186" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1186" s="10"/>
       <c r="G1186" s="10" t="s">
@@ -53221,7 +53199,7 @@
         <v>5</v>
       </c>
       <c r="E1187" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1187" s="10"/>
       <c r="G1187" s="10" t="s">
@@ -53263,7 +53241,7 @@
         <v>5</v>
       </c>
       <c r="E1188" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1188" s="10"/>
       <c r="G1188" s="10" t="s">
@@ -53305,7 +53283,7 @@
         <v>5</v>
       </c>
       <c r="E1189" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1189" s="10"/>
       <c r="G1189" s="10" t="s">
@@ -53347,7 +53325,7 @@
         <v>5</v>
       </c>
       <c r="E1190" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1190" s="8"/>
       <c r="G1190" s="8"/>
@@ -53385,7 +53363,7 @@
         <v>5</v>
       </c>
       <c r="E1191" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1191" s="10"/>
       <c r="G1191" s="10" t="s">
@@ -53427,7 +53405,7 @@
         <v>5</v>
       </c>
       <c r="E1192" s="10" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F1192" s="8"/>
       <c r="G1192" s="8"/>
@@ -53465,7 +53443,7 @@
         <v>5</v>
       </c>
       <c r="E1193" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F1193" s="8"/>
       <c r="G1193" s="8"/>
@@ -53641,7 +53619,7 @@
         <v>5</v>
       </c>
       <c r="E1198" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1198" s="8"/>
       <c r="G1198" s="8"/>
@@ -53743,7 +53721,7 @@
       </c>
       <c r="D1201" s="8"/>
       <c r="E1201" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1201" s="8"/>
       <c r="G1201" s="8"/>
@@ -53807,7 +53785,7 @@
         <v>5</v>
       </c>
       <c r="E1203" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1203" s="8"/>
       <c r="G1203" s="8"/>
@@ -53843,7 +53821,7 @@
         <v>5</v>
       </c>
       <c r="E1204" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1204" s="10"/>
       <c r="G1204" s="10" t="s">
@@ -53881,7 +53859,7 @@
         <v>5</v>
       </c>
       <c r="E1205" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F1205" s="8"/>
       <c r="G1205" s="8"/>
@@ -53953,7 +53931,7 @@
         <v>5</v>
       </c>
       <c r="E1207" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1207" s="8"/>
       <c r="G1207" s="8"/>
@@ -53989,7 +53967,7 @@
         <v>5</v>
       </c>
       <c r="E1208" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1208" s="8"/>
       <c r="G1208" s="8"/>
@@ -54025,7 +54003,7 @@
         <v>4</v>
       </c>
       <c r="E1209" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1209" s="8"/>
       <c r="G1209" s="8"/>
@@ -54061,7 +54039,7 @@
         <v>4</v>
       </c>
       <c r="E1210" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1210" s="10"/>
       <c r="G1210" s="10" t="s">
@@ -54271,7 +54249,7 @@
         <v>5</v>
       </c>
       <c r="E1216" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1216" s="8"/>
       <c r="G1216" s="8"/>
@@ -54307,7 +54285,7 @@
         <v>5</v>
       </c>
       <c r="E1217" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1217" s="10"/>
       <c r="G1217" s="10" t="s">
@@ -54349,7 +54327,7 @@
         <v>5</v>
       </c>
       <c r="E1218" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1218" s="10"/>
       <c r="G1218" s="10" t="s">
@@ -54391,7 +54369,7 @@
         <v>5</v>
       </c>
       <c r="E1219" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1219" s="10"/>
       <c r="G1219" s="10" t="s">
@@ -54433,7 +54411,7 @@
         <v>5</v>
       </c>
       <c r="E1220" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1220" s="10"/>
       <c r="G1220" s="10" t="s">
@@ -54475,7 +54453,7 @@
         <v>5</v>
       </c>
       <c r="E1221" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1221" s="10"/>
       <c r="G1221" s="10" t="s">
@@ -54517,7 +54495,7 @@
         <v>5</v>
       </c>
       <c r="E1222" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1222" s="10"/>
       <c r="G1222" s="10" t="s">
@@ -54559,7 +54537,7 @@
         <v>5</v>
       </c>
       <c r="E1223" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1223" s="10"/>
       <c r="G1223" s="10" t="s">
@@ -54601,7 +54579,7 @@
         <v>5</v>
       </c>
       <c r="E1224" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1224" s="10"/>
       <c r="G1224" s="10" t="s">
@@ -54643,7 +54621,7 @@
         <v>5</v>
       </c>
       <c r="E1225" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1225" s="10"/>
       <c r="G1225" s="10" t="s">
@@ -54685,7 +54663,7 @@
         <v>5</v>
       </c>
       <c r="E1226" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1226" s="10"/>
       <c r="G1226" s="10" t="s">
@@ -54727,7 +54705,7 @@
         <v>5</v>
       </c>
       <c r="E1227" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1227" s="10"/>
       <c r="G1227" s="10" t="s">
@@ -54769,7 +54747,7 @@
         <v>5</v>
       </c>
       <c r="E1228" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1228" s="10"/>
       <c r="G1228" s="10" t="s">
@@ -54811,7 +54789,7 @@
         <v>5</v>
       </c>
       <c r="E1229" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1229" s="10"/>
       <c r="G1229" s="10" t="s">
@@ -54853,7 +54831,7 @@
         <v>5</v>
       </c>
       <c r="E1230" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1230" s="10"/>
       <c r="G1230" s="10" t="s">
@@ -54895,7 +54873,7 @@
         <v>5</v>
       </c>
       <c r="E1231" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1231" s="10"/>
       <c r="G1231" s="10" t="s">
@@ -54937,7 +54915,7 @@
         <v>5</v>
       </c>
       <c r="E1232" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1232" s="10"/>
       <c r="G1232" s="10" t="s">
@@ -54979,7 +54957,7 @@
         <v>5</v>
       </c>
       <c r="E1233" s="10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F1233" s="8"/>
       <c r="G1233" s="8"/>
@@ -55017,7 +54995,7 @@
       </c>
       <c r="D1234" s="8"/>
       <c r="E1234" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1234" s="8"/>
       <c r="G1234" s="8"/>
@@ -55051,7 +55029,7 @@
       </c>
       <c r="D1235" s="8"/>
       <c r="E1235" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1235" s="8"/>
       <c r="G1235" s="8"/>
@@ -55085,7 +55063,7 @@
       </c>
       <c r="D1236" s="8"/>
       <c r="E1236" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1236" s="8"/>
       <c r="G1236" s="8"/>
@@ -55283,7 +55261,7 @@
         <v>5</v>
       </c>
       <c r="E1242" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1242" s="8"/>
       <c r="G1242" s="8"/>
@@ -55385,7 +55363,7 @@
         <v>5</v>
       </c>
       <c r="E1245" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1245" s="8"/>
       <c r="G1245" s="8"/>
@@ -55421,7 +55399,7 @@
         <v>5</v>
       </c>
       <c r="E1246" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1246" s="8"/>
       <c r="G1246" s="8"/>
@@ -55457,7 +55435,7 @@
         <v>5</v>
       </c>
       <c r="E1247" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F1247" s="8"/>
       <c r="G1247" s="8"/>
@@ -55495,7 +55473,7 @@
         <v>5</v>
       </c>
       <c r="E1248" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F1248" s="10"/>
       <c r="G1248" s="10" t="s">
@@ -55535,7 +55513,7 @@
         <v>5</v>
       </c>
       <c r="E1249" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F1249" s="8"/>
       <c r="G1249" s="8"/>
@@ -55647,7 +55625,7 @@
         <v>5</v>
       </c>
       <c r="E1252" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1252" s="8"/>
       <c r="G1252" s="8"/>
@@ -55683,7 +55661,7 @@
         <v>5</v>
       </c>
       <c r="E1253" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1253" s="10"/>
       <c r="G1253" s="10" t="s">
@@ -55721,7 +55699,7 @@
         <v>4</v>
       </c>
       <c r="E1254" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1254" s="10"/>
       <c r="G1254" s="10" t="s">
@@ -55759,7 +55737,7 @@
         <v>4</v>
       </c>
       <c r="E1255" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1255" s="8"/>
       <c r="G1255" s="8"/>
@@ -55795,7 +55773,7 @@
         <v>5</v>
       </c>
       <c r="E1256" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1256" s="10"/>
       <c r="G1256" s="10" t="s">
@@ -55833,7 +55811,7 @@
         <v>5</v>
       </c>
       <c r="E1257" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1257" s="10"/>
       <c r="G1257" s="10" t="s">
@@ -55871,7 +55849,7 @@
         <v>5</v>
       </c>
       <c r="E1258" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1258" s="10"/>
       <c r="G1258" s="10" t="s">
@@ -55909,7 +55887,7 @@
         <v>5</v>
       </c>
       <c r="E1259" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1259" s="8"/>
       <c r="G1259" s="8"/>
@@ -55945,7 +55923,7 @@
         <v>5</v>
       </c>
       <c r="E1260" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1260" s="10"/>
       <c r="G1260" s="10" t="s">
@@ -55983,7 +55961,7 @@
         <v>5</v>
       </c>
       <c r="E1261" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1261" s="10"/>
       <c r="G1261" s="10" t="s">
@@ -56021,7 +55999,7 @@
         <v>5</v>
       </c>
       <c r="E1262" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1262" s="10"/>
       <c r="G1262" s="10" t="s">
@@ -56059,7 +56037,7 @@
         <v>5</v>
       </c>
       <c r="E1263" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1263" s="10"/>
       <c r="G1263" s="10" t="s">
@@ -56097,7 +56075,7 @@
         <v>5</v>
       </c>
       <c r="E1264" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1264" s="10"/>
       <c r="G1264" s="10" t="s">
@@ -56135,7 +56113,7 @@
         <v>5</v>
       </c>
       <c r="E1265" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1265" s="10"/>
       <c r="G1265" s="10" t="s">
@@ -56173,7 +56151,7 @@
         <v>5</v>
       </c>
       <c r="E1266" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1266" s="10"/>
       <c r="G1266" s="10" t="s">
@@ -56211,7 +56189,7 @@
         <v>5</v>
       </c>
       <c r="E1267" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1267" s="10"/>
       <c r="G1267" s="10" t="s">
@@ -56249,7 +56227,7 @@
         <v>5</v>
       </c>
       <c r="E1268" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1268" s="10"/>
       <c r="G1268" s="10" t="s">
@@ -56287,7 +56265,7 @@
         <v>5</v>
       </c>
       <c r="E1269" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1269" s="10"/>
       <c r="G1269" s="10" t="s">
@@ -56325,7 +56303,7 @@
         <v>5</v>
       </c>
       <c r="E1270" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1270" s="10"/>
       <c r="G1270" s="10" t="s">
@@ -56363,7 +56341,7 @@
         <v>5</v>
       </c>
       <c r="E1271" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1271" s="10"/>
       <c r="G1271" s="10" t="s">
@@ -56401,7 +56379,7 @@
         <v>5</v>
       </c>
       <c r="E1272" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1272" s="10"/>
       <c r="G1272" s="10" t="s">
@@ -56439,7 +56417,7 @@
         <v>5</v>
       </c>
       <c r="E1273" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1273" s="10"/>
       <c r="G1273" s="10" t="s">
@@ -56477,7 +56455,7 @@
         <v>5</v>
       </c>
       <c r="E1274" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1274" s="10"/>
       <c r="G1274" s="10" t="s">
@@ -56515,7 +56493,7 @@
         <v>5</v>
       </c>
       <c r="E1275" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1275" s="10"/>
       <c r="G1275" s="10" t="s">
@@ -56553,7 +56531,7 @@
         <v>5</v>
       </c>
       <c r="E1276" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1276" s="10"/>
       <c r="G1276" s="10" t="s">
@@ -56591,7 +56569,7 @@
         <v>5</v>
       </c>
       <c r="E1277" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1277" s="10"/>
       <c r="G1277" s="10" t="s">
@@ -56629,7 +56607,7 @@
         <v>5</v>
       </c>
       <c r="E1278" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F1278" s="10"/>
       <c r="G1278" s="10" t="s">
@@ -56737,7 +56715,7 @@
         <v>5</v>
       </c>
       <c r="E1281" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1281" s="8"/>
       <c r="G1281" s="8"/>
@@ -56773,7 +56751,7 @@
         <v>5</v>
       </c>
       <c r="E1282" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1282" s="8"/>
       <c r="G1282" s="8"/>
@@ -56809,7 +56787,7 @@
         <v>5</v>
       </c>
       <c r="E1283" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F1283" s="10"/>
       <c r="G1283" s="10" t="s">
@@ -56847,7 +56825,7 @@
         <v>5</v>
       </c>
       <c r="E1284" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1284" s="8"/>
       <c r="G1284" s="8"/>
@@ -56883,7 +56861,7 @@
         <v>5</v>
       </c>
       <c r="E1285" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1285" s="8"/>
       <c r="G1285" s="8"/>
@@ -56991,7 +56969,7 @@
         <v>5</v>
       </c>
       <c r="E1288" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1288" s="8"/>
       <c r="G1288" s="8"/>
@@ -57027,7 +57005,7 @@
         <v>5</v>
       </c>
       <c r="E1289" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1289" s="8"/>
       <c r="G1289" s="8"/>
@@ -57063,7 +57041,7 @@
         <v>5</v>
       </c>
       <c r="E1290" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1290" s="8"/>
       <c r="G1290" s="8"/>
@@ -57099,7 +57077,7 @@
         <v>5</v>
       </c>
       <c r="E1291" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1291" s="8"/>
       <c r="G1291" s="8"/>
@@ -57135,7 +57113,7 @@
         <v>5</v>
       </c>
       <c r="E1292" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1292" s="8"/>
       <c r="G1292" s="8"/>
@@ -57239,7 +57217,7 @@
         <v>5</v>
       </c>
       <c r="E1295" s="10" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F1295" s="10"/>
       <c r="G1295" s="10" t="s">
@@ -57279,7 +57257,7 @@
         <v>5</v>
       </c>
       <c r="E1296" s="10" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F1296" s="8"/>
       <c r="G1296" s="8"/>
@@ -57345,7 +57323,7 @@
         <v>5</v>
       </c>
       <c r="E1298" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F1298" s="8"/>
       <c r="G1298" s="8"/>
@@ -57383,7 +57361,7 @@
         <v>5</v>
       </c>
       <c r="E1299" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F1299" s="10"/>
       <c r="G1299" s="10" t="s">
@@ -57423,7 +57401,7 @@
         <v>5</v>
       </c>
       <c r="E1300" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1300" s="8"/>
       <c r="G1300" s="8"/>
@@ -57457,7 +57435,7 @@
       </c>
       <c r="D1301" s="8"/>
       <c r="E1301" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1301" s="8"/>
       <c r="G1301" s="8"/>
@@ -57627,7 +57605,7 @@
         <v>4</v>
       </c>
       <c r="E1306" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1306" s="8"/>
       <c r="G1306" s="8"/>
@@ -57663,7 +57641,7 @@
         <v>4</v>
       </c>
       <c r="E1307" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1307" s="10"/>
       <c r="G1307" s="10" t="s">
@@ -57701,7 +57679,7 @@
         <v>4</v>
       </c>
       <c r="E1308" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1308" s="10"/>
       <c r="G1308" s="10" t="s">
@@ -57739,7 +57717,7 @@
         <v>4</v>
       </c>
       <c r="E1309" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1309" s="10"/>
       <c r="G1309" s="10" t="s">
@@ -57777,7 +57755,7 @@
         <v>4</v>
       </c>
       <c r="E1310" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1310" s="10"/>
       <c r="G1310" s="10" t="s">
@@ -57815,7 +57793,7 @@
         <v>4</v>
       </c>
       <c r="E1311" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1311" s="10"/>
       <c r="G1311" s="10" t="s">
@@ -57853,7 +57831,7 @@
         <v>4</v>
       </c>
       <c r="E1312" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1312" s="10"/>
       <c r="G1312" s="10" t="s">
@@ -57891,7 +57869,7 @@
         <v>4</v>
       </c>
       <c r="E1313" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1313" s="10"/>
       <c r="G1313" s="10" t="s">
@@ -57929,7 +57907,7 @@
         <v>4</v>
       </c>
       <c r="E1314" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1314" s="10"/>
       <c r="G1314" s="10" t="s">
@@ -57967,7 +57945,7 @@
         <v>4</v>
       </c>
       <c r="E1315" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1315" s="10"/>
       <c r="G1315" s="10" t="s">
@@ -58005,7 +57983,7 @@
         <v>4</v>
       </c>
       <c r="E1316" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1316" s="10"/>
       <c r="G1316" s="10" t="s">
@@ -58043,7 +58021,7 @@
         <v>4</v>
       </c>
       <c r="E1317" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1317" s="10"/>
       <c r="G1317" s="10" t="s">
@@ -58081,7 +58059,7 @@
         <v>4</v>
       </c>
       <c r="E1318" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1318" s="10"/>
       <c r="G1318" s="10" t="s">
@@ -58119,7 +58097,7 @@
         <v>4</v>
       </c>
       <c r="E1319" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1319" s="10"/>
       <c r="G1319" s="10" t="s">
@@ -58157,7 +58135,7 @@
         <v>4</v>
       </c>
       <c r="E1320" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1320" s="10"/>
       <c r="G1320" s="10" t="s">
@@ -58195,7 +58173,7 @@
         <v>4</v>
       </c>
       <c r="E1321" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1321" s="10"/>
       <c r="G1321" s="10" t="s">
@@ -58233,7 +58211,7 @@
         <v>4</v>
       </c>
       <c r="E1322" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1322" s="10"/>
       <c r="G1322" s="10" t="s">
@@ -58271,7 +58249,7 @@
         <v>4</v>
       </c>
       <c r="E1323" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1323" s="10"/>
       <c r="G1323" s="10" t="s">
@@ -58309,7 +58287,7 @@
         <v>4</v>
       </c>
       <c r="E1324" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1324" s="10"/>
       <c r="G1324" s="10" t="s">
@@ -58347,7 +58325,7 @@
         <v>4</v>
       </c>
       <c r="E1325" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1325" s="10"/>
       <c r="G1325" s="10" t="s">
@@ -58385,7 +58363,7 @@
         <v>4</v>
       </c>
       <c r="E1326" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1326" s="10"/>
       <c r="G1326" s="10" t="s">
@@ -58423,7 +58401,7 @@
         <v>4</v>
       </c>
       <c r="E1327" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1327" s="10"/>
       <c r="G1327" s="10" t="s">
@@ -58461,7 +58439,7 @@
         <v>4</v>
       </c>
       <c r="E1328" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1328" s="10"/>
       <c r="G1328" s="10" t="s">
@@ -58499,7 +58477,7 @@
         <v>4</v>
       </c>
       <c r="E1329" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F1329" s="10"/>
       <c r="G1329" s="10" t="s">
@@ -58773,7 +58751,7 @@
         <v>5</v>
       </c>
       <c r="E1337" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1337" s="8"/>
       <c r="G1337" s="8"/>
@@ -58809,7 +58787,7 @@
         <v>5</v>
       </c>
       <c r="E1338" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1338" s="8"/>
       <c r="G1338" s="8"/>
@@ -58875,7 +58853,7 @@
       </c>
       <c r="D1340" s="8"/>
       <c r="E1340" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1340" s="8"/>
       <c r="G1340" s="8"/>
@@ -58909,7 +58887,7 @@
       </c>
       <c r="D1341" s="8"/>
       <c r="E1341" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F1341" s="8"/>
       <c r="G1341" s="8"/>
@@ -58977,7 +58955,7 @@
       </c>
       <c r="D1343" s="8"/>
       <c r="E1343" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F1343" s="8"/>
       <c r="G1343" s="8"/>
@@ -59015,7 +58993,7 @@
       </c>
       <c r="D1344" s="8"/>
       <c r="E1344" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F1344" s="8"/>
       <c r="G1344" s="8"/>
@@ -59043,7 +59021,7 @@
       </c>
       <c r="D1345" s="8"/>
       <c r="E1345" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F1345" s="8"/>
       <c r="G1345" s="8"/>
@@ -59081,7 +59059,7 @@
       </c>
       <c r="D1346" s="8"/>
       <c r="E1346" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F1346" s="8"/>
       <c r="G1346" s="8"/>
@@ -59121,7 +59099,7 @@
         <v>5</v>
       </c>
       <c r="E1347" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F1347" s="8"/>
       <c r="G1347" s="8"/>

--- a/00-Documentacion/Listado de reportes totales.xlsx
+++ b/00-Documentacion/Listado de reportes totales.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB38851-C25D-4F38-9CE3-EC6472E959DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAEC389-EE01-4554-93BD-E448E155899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
+    <sheet name="General - Analisis" sheetId="4" r:id="rId1"/>
+    <sheet name="Analisis Proceso con prioridad" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$1347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Analisis Proceso con prioridad'!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General - Analisis'!$A$1:$R$1347</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11888" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12064" uniqueCount="1788">
   <si>
     <t xml:space="preserve">Reporte </t>
   </si>
@@ -5249,13 +5251,178 @@
   </si>
   <si>
     <t>no se encontro la funcion en archivo main</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Periodicidad</t>
+  </si>
+  <si>
+    <t>Procesos principales de Bosch</t>
+  </si>
+  <si>
+    <t>Expediente aduanal</t>
+  </si>
+  <si>
+    <r>
+      <t>CORRECTO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (18 CLIENTES)</t>
+    </r>
+  </si>
+  <si>
+    <t>Anexo 24 Integration Point</t>
+  </si>
+  <si>
+    <t>Lunes a sábado del día anterior</t>
+  </si>
+  <si>
+    <t>CORRECTO</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>En Espera Por Periodicidad</t>
+  </si>
+  <si>
+    <t>Interfaces SEG Automotive</t>
+  </si>
+  <si>
+    <t>El primer día del mes</t>
+  </si>
+  <si>
+    <t>Transmision COVES/EDOCs</t>
+  </si>
+  <si>
+    <t>Tiempos de despacho (Customs Clearance Times)</t>
+  </si>
+  <si>
+    <t>DAF empresa 29 mxn – de Facturación</t>
+  </si>
+  <si>
+    <t>Lunes a Sábado del día anterior</t>
+  </si>
+  <si>
+    <t>DAF fondo fijo empresa 29 mxn – de Facturación</t>
+  </si>
+  <si>
+    <t>Backlog aduana – COEX</t>
+  </si>
+  <si>
+    <t>De Lunes a Viernes</t>
+  </si>
+  <si>
+    <t>INCOMPLETO (14/15 NOTIF.)</t>
+  </si>
+  <si>
+    <t>Indices de calidad - COEX</t>
+  </si>
+  <si>
+    <t>Folios Expedientes Marelli</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo del día anterior</t>
+  </si>
+  <si>
+    <t>Ftp,zip,  pdf,xml, correo,excel</t>
+  </si>
+  <si>
+    <t>Control Digitalizacion3</t>
+  </si>
+  <si>
+    <t>Lunes a Sábado</t>
+  </si>
+  <si>
+    <t>VACIO</t>
+  </si>
+  <si>
+    <t>Lunes a Domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDIENTE DE RECIBIR </t>
+  </si>
+  <si>
+    <t>Facturas Pendientes en cedis ori</t>
+  </si>
+  <si>
+    <t>Lunes a Viernes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion Pendientes CD LTL y Picking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORRECTO </t>
+  </si>
+  <si>
+    <t>Lista de citas</t>
+  </si>
+  <si>
+    <t>CORRECTO 06:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAF Fondo Fijo Empresa 29 MXN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunes a Viernes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logis GSK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entregas Logis-Fuji </t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>procedimientos</t>
+  </si>
+  <si>
+    <t>AICM</t>
+  </si>
+  <si>
+    <t>SMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Día 1 y/o 2 de cada Mes (100 notif. Aprox en 2 bloques) </t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Día vencido laboral diario</t>
+  </si>
+  <si>
+    <t>Los miércoles con información de la semana anterior</t>
+  </si>
+  <si>
+    <t>Complejidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5295,8 +5462,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5309,8 +5543,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5361,11 +5619,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5393,6 +5662,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5710,7 +6041,7 @@
   <dimension ref="A1:R1347"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6529,7 +6860,9 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N21" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10051,8 +10384,8 @@
       <c r="D105" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>1101</v>
+      <c r="E105" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -10061,23 +10394,17 @@
         <v>1679</v>
       </c>
       <c r="J105" s="8"/>
-      <c r="K105" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N105" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O105" s="8"/>
-      <c r="P105" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q105" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
     </row>
     <row r="106" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10093,8 +10420,8 @@
       <c r="D106" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>1101</v>
+      <c r="E106" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
@@ -10105,23 +10432,17 @@
         <v>1679</v>
       </c>
       <c r="J106" s="8"/>
-      <c r="K106" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N106" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O106" s="8"/>
-      <c r="P106" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q106" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
     <row r="107" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10137,8 +10458,8 @@
       <c r="D107" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>1101</v>
+      <c r="E107" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
@@ -10149,23 +10470,17 @@
         <v>1679</v>
       </c>
       <c r="J107" s="8"/>
-      <c r="K107" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N107" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O107" s="8"/>
-      <c r="P107" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q107" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
     <row r="108" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10181,8 +10496,8 @@
       <c r="D108" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>1101</v>
+      <c r="E108" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
@@ -10193,23 +10508,17 @@
         <v>1679</v>
       </c>
       <c r="J108" s="8"/>
-      <c r="K108" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N108" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O108" s="8"/>
-      <c r="P108" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q108" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
     <row r="109" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10225,8 +10534,8 @@
       <c r="D109" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>1101</v>
+      <c r="E109" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
@@ -10237,23 +10546,17 @@
         <v>1679</v>
       </c>
       <c r="J109" s="8"/>
-      <c r="K109" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N109" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O109" s="8"/>
-      <c r="P109" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q109" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
     </row>
     <row r="110" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10269,8 +10572,8 @@
       <c r="D110" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>1101</v>
+      <c r="E110" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
@@ -10281,23 +10584,17 @@
         <v>1679</v>
       </c>
       <c r="J110" s="8"/>
-      <c r="K110" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N110" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O110" s="8"/>
-      <c r="P110" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q110" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
     <row r="111" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10313,8 +10610,8 @@
       <c r="D111" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>1101</v>
+      <c r="E111" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5" t="s">
@@ -10325,23 +10622,17 @@
         <v>1679</v>
       </c>
       <c r="J111" s="8"/>
-      <c r="K111" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L111" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N111" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O111" s="8"/>
-      <c r="P111" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q111" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
     <row r="112" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10357,8 +10648,8 @@
       <c r="D112" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>1101</v>
+      <c r="E112" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5" t="s">
@@ -10369,23 +10660,17 @@
         <v>1679</v>
       </c>
       <c r="J112" s="8"/>
-      <c r="K112" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L112" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N112" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O112" s="8"/>
-      <c r="P112" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q112" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
     <row r="113" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10401,8 +10686,8 @@
       <c r="D113" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>1101</v>
+      <c r="E113" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5" t="s">
@@ -10413,23 +10698,17 @@
         <v>1679</v>
       </c>
       <c r="J113" s="8"/>
-      <c r="K113" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L113" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N113" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O113" s="8"/>
-      <c r="P113" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q113" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
     <row r="114" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10445,8 +10724,8 @@
       <c r="D114" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>1101</v>
+      <c r="E114" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5" t="s">
@@ -10457,23 +10736,17 @@
         <v>1679</v>
       </c>
       <c r="J114" s="8"/>
-      <c r="K114" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L114" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N114" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O114" s="8"/>
-      <c r="P114" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q114" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
     <row r="115" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10489,8 +10762,8 @@
       <c r="D115" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>1101</v>
+      <c r="E115" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5" t="s">
@@ -10501,23 +10774,17 @@
         <v>1679</v>
       </c>
       <c r="J115" s="8"/>
-      <c r="K115" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N115" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O115" s="8"/>
-      <c r="P115" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q115" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
     <row r="116" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
@@ -10533,8 +10800,8 @@
       <c r="D116" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>1101</v>
+      <c r="E116" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
@@ -10545,23 +10812,17 @@
         <v>1679</v>
       </c>
       <c r="J116" s="8"/>
-      <c r="K116" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L116" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N116" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O116" s="8"/>
-      <c r="P116" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q116" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -10578,7 +10839,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -10589,7 +10850,9 @@
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
+      <c r="M117" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N117" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10612,7 +10875,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5" t="s">
@@ -10625,7 +10888,9 @@
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
+      <c r="M118" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N118" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10634,7 +10899,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>17</v>
       </c>
@@ -10648,7 +10913,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5" t="s">
@@ -10661,7 +10926,9 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
+      <c r="M119" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N119" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10670,7 +10937,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>17</v>
       </c>
@@ -10684,7 +10951,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
@@ -10697,7 +10964,9 @@
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
+      <c r="M120" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N120" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10706,7 +10975,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>17</v>
       </c>
@@ -10720,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5" t="s">
@@ -10733,7 +11002,9 @@
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
+      <c r="M121" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N121" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10742,7 +11013,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>17</v>
       </c>
@@ -10756,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5" t="s">
@@ -10769,7 +11040,9 @@
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
+      <c r="M122" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N122" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10778,7 +11051,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>17</v>
       </c>
@@ -10792,7 +11065,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
@@ -10805,7 +11078,9 @@
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
+      <c r="M123" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N123" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10828,7 +11103,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5" t="s">
@@ -10841,7 +11116,9 @@
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
+      <c r="M124" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N124" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10864,7 +11141,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5" t="s">
@@ -10877,7 +11154,9 @@
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
+      <c r="M125" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N125" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10900,7 +11179,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5" t="s">
@@ -10913,7 +11192,9 @@
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
+      <c r="M126" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N126" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10936,7 +11217,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1090</v>
+        <v>1684</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5" t="s">
@@ -10949,7 +11230,9 @@
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
+      <c r="M127" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N127" s="8" t="s">
         <v>1679</v>
       </c>
@@ -10972,7 +11255,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1090</v>
+        <v>1684</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
@@ -10985,7 +11268,9 @@
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
+      <c r="M128" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N128" s="8" t="s">
         <v>1679</v>
       </c>
@@ -11008,7 +11293,7 @@
         <v>4</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1090</v>
+        <v>1684</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
@@ -11021,7 +11306,9 @@
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
+      <c r="M129" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N129" s="8" t="s">
         <v>1679</v>
       </c>
@@ -11044,7 +11331,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1090</v>
+        <v>1684</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9" t="s">
@@ -11057,7 +11344,9 @@
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
+      <c r="M130" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N130" s="8" t="s">
         <v>1679</v>
       </c>
@@ -11080,7 +11369,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1090</v>
+        <v>1684</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
@@ -11093,7 +11382,9 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
+      <c r="M131" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N131" s="8" t="s">
         <v>1679</v>
       </c>
@@ -11116,7 +11407,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1090</v>
+        <v>1684</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9" t="s">
@@ -11129,7 +11420,9 @@
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
+      <c r="M132" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N132" s="8" t="s">
         <v>1679</v>
       </c>
@@ -14392,7 +14685,7 @@
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5" t="s">
-        <v>1090</v>
+        <v>1681</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
@@ -14403,7 +14696,9 @@
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
-      <c r="M224" s="8"/>
+      <c r="M224" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N224" s="8" t="s">
         <v>1679</v>
       </c>
@@ -14478,7 +14773,7 @@
       <c r="Q226" s="8"/>
       <c r="R226" s="8"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>39</v>
       </c>
@@ -14890,7 +15185,7 @@
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5" t="s">
-        <v>1090</v>
+        <v>1681</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
@@ -14901,7 +15196,9 @@
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
-      <c r="M238" s="8"/>
+      <c r="M238" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N238" s="8" t="s">
         <v>1679</v>
       </c>
@@ -14922,7 +15219,7 @@
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5" t="s">
-        <v>1090</v>
+        <v>1681</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -14933,7 +15230,9 @@
       <c r="J239" s="8"/>
       <c r="K239" s="8"/>
       <c r="L239" s="8"/>
-      <c r="M239" s="8"/>
+      <c r="M239" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N239" s="8" t="s">
         <v>1679</v>
       </c>
@@ -14990,7 +15289,7 @@
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -14999,14 +15298,14 @@
         <v>1679</v>
       </c>
       <c r="J241" s="8"/>
-      <c r="K241" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K241" s="8"/>
       <c r="L241" s="8"/>
       <c r="M241" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="N241" s="8"/>
+      <c r="N241" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O241" s="8"/>
       <c r="P241" s="8"/>
       <c r="Q241" s="8"/>
@@ -15764,7 +16063,7 @@
       <c r="Q262" s="8"/>
       <c r="R262" s="8"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>67</v>
       </c>
@@ -18106,7 +18405,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>102</v>
       </c>
@@ -19813,8 +20112,8 @@
       <c r="D368" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E368" s="5" t="s">
-        <v>1706</v>
+      <c r="E368" s="10" t="s">
+        <v>1681</v>
       </c>
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
@@ -19833,9 +20132,7 @@
       </c>
       <c r="O368" s="8"/>
       <c r="P368" s="8"/>
-      <c r="Q368" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="Q368" s="8"/>
       <c r="R368" s="8"/>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
@@ -19851,8 +20148,8 @@
       <c r="D369" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E369" s="5" t="s">
-        <v>1706</v>
+      <c r="E369" s="10" t="s">
+        <v>1681</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="5" t="s">
@@ -19873,9 +20170,7 @@
       </c>
       <c r="O369" s="8"/>
       <c r="P369" s="8"/>
-      <c r="Q369" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="Q369" s="8"/>
       <c r="R369" s="8"/>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
@@ -21146,7 +21441,7 @@
       </c>
       <c r="R403" s="8"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <v>138</v>
       </c>
@@ -21992,7 +22287,7 @@
       </c>
       <c r="R426" s="8"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>153</v>
       </c>
@@ -23260,7 +23555,7 @@
       </c>
       <c r="R459" s="8"/>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
         <v>173</v>
       </c>
@@ -25944,7 +26239,7 @@
       </c>
       <c r="R520" s="8"/>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
         <v>173</v>
       </c>
@@ -26736,7 +27031,7 @@
       </c>
       <c r="R538" s="8"/>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
         <v>173</v>
       </c>
@@ -33236,7 +33531,7 @@
       </c>
       <c r="R688" s="8"/>
     </row>
-    <row r="689" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A689" s="5">
         <v>174</v>
       </c>
@@ -40290,7 +40585,7 @@
         <v>4</v>
       </c>
       <c r="E867" s="5" t="s">
-        <v>1060</v>
+        <v>1684</v>
       </c>
       <c r="F867" s="9"/>
       <c r="G867" s="9"/>
@@ -41796,7 +42091,7 @@
       <c r="Q907" s="8"/>
       <c r="R907" s="8"/>
     </row>
-    <row r="908" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A908" s="5">
         <v>216</v>
       </c>
@@ -47652,7 +47947,7 @@
       </c>
       <c r="R1052" s="8"/>
     </row>
-    <row r="1053" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1053" s="10">
         <v>244</v>
       </c>
@@ -49794,7 +50089,7 @@
       </c>
       <c r="R1103" s="8"/>
     </row>
-    <row r="1104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1104" s="10">
         <v>244</v>
       </c>
@@ -53704,7 +53999,7 @@
         <v>4</v>
       </c>
       <c r="E1208" s="8" t="s">
-        <v>1693</v>
+        <v>1760</v>
       </c>
       <c r="F1208" s="8"/>
       <c r="G1208" s="8" t="s">
@@ -53723,8 +54018,12 @@
       <c r="N1208" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1208" s="8"/>
-      <c r="P1208" s="8"/>
+      <c r="O1208" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1208" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1208" s="8"/>
       <c r="R1208" s="8"/>
     </row>
@@ -53741,8 +54040,8 @@
       <c r="D1209" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1209" s="10" t="s">
-        <v>1693</v>
+      <c r="E1209" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1209" s="8"/>
       <c r="G1209" s="8" t="s">
@@ -53761,8 +54060,12 @@
       <c r="N1209" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1209" s="8"/>
-      <c r="P1209" s="8"/>
+      <c r="O1209" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1209" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1209" s="8"/>
       <c r="R1209" s="8"/>
     </row>
@@ -53779,8 +54082,8 @@
       <c r="D1210" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1210" s="10" t="s">
-        <v>1693</v>
+      <c r="E1210" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1210" s="10"/>
       <c r="G1210" s="10" t="s">
@@ -53799,8 +54102,12 @@
       <c r="N1210" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1210" s="8"/>
-      <c r="P1210" s="8"/>
+      <c r="O1210" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1210" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1210" s="8"/>
       <c r="R1210" s="8"/>
     </row>
@@ -53817,8 +54124,8 @@
       <c r="D1211" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1211" s="10" t="s">
-        <v>1693</v>
+      <c r="E1211" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1211" s="8"/>
       <c r="G1211" s="8" t="s">
@@ -53837,8 +54144,12 @@
       <c r="N1211" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1211" s="8"/>
-      <c r="P1211" s="8"/>
+      <c r="O1211" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1211" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1211" s="8"/>
       <c r="R1211" s="8"/>
     </row>
@@ -53855,8 +54166,8 @@
       <c r="D1212" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1212" s="10" t="s">
-        <v>1693</v>
+      <c r="E1212" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1212" s="10"/>
       <c r="G1212" s="10" t="s">
@@ -53875,8 +54186,12 @@
       <c r="N1212" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1212" s="8"/>
-      <c r="P1212" s="8"/>
+      <c r="O1212" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1212" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1212" s="8"/>
       <c r="R1212" s="8"/>
     </row>
@@ -53893,8 +54208,8 @@
       <c r="D1213" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1213" s="10" t="s">
-        <v>1693</v>
+      <c r="E1213" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1213" s="10"/>
       <c r="G1213" s="10" t="s">
@@ -53913,8 +54228,12 @@
       <c r="N1213" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1213" s="8"/>
-      <c r="P1213" s="8"/>
+      <c r="O1213" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1213" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1213" s="8"/>
       <c r="R1213" s="8"/>
     </row>
@@ -53932,7 +54251,7 @@
         <v>4</v>
       </c>
       <c r="E1214" s="8" t="s">
-        <v>1693</v>
+        <v>1760</v>
       </c>
       <c r="F1214" s="8"/>
       <c r="G1214" s="8" t="s">
@@ -53951,8 +54270,12 @@
       <c r="N1214" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1214" s="8"/>
-      <c r="P1214" s="8"/>
+      <c r="O1214" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1214" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1214" s="8"/>
       <c r="R1214" s="8"/>
     </row>
@@ -53970,7 +54293,7 @@
         <v>4</v>
       </c>
       <c r="E1215" s="8" t="s">
-        <v>1693</v>
+        <v>1760</v>
       </c>
       <c r="F1215" s="8"/>
       <c r="G1215" s="8" t="s">
@@ -53989,8 +54312,12 @@
       <c r="N1215" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1215" s="8"/>
-      <c r="P1215" s="8"/>
+      <c r="O1215" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1215" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1215" s="8"/>
       <c r="R1215" s="8"/>
     </row>
@@ -54008,7 +54335,7 @@
         <v>4</v>
       </c>
       <c r="E1216" s="8" t="s">
-        <v>1693</v>
+        <v>1760</v>
       </c>
       <c r="F1216" s="8"/>
       <c r="G1216" s="8" t="s">
@@ -54027,8 +54354,12 @@
       <c r="N1216" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1216" s="8"/>
-      <c r="P1216" s="8"/>
+      <c r="O1216" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1216" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1216" s="8"/>
       <c r="R1216" s="8"/>
     </row>
@@ -54045,8 +54376,8 @@
       <c r="D1217" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1217" s="10" t="s">
-        <v>1693</v>
+      <c r="E1217" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1217" s="10"/>
       <c r="G1217" s="10" t="s">
@@ -54065,8 +54396,12 @@
       <c r="N1217" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1217" s="8"/>
-      <c r="P1217" s="8"/>
+      <c r="O1217" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1217" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1217" s="8"/>
       <c r="R1217" s="8"/>
     </row>
@@ -54083,8 +54418,8 @@
       <c r="D1218" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1218" s="10" t="s">
-        <v>1693</v>
+      <c r="E1218" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1218" s="10"/>
       <c r="G1218" s="10" t="s">
@@ -54103,8 +54438,12 @@
       <c r="N1218" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1218" s="8"/>
-      <c r="P1218" s="8"/>
+      <c r="O1218" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1218" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1218" s="8"/>
       <c r="R1218" s="8"/>
     </row>
@@ -54121,8 +54460,8 @@
       <c r="D1219" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1219" s="10" t="s">
-        <v>1693</v>
+      <c r="E1219" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1219" s="10"/>
       <c r="G1219" s="10" t="s">
@@ -54141,8 +54480,12 @@
       <c r="N1219" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1219" s="8"/>
-      <c r="P1219" s="8"/>
+      <c r="O1219" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1219" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1219" s="8"/>
       <c r="R1219" s="8"/>
     </row>
@@ -54159,8 +54502,8 @@
       <c r="D1220" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1220" s="10" t="s">
-        <v>1693</v>
+      <c r="E1220" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1220" s="10"/>
       <c r="G1220" s="10" t="s">
@@ -54179,8 +54522,12 @@
       <c r="N1220" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1220" s="8"/>
-      <c r="P1220" s="8"/>
+      <c r="O1220" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1220" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1220" s="8"/>
       <c r="R1220" s="8"/>
     </row>
@@ -54197,8 +54544,8 @@
       <c r="D1221" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1221" s="10" t="s">
-        <v>1693</v>
+      <c r="E1221" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1221" s="10"/>
       <c r="G1221" s="10" t="s">
@@ -54217,8 +54564,12 @@
       <c r="N1221" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1221" s="8"/>
-      <c r="P1221" s="8"/>
+      <c r="O1221" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1221" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1221" s="8"/>
       <c r="R1221" s="8"/>
     </row>
@@ -54235,8 +54586,8 @@
       <c r="D1222" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1222" s="10" t="s">
-        <v>1693</v>
+      <c r="E1222" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1222" s="10"/>
       <c r="G1222" s="10" t="s">
@@ -54255,8 +54606,12 @@
       <c r="N1222" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1222" s="8"/>
-      <c r="P1222" s="8"/>
+      <c r="O1222" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1222" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1222" s="8"/>
       <c r="R1222" s="8"/>
     </row>
@@ -54273,8 +54628,8 @@
       <c r="D1223" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1223" s="10" t="s">
-        <v>1693</v>
+      <c r="E1223" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1223" s="10"/>
       <c r="G1223" s="10"/>
@@ -54291,8 +54646,12 @@
       <c r="N1223" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1223" s="8"/>
-      <c r="P1223" s="8"/>
+      <c r="O1223" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1223" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1223" s="8"/>
       <c r="R1223" s="8"/>
     </row>
@@ -54309,8 +54668,8 @@
       <c r="D1224" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1224" s="10" t="s">
-        <v>1693</v>
+      <c r="E1224" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1224" s="10"/>
       <c r="G1224" s="10" t="s">
@@ -54329,8 +54688,12 @@
       <c r="N1224" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1224" s="8"/>
-      <c r="P1224" s="8"/>
+      <c r="O1224" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1224" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1224" s="8"/>
       <c r="R1224" s="8"/>
     </row>
@@ -54347,8 +54710,8 @@
       <c r="D1225" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1225" s="10" t="s">
-        <v>1693</v>
+      <c r="E1225" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1225" s="10"/>
       <c r="G1225" s="10" t="s">
@@ -54367,8 +54730,12 @@
       <c r="N1225" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1225" s="8"/>
-      <c r="P1225" s="8"/>
+      <c r="O1225" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1225" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1225" s="8"/>
       <c r="R1225" s="8"/>
     </row>
@@ -54385,8 +54752,8 @@
       <c r="D1226" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1226" s="10" t="s">
-        <v>1693</v>
+      <c r="E1226" s="8" t="s">
+        <v>1760</v>
       </c>
       <c r="F1226" s="10"/>
       <c r="G1226" s="10" t="s">
@@ -54405,8 +54772,12 @@
       <c r="N1226" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O1226" s="8"/>
-      <c r="P1226" s="8"/>
+      <c r="O1226" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P1226" s="11" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q1226" s="8"/>
       <c r="R1226" s="8"/>
     </row>
@@ -55946,7 +56317,7 @@
       <c r="Q1263" s="8"/>
       <c r="R1263" s="8"/>
     </row>
-    <row r="1264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1264" s="10">
         <v>322</v>
       </c>
@@ -57511,8 +57882,8 @@
       <c r="D1305" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1305" s="8" t="s">
-        <v>1696</v>
+      <c r="E1305" s="10" t="s">
+        <v>1684</v>
       </c>
       <c r="F1305" s="8"/>
       <c r="G1305" s="8"/>
@@ -57521,12 +57892,8 @@
         <v>1679</v>
       </c>
       <c r="J1305" s="8"/>
-      <c r="K1305" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L1305" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K1305" s="8"/>
+      <c r="L1305" s="8"/>
       <c r="M1305" s="8" t="s">
         <v>1679</v>
       </c>
@@ -57534,12 +57901,8 @@
         <v>1679</v>
       </c>
       <c r="O1305" s="8"/>
-      <c r="P1305" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q1305" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P1305" s="8"/>
+      <c r="Q1305" s="8"/>
       <c r="R1305" s="8"/>
     </row>
     <row r="1306" spans="1:18" x14ac:dyDescent="0.25">
@@ -57556,7 +57919,7 @@
         <v>4</v>
       </c>
       <c r="E1306" s="10" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
       <c r="F1306" s="8"/>
       <c r="G1306" s="8" t="s">
@@ -57567,12 +57930,8 @@
         <v>1679</v>
       </c>
       <c r="J1306" s="8"/>
-      <c r="K1306" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L1306" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K1306" s="8"/>
+      <c r="L1306" s="8"/>
       <c r="M1306" s="8" t="s">
         <v>1679</v>
       </c>
@@ -57580,12 +57939,8 @@
         <v>1679</v>
       </c>
       <c r="O1306" s="8"/>
-      <c r="P1306" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q1306" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P1306" s="8"/>
+      <c r="Q1306" s="8"/>
       <c r="R1306" s="8"/>
     </row>
     <row r="1307" spans="1:18" x14ac:dyDescent="0.25">
@@ -58124,7 +58479,7 @@
       <c r="Q1320" s="8"/>
       <c r="R1320" s="8"/>
     </row>
-    <row r="1321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1321" s="10">
         <v>334</v>
       </c>
@@ -58166,7 +58521,7 @@
       <c r="Q1321" s="8"/>
       <c r="R1321" s="8"/>
     </row>
-    <row r="1322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1322" s="10">
         <v>334</v>
       </c>
@@ -58208,7 +58563,7 @@
       <c r="Q1322" s="8"/>
       <c r="R1322" s="8"/>
     </row>
-    <row r="1323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1323" s="10">
         <v>334</v>
       </c>
@@ -58250,7 +58605,7 @@
       <c r="Q1323" s="8"/>
       <c r="R1323" s="8"/>
     </row>
-    <row r="1324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1324" s="10">
         <v>334</v>
       </c>
@@ -58424,7 +58779,7 @@
         <v>4</v>
       </c>
       <c r="E1328" s="10" t="s">
-        <v>1072</v>
+        <v>1719</v>
       </c>
       <c r="F1328" s="10"/>
       <c r="G1328" s="10"/>
@@ -58435,7 +58790,9 @@
       <c r="J1328" s="8"/>
       <c r="K1328" s="8"/>
       <c r="L1328" s="8"/>
-      <c r="M1328" s="8"/>
+      <c r="M1328" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N1328" s="8" t="s">
         <v>1679</v>
       </c>
@@ -58458,7 +58815,7 @@
         <v>4</v>
       </c>
       <c r="E1329" s="10" t="s">
-        <v>1072</v>
+        <v>1719</v>
       </c>
       <c r="F1329" s="10"/>
       <c r="G1329" s="10" t="s">
@@ -58471,7 +58828,9 @@
       <c r="J1329" s="8"/>
       <c r="K1329" s="8"/>
       <c r="L1329" s="8"/>
-      <c r="M1329" s="8"/>
+      <c r="M1329" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N1329" s="8" t="s">
         <v>1679</v>
       </c>
@@ -58494,7 +58853,7 @@
         <v>5</v>
       </c>
       <c r="E1330" s="10" t="s">
-        <v>1072</v>
+        <v>1682</v>
       </c>
       <c r="F1330" s="8"/>
       <c r="G1330" s="8"/>
@@ -58505,7 +58864,9 @@
       <c r="J1330" s="8"/>
       <c r="K1330" s="8"/>
       <c r="L1330" s="8"/>
-      <c r="M1330" s="8"/>
+      <c r="M1330" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N1330" s="8" t="s">
         <v>1679</v>
       </c>
@@ -58528,7 +58889,7 @@
         <v>5</v>
       </c>
       <c r="E1331" s="10" t="s">
-        <v>1072</v>
+        <v>1719</v>
       </c>
       <c r="F1331" s="10"/>
       <c r="G1331" s="10" t="s">
@@ -58541,7 +58902,9 @@
       <c r="J1331" s="8"/>
       <c r="K1331" s="8"/>
       <c r="L1331" s="8"/>
-      <c r="M1331" s="8"/>
+      <c r="M1331" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N1331" s="8" t="s">
         <v>1679</v>
       </c>
@@ -59145,4 +59508,790 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585C0FF-65C5-4BD8-9936-5C9A63F7E604}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>1787</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="12">
+        <f>3+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H4" s="12">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2</v>
+      </c>
+      <c r="J4" s="12">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="19" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="19" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H6" s="12">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="21" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H7" s="12">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H8" s="12">
+        <v>7</v>
+      </c>
+      <c r="I8" s="12">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H9" s="12">
+        <v>8</v>
+      </c>
+      <c r="I9" s="12">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H10" s="12">
+        <v>8</v>
+      </c>
+      <c r="I10" s="12">
+        <v>10</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H11" s="12">
+        <v>9</v>
+      </c>
+      <c r="I11" s="12">
+        <v>9</v>
+      </c>
+      <c r="J11" s="12">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="19" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H12" s="12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="12">
+        <v>13</v>
+      </c>
+      <c r="J12" s="12">
+        <f>6+7</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H13" s="12">
+        <v>11</v>
+      </c>
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="19" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H14" s="12">
+        <v>12</v>
+      </c>
+      <c r="I14" s="12">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="19" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H15" s="12">
+        <v>13</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="19" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H16" s="12">
+        <v>14</v>
+      </c>
+      <c r="I16" s="12">
+        <v>11</v>
+      </c>
+      <c r="J16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="19" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H17" s="12">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H18" s="12">
+        <v>16</v>
+      </c>
+      <c r="I18" s="12">
+        <v>12</v>
+      </c>
+      <c r="J18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="19" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H19" s="12">
+        <v>17</v>
+      </c>
+      <c r="I19" s="12">
+        <v>29</v>
+      </c>
+      <c r="J19" s="12">
+        <f>15+5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H20" s="12">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12">
+        <v>32</v>
+      </c>
+      <c r="J20" s="28">
+        <f>5+2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H21" s="12">
+        <v>19</v>
+      </c>
+      <c r="I21" s="12">
+        <v>35</v>
+      </c>
+      <c r="J21" s="12">
+        <f>3+8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="19" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H22" s="12">
+        <v>20</v>
+      </c>
+      <c r="I22" s="12">
+        <v>61</v>
+      </c>
+      <c r="J22" s="12">
+        <f>9+2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="19" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H23" s="12">
+        <v>21</v>
+      </c>
+      <c r="I23" s="12">
+        <v>76</v>
+      </c>
+      <c r="J23" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H24" s="12">
+        <v>22</v>
+      </c>
+      <c r="I24" s="12">
+        <v>78</v>
+      </c>
+      <c r="J24" s="12">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/00-Documentacion/Listado de reportes totales.xlsx
+++ b/00-Documentacion/Listado de reportes totales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B50366-6D58-44A8-934D-67962D2DC01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDCCB9A-E1F2-401E-A779-0EBA62B0C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -20,6 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Analisis Proceso con prioridad'!$A$1:$J$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General - Analisis'!$A$1:$R$1347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'listado modulo sin area'!$A$1:$R$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12803" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12901" uniqueCount="1788">
   <si>
     <t xml:space="preserve">Reporte </t>
   </si>
@@ -5531,7 +5532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5565,6 +5566,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5635,7 +5660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5725,6 +5750,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6042,14 +6085,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R1347"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1188" workbookViewId="0">
-      <selection sqref="A1:R1338"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H936" sqref="H936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
@@ -6133,7 +6176,9 @@
       <c r="C2" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>1072</v>
       </c>
@@ -6573,7 +6618,7 @@
       <c r="C14" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="9" t="s">
         <v>1732</v>
       </c>
@@ -6781,7 +6826,7 @@
       <c r="C19" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="5" t="s">
         <v>1681</v>
       </c>
@@ -6815,7 +6860,7 @@
       <c r="C20" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="5" t="s">
         <v>1681</v>
       </c>
@@ -6849,7 +6894,9 @@
       <c r="C21" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>1684</v>
       </c>
@@ -6953,7 +7000,9 @@
       <c r="C24" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="5" t="s">
         <v>1681</v>
       </c>
@@ -6987,7 +7036,7 @@
       <c r="C25" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="5" t="s">
         <v>1681</v>
       </c>
@@ -7021,7 +7070,7 @@
       <c r="C26" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="5" t="s">
         <v>1681</v>
       </c>
@@ -7055,7 +7104,7 @@
       <c r="C27" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="5" t="s">
         <v>1681</v>
       </c>
@@ -12153,7 +12202,9 @@
       <c r="C153" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="D153" s="8"/>
+      <c r="D153" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E153" s="9" t="s">
         <v>1682</v>
       </c>
@@ -14277,7 +14328,9 @@
       <c r="C212" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="D212" s="9"/>
+      <c r="D212" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E212" s="5" t="s">
         <v>1681</v>
       </c>
@@ -14311,7 +14364,9 @@
       <c r="C213" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="D213" s="5"/>
+      <c r="D213" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E213" s="5" t="s">
         <v>1075</v>
       </c>
@@ -14341,7 +14396,9 @@
       <c r="C214" s="9" t="s">
         <v>1309</v>
       </c>
-      <c r="D214" s="9"/>
+      <c r="D214" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E214" s="9" t="s">
         <v>1681</v>
       </c>
@@ -14375,7 +14432,9 @@
       <c r="C215" s="9" t="s">
         <v>1256</v>
       </c>
-      <c r="D215" s="9"/>
+      <c r="D215" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E215" s="9" t="s">
         <v>1684</v>
       </c>
@@ -14409,7 +14468,9 @@
       <c r="C216" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="D216" s="9"/>
+      <c r="D216" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E216" s="9" t="s">
         <v>1684</v>
       </c>
@@ -14443,7 +14504,9 @@
       <c r="C217" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="D217" s="5"/>
+      <c r="D217" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E217" s="5" t="s">
         <v>1684</v>
       </c>
@@ -14477,7 +14540,7 @@
       <c r="C218" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="D218" s="5"/>
+      <c r="D218" s="36"/>
       <c r="E218" s="5" t="s">
         <v>1681</v>
       </c>
@@ -14511,7 +14574,7 @@
       <c r="C219" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="D219" s="5"/>
+      <c r="D219" s="36"/>
       <c r="E219" s="5" t="s">
         <v>1681</v>
       </c>
@@ -14545,7 +14608,7 @@
       <c r="C220" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="D220" s="5"/>
+      <c r="D220" s="36"/>
       <c r="E220" s="5" t="s">
         <v>1681</v>
       </c>
@@ -14579,7 +14642,7 @@
       <c r="C221" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="D221" s="5"/>
+      <c r="D221" s="36"/>
       <c r="E221" s="5" t="s">
         <v>1681</v>
       </c>
@@ -14685,7 +14748,7 @@
       <c r="C224" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="D224" s="5"/>
+      <c r="D224" s="36"/>
       <c r="E224" s="5" t="s">
         <v>1681</v>
       </c>
@@ -15185,7 +15248,7 @@
       <c r="C238" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="D238" s="5"/>
+      <c r="D238" s="36"/>
       <c r="E238" s="5" t="s">
         <v>1681</v>
       </c>
@@ -15219,7 +15282,7 @@
       <c r="C239" s="5" t="s">
         <v>1311</v>
       </c>
-      <c r="D239" s="5"/>
+      <c r="D239" s="36"/>
       <c r="E239" s="5" t="s">
         <v>1681</v>
       </c>
@@ -15289,7 +15352,7 @@
       <c r="C241" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="D241" s="5"/>
+      <c r="D241" s="36"/>
       <c r="E241" s="5" t="s">
         <v>1684</v>
       </c>
@@ -15969,7 +16032,7 @@
       <c r="C260" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="D260" s="5"/>
+      <c r="D260" s="36"/>
       <c r="E260" s="5" t="s">
         <v>1093</v>
       </c>
@@ -17297,7 +17360,7 @@
       <c r="C294" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="D294" s="5"/>
+      <c r="D294" s="36"/>
       <c r="E294" s="5" t="s">
         <v>1096</v>
       </c>
@@ -17363,7 +17426,7 @@
       <c r="C296" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="D296" s="5"/>
+      <c r="D296" s="36"/>
       <c r="E296" s="5" t="s">
         <v>1090</v>
       </c>
@@ -17433,7 +17496,7 @@
       <c r="C298" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="D298" s="5"/>
+      <c r="D298" s="36"/>
       <c r="E298" s="5" t="s">
         <v>1693</v>
       </c>
@@ -17467,7 +17530,7 @@
       <c r="C299" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="D299" s="5"/>
+      <c r="D299" s="36"/>
       <c r="E299" s="5" t="s">
         <v>1702</v>
       </c>
@@ -17681,7 +17744,7 @@
       <c r="C305" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="D305" s="5"/>
+      <c r="D305" s="36"/>
       <c r="E305" s="5" t="s">
         <v>1696</v>
       </c>
@@ -17723,7 +17786,7 @@
       <c r="C306" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="D306" s="5"/>
+      <c r="D306" s="36"/>
       <c r="E306" s="5" t="s">
         <v>1681</v>
       </c>
@@ -19997,7 +20060,7 @@
       <c r="C365" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="D365" s="5"/>
+      <c r="D365" s="36"/>
       <c r="E365" s="5" t="s">
         <v>1101</v>
       </c>
@@ -20037,7 +20100,7 @@
       <c r="C366" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="D366" s="5"/>
+      <c r="D366" s="36"/>
       <c r="E366" s="5" t="s">
         <v>1101</v>
       </c>
@@ -20077,7 +20140,7 @@
       <c r="C367" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="D367" s="5"/>
+      <c r="D367" s="36"/>
       <c r="E367" s="5" t="s">
         <v>1681</v>
       </c>
@@ -20227,7 +20290,7 @@
       <c r="C371" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="D371" s="5"/>
+      <c r="D371" s="36"/>
       <c r="E371" s="5" t="s">
         <v>1691</v>
       </c>
@@ -20449,7 +20512,7 @@
       <c r="C377" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="D377" s="5"/>
+      <c r="D377" s="36"/>
       <c r="E377" s="5" t="s">
         <v>1696</v>
       </c>
@@ -20527,7 +20590,7 @@
       <c r="C379" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="D379" s="5"/>
+      <c r="D379" s="36"/>
       <c r="E379" s="5" t="s">
         <v>1094</v>
       </c>
@@ -20561,7 +20624,7 @@
       <c r="C380" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="D380" s="5"/>
+      <c r="D380" s="36"/>
       <c r="E380" s="5" t="s">
         <v>1101</v>
       </c>
@@ -20637,7 +20700,7 @@
       <c r="C382" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="D382" s="5"/>
+      <c r="D382" s="36"/>
       <c r="E382" s="5" t="s">
         <v>1709</v>
       </c>
@@ -20757,7 +20820,7 @@
       <c r="C385" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="D385" s="5"/>
+      <c r="D385" s="36"/>
       <c r="E385" s="5" t="s">
         <v>1072</v>
       </c>
@@ -21187,7 +21250,7 @@
       <c r="C397" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="D397" s="5"/>
+      <c r="D397" s="36"/>
       <c r="E397" s="5" t="s">
         <v>1096</v>
       </c>
@@ -21375,7 +21438,7 @@
       <c r="C402" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="D402" s="5"/>
+      <c r="D402" s="36"/>
       <c r="E402" s="5" t="s">
         <v>1682</v>
       </c>
@@ -21453,7 +21516,7 @@
       <c r="C404" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="D404" s="5"/>
+      <c r="D404" s="36"/>
       <c r="E404" s="5" t="s">
         <v>1695</v>
       </c>
@@ -21829,7 +21892,7 @@
       <c r="C414" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="D414" s="5"/>
+      <c r="D414" s="36"/>
       <c r="E414" s="5" t="s">
         <v>1710</v>
       </c>
@@ -21857,7 +21920,7 @@
       <c r="C415" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="D415" s="5"/>
+      <c r="D415" s="36"/>
       <c r="E415" s="5" t="s">
         <v>1685</v>
       </c>
@@ -21933,7 +21996,7 @@
       <c r="C417" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="D417" s="5"/>
+      <c r="D417" s="36"/>
       <c r="E417" s="5" t="s">
         <v>1682</v>
       </c>
@@ -22193,7 +22256,7 @@
       <c r="C424" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="D424" s="5"/>
+      <c r="D424" s="36"/>
       <c r="E424" s="5" t="s">
         <v>1074</v>
       </c>
@@ -22225,7 +22288,7 @@
       <c r="C425" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="D425" s="5"/>
+      <c r="D425" s="36"/>
       <c r="E425" s="5" t="s">
         <v>1096</v>
       </c>
@@ -22257,7 +22320,7 @@
       <c r="C426" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="D426" s="5"/>
+      <c r="D426" s="36"/>
       <c r="E426" s="5" t="s">
         <v>1696</v>
       </c>
@@ -22741,7 +22804,7 @@
       <c r="C439" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="D439" s="5"/>
+      <c r="D439" s="36"/>
       <c r="E439" s="5" t="s">
         <v>1060</v>
       </c>
@@ -22773,7 +22836,7 @@
       <c r="C440" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="D440" s="5"/>
+      <c r="D440" s="36"/>
       <c r="E440" s="5" t="s">
         <v>1096</v>
       </c>
@@ -22917,7 +22980,7 @@
       <c r="C444" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="D444" s="5"/>
+      <c r="D444" s="36"/>
       <c r="E444" s="5" t="s">
         <v>1101</v>
       </c>
@@ -22993,7 +23056,7 @@
       <c r="C446" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="D446" s="5"/>
+      <c r="D446" s="36"/>
       <c r="E446" s="5" t="s">
         <v>1090</v>
       </c>
@@ -39421,7 +39484,7 @@
       <c r="C836" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="D836" s="5"/>
+      <c r="D836" s="36"/>
       <c r="E836" s="5" t="s">
         <v>1096</v>
       </c>
@@ -39719,7 +39782,7 @@
       <c r="C844" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="D844" s="5"/>
+      <c r="D844" s="36"/>
       <c r="E844" s="5" t="s">
         <v>1684</v>
       </c>
@@ -39901,7 +39964,7 @@
       <c r="C849" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="D849" s="5"/>
+      <c r="D849" s="36"/>
       <c r="E849" s="5" t="s">
         <v>1681</v>
       </c>
@@ -40047,7 +40110,7 @@
       <c r="C853" s="9" t="s">
         <v>1156</v>
       </c>
-      <c r="D853" s="5"/>
+      <c r="D853" s="36"/>
       <c r="E853" s="5" t="s">
         <v>1689</v>
       </c>
@@ -40087,7 +40150,7 @@
       <c r="C854" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="D854" s="5"/>
+      <c r="D854" s="36"/>
       <c r="E854" s="5" t="s">
         <v>1072</v>
       </c>
@@ -40153,7 +40216,7 @@
       </c>
       <c r="R855" s="8"/>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A856" s="5">
         <v>192</v>
       </c>
@@ -40163,7 +40226,7 @@
       <c r="C856" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="D856" s="5"/>
+      <c r="D856" s="36"/>
       <c r="E856" s="5" t="s">
         <v>1682</v>
       </c>
@@ -40197,7 +40260,7 @@
       <c r="C857" s="9" t="s">
         <v>1165</v>
       </c>
-      <c r="D857" s="9"/>
+      <c r="D857" s="35"/>
       <c r="E857" s="9" t="s">
         <v>1101</v>
       </c>
@@ -40827,7 +40890,7 @@
       <c r="C873" s="9" t="s">
         <v>1123</v>
       </c>
-      <c r="D873" s="9"/>
+      <c r="D873" s="35"/>
       <c r="E873" s="9" t="s">
         <v>1684</v>
       </c>
@@ -41507,7 +41570,7 @@
       <c r="C892" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="D892" s="9"/>
+      <c r="D892" s="35"/>
       <c r="E892" s="9" t="s">
         <v>1072</v>
       </c>
@@ -41539,7 +41602,7 @@
       <c r="C893" s="9" t="s">
         <v>1232</v>
       </c>
-      <c r="D893" s="9"/>
+      <c r="D893" s="35"/>
       <c r="E893" s="9" t="s">
         <v>1072</v>
       </c>
@@ -41571,7 +41634,7 @@
       <c r="C894" s="9" t="s">
         <v>1234</v>
       </c>
-      <c r="D894" s="9"/>
+      <c r="D894" s="35"/>
       <c r="E894" s="9" t="s">
         <v>1072</v>
       </c>
@@ -41603,7 +41666,7 @@
       <c r="C895" s="9" t="s">
         <v>1164</v>
       </c>
-      <c r="D895" s="9"/>
+      <c r="D895" s="35"/>
       <c r="E895" s="9" t="s">
         <v>1060</v>
       </c>
@@ -41809,7 +41872,7 @@
       <c r="C900" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="D900" s="9"/>
+      <c r="D900" s="35"/>
       <c r="E900" s="9" t="s">
         <v>1687</v>
       </c>
@@ -41959,7 +42022,7 @@
       <c r="C904" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="D904" s="5"/>
+      <c r="D904" s="36"/>
       <c r="E904" s="5" t="s">
         <v>1687</v>
       </c>
@@ -41997,7 +42060,7 @@
       <c r="C905" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="D905" s="5"/>
+      <c r="D905" s="36"/>
       <c r="E905" s="5" t="s">
         <v>1072</v>
       </c>
@@ -42587,7 +42650,7 @@
       <c r="C921" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="D921" s="5"/>
+      <c r="D921" s="36"/>
       <c r="E921" s="5" t="s">
         <v>1696</v>
       </c>
@@ -42629,7 +42692,7 @@
       <c r="C922" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="D922" s="5"/>
+      <c r="D922" s="36"/>
       <c r="E922" s="5" t="s">
         <v>1060</v>
       </c>
@@ -42731,7 +42794,7 @@
       <c r="C925" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="D925" s="5"/>
+      <c r="D925" s="36"/>
       <c r="E925" s="5" t="s">
         <v>1060</v>
       </c>
@@ -42877,7 +42940,7 @@
       <c r="C929" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="D929" s="5"/>
+      <c r="D929" s="36"/>
       <c r="E929" s="5" t="s">
         <v>1696</v>
       </c>
@@ -43097,7 +43160,7 @@
       <c r="C935" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="D935" s="5"/>
+      <c r="D935" s="36"/>
       <c r="E935" s="5" t="s">
         <v>1074</v>
       </c>
@@ -43129,7 +43192,7 @@
       <c r="C936" s="9" t="s">
         <v>1173</v>
       </c>
-      <c r="D936" s="9"/>
+      <c r="D936" s="35"/>
       <c r="E936" s="9" t="s">
         <v>1688</v>
       </c>
@@ -43357,7 +43420,7 @@
       <c r="C942" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="D942" s="5"/>
+      <c r="D942" s="36"/>
       <c r="E942" s="5" t="s">
         <v>1090</v>
       </c>
@@ -43499,7 +43562,7 @@
       <c r="C946" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="D946" s="5"/>
+      <c r="D946" s="36"/>
       <c r="E946" s="5" t="s">
         <v>1101</v>
       </c>
@@ -43727,7 +43790,7 @@
       <c r="C952" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="D952" s="5"/>
+      <c r="D952" s="36"/>
       <c r="E952" s="5" t="s">
         <v>1072</v>
       </c>
@@ -51429,7 +51492,7 @@
       <c r="C1137" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="D1137" s="10"/>
+      <c r="D1137" s="37"/>
       <c r="E1137" s="10" t="s">
         <v>1060</v>
       </c>
@@ -51461,7 +51524,7 @@
       <c r="C1138" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="D1138" s="10"/>
+      <c r="D1138" s="37"/>
       <c r="E1138" s="10" t="s">
         <v>1074</v>
       </c>
@@ -51565,7 +51628,7 @@
       <c r="C1141" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="D1141" s="10"/>
+      <c r="D1141" s="37"/>
       <c r="E1141" s="10" t="s">
         <v>1060</v>
       </c>
@@ -51667,7 +51730,7 @@
       <c r="C1144" s="10" t="s">
         <v>1148</v>
       </c>
-      <c r="D1144" s="10"/>
+      <c r="D1144" s="37"/>
       <c r="E1144" s="10" t="s">
         <v>1090</v>
       </c>
@@ -51805,7 +51868,7 @@
       <c r="C1148" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="D1148" s="10"/>
+      <c r="D1148" s="37"/>
       <c r="E1148" s="10" t="s">
         <v>1687</v>
       </c>
@@ -51843,7 +51906,7 @@
       <c r="C1149" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="D1149" s="9"/>
+      <c r="D1149" s="35"/>
       <c r="E1149" s="10" t="s">
         <v>1682</v>
       </c>
@@ -52217,7 +52280,7 @@
       <c r="C1159" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="D1159" s="10"/>
+      <c r="D1159" s="37"/>
       <c r="E1159" s="10" t="s">
         <v>1711</v>
       </c>
@@ -52255,7 +52318,7 @@
       <c r="C1160" s="10" t="s">
         <v>1255</v>
       </c>
-      <c r="D1160" s="10"/>
+      <c r="D1160" s="37"/>
       <c r="E1160" s="10" t="s">
         <v>1684</v>
       </c>
@@ -52289,7 +52352,7 @@
       <c r="C1161" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="D1161" s="9"/>
+      <c r="D1161" s="35"/>
       <c r="E1161" s="10" t="s">
         <v>1681</v>
       </c>
@@ -52323,7 +52386,7 @@
       <c r="C1162" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="D1162" s="9"/>
+      <c r="D1162" s="35"/>
       <c r="E1162" s="10" t="s">
         <v>1101</v>
       </c>
@@ -52363,7 +52426,7 @@
       <c r="C1163" s="10" t="s">
         <v>1189</v>
       </c>
-      <c r="D1163" s="10"/>
+      <c r="D1163" s="37"/>
       <c r="E1163" s="10" t="s">
         <v>1681</v>
       </c>
@@ -52397,7 +52460,7 @@
       <c r="C1164" s="8" t="s">
         <v>1247</v>
       </c>
-      <c r="D1164" s="9"/>
+      <c r="D1164" s="35"/>
       <c r="E1164" s="8" t="s">
         <v>1096</v>
       </c>
@@ -52429,7 +52492,7 @@
       <c r="C1165" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="D1165" s="9"/>
+      <c r="D1165" s="35"/>
       <c r="E1165" s="8" t="s">
         <v>1692</v>
       </c>
@@ -52465,7 +52528,7 @@
       <c r="C1166" s="8" t="s">
         <v>1192</v>
       </c>
-      <c r="D1166" s="9"/>
+      <c r="D1166" s="35"/>
       <c r="E1166" s="8" t="s">
         <v>1076</v>
       </c>
@@ -52499,7 +52562,7 @@
       <c r="C1167" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="D1167" s="9"/>
+      <c r="D1167" s="35"/>
       <c r="E1167" s="8" t="s">
         <v>1696</v>
       </c>
@@ -52541,7 +52604,7 @@
       <c r="C1168" s="8" t="s">
         <v>1195</v>
       </c>
-      <c r="D1168" s="8"/>
+      <c r="D1168" s="38"/>
       <c r="E1168" s="8" t="s">
         <v>1101</v>
       </c>
@@ -52581,7 +52644,7 @@
       <c r="C1169" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="D1169" s="8"/>
+      <c r="D1169" s="38"/>
       <c r="E1169" s="8" t="s">
         <v>1060</v>
       </c>
@@ -52613,7 +52676,7 @@
       <c r="C1170" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="D1170" s="10"/>
+      <c r="D1170" s="37"/>
       <c r="E1170" s="10" t="s">
         <v>1060</v>
       </c>
@@ -53141,7 +53204,7 @@
       <c r="C1184" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="D1184" s="10"/>
+      <c r="D1184" s="37"/>
       <c r="E1184" s="10" t="s">
         <v>1060</v>
       </c>
@@ -53303,7 +53366,7 @@
       <c r="C1188" s="10" t="s">
         <v>1131</v>
       </c>
-      <c r="D1188" s="10"/>
+      <c r="D1188" s="37"/>
       <c r="E1188" s="10" t="s">
         <v>1060</v>
       </c>
@@ -53335,7 +53398,7 @@
       <c r="C1189" s="10" t="s">
         <v>1252</v>
       </c>
-      <c r="D1189" s="10"/>
+      <c r="D1189" s="37"/>
       <c r="E1189" s="10" t="s">
         <v>1060</v>
       </c>
@@ -53367,7 +53430,7 @@
       <c r="C1190" s="8" t="s">
         <v>1245</v>
       </c>
-      <c r="D1190" s="8"/>
+      <c r="D1190" s="38"/>
       <c r="E1190" s="10" t="s">
         <v>1074</v>
       </c>
@@ -53575,7 +53638,7 @@
       <c r="C1196" s="8" t="s">
         <v>1197</v>
       </c>
-      <c r="D1196" s="8"/>
+      <c r="D1196" s="38"/>
       <c r="E1196" s="8" t="s">
         <v>1684</v>
       </c>
@@ -53713,7 +53776,7 @@
       <c r="C1200" s="8" t="s">
         <v>1209</v>
       </c>
-      <c r="D1200" s="9"/>
+      <c r="D1200" s="35"/>
       <c r="E1200" s="8" t="s">
         <v>1090</v>
       </c>
@@ -53817,7 +53880,7 @@
       <c r="C1203" s="8" t="s">
         <v>1283</v>
       </c>
-      <c r="D1203" s="10"/>
+      <c r="D1203" s="37"/>
       <c r="E1203" s="10" t="s">
         <v>1101</v>
       </c>
@@ -53857,7 +53920,7 @@
       <c r="C1204" s="10" t="s">
         <v>1326</v>
       </c>
-      <c r="D1204" s="10"/>
+      <c r="D1204" s="37"/>
       <c r="E1204" s="10" t="s">
         <v>1090</v>
       </c>
@@ -53889,7 +53952,7 @@
       <c r="C1205" s="8" t="s">
         <v>1198</v>
       </c>
-      <c r="D1205" s="8"/>
+      <c r="D1205" s="38"/>
       <c r="E1205" s="8" t="s">
         <v>1709</v>
       </c>
@@ -53927,7 +53990,7 @@
       <c r="C1206" s="8" t="s">
         <v>1296</v>
       </c>
-      <c r="D1206" s="8"/>
+      <c r="D1206" s="38"/>
       <c r="E1206" s="8" t="s">
         <v>1681</v>
       </c>
@@ -54869,7 +54932,7 @@
       <c r="C1229" s="10" t="s">
         <v>1202</v>
       </c>
-      <c r="D1229" s="10"/>
+      <c r="D1229" s="37"/>
       <c r="E1229" s="10" t="s">
         <v>1693</v>
       </c>
@@ -54903,7 +54966,7 @@
       <c r="C1230" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="D1230" s="10"/>
+      <c r="D1230" s="37"/>
       <c r="E1230" s="10" t="s">
         <v>1681</v>
       </c>
@@ -55959,7 +56022,7 @@
       <c r="C1254" s="10" t="s">
         <v>1203</v>
       </c>
-      <c r="D1254" s="10"/>
+      <c r="D1254" s="37"/>
       <c r="E1254" s="10" t="s">
         <v>1060</v>
       </c>
@@ -57413,7 +57476,7 @@
       <c r="C1292" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="D1292" s="8"/>
+      <c r="D1292" s="38"/>
       <c r="E1292" s="8" t="s">
         <v>1072</v>
       </c>
@@ -57669,7 +57732,7 @@
       <c r="C1299" s="10" t="s">
         <v>1327</v>
       </c>
-      <c r="D1299" s="10"/>
+      <c r="D1299" s="37"/>
       <c r="E1299" s="10" t="s">
         <v>1681</v>
       </c>
@@ -58967,7 +59030,7 @@
       <c r="C1333" s="10" t="s">
         <v>1257</v>
       </c>
-      <c r="D1333" s="8"/>
+      <c r="D1333" s="38"/>
       <c r="E1333" s="10" t="s">
         <v>1093</v>
       </c>
@@ -59001,7 +59064,7 @@
       <c r="C1334" s="10" t="s">
         <v>1280</v>
       </c>
-      <c r="D1334" s="8"/>
+      <c r="D1334" s="38"/>
       <c r="E1334" s="10" t="s">
         <v>1101</v>
       </c>
@@ -59075,7 +59138,7 @@
       <c r="C1336" s="8" t="s">
         <v>1200</v>
       </c>
-      <c r="D1336" s="8"/>
+      <c r="D1336" s="38"/>
       <c r="E1336" s="8" t="s">
         <v>1681</v>
       </c>
@@ -59109,7 +59172,7 @@
       <c r="C1337" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D1337" s="8"/>
+      <c r="D1337" s="38"/>
       <c r="E1337" s="8" t="s">
         <v>1690</v>
       </c>
@@ -59143,7 +59206,7 @@
       <c r="C1338" s="8" t="s">
         <v>1294</v>
       </c>
-      <c r="D1338" s="8"/>
+      <c r="D1338" s="38"/>
       <c r="E1338" s="8" t="s">
         <v>1090</v>
       </c>
@@ -59519,10 +59582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9BE15D-6351-44F9-8E43-517339B371DC}">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59545,7 +59608,7 @@
     <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -59605,13 +59668,15 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="39" t="s">
         <v>1428</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>1072</v>
       </c>
@@ -59633,125 +59698,133 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1615</v>
+        <v>553</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>1681</v>
+        <v>554</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>1096</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+        <v>1681</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="8" t="s">
         <v>1679</v>
       </c>
@@ -59769,22 +59842,26 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1653</v>
+        <v>774</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>481</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>1681</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="8" t="s">
         <v>1679</v>
@@ -59805,20 +59882,24 @@
     </row>
     <row r="8" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1617</v>
+        <v>537</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>481</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>1681</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="8" t="s">
         <v>1679</v>
@@ -59837,22 +59918,26 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1654</v>
+        <v>483</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>481</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>1681</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="8" t="s">
         <v>1679</v>
@@ -59871,22 +59956,26 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1343</v>
+        <v>771</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>481</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>1681</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="8" t="s">
         <v>1679</v>
@@ -59907,17 +59996,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>1525</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>1415</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
-        <v>1682</v>
+        <v>1238</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>1732</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -59939,18 +60030,20 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1581</v>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>6</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>1615</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>1681</v>
       </c>
       <c r="F12" s="9"/>
@@ -59973,31 +60066,35 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -60005,17 +60102,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1616</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>1524</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>1681</v>
+        <v>1267</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1684</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -60038,18 +60137,20 @@
       <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>1487</v>
+      <c r="A15" s="41">
+        <v>10</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>1653</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D15" s="9"/>
+        <v>1322</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="9" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -60072,18 +60173,18 @@
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>30</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1429</v>
+      <c r="A16" s="41">
+        <v>11</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>1617</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>1135</v>
+      </c>
+      <c r="D16" s="35"/>
       <c r="E16" s="9" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -60105,23 +60206,23 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>31</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>12</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60139,23 +60240,23 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="9" t="s">
         <v>1681</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60173,23 +60274,25 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>23</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60207,23 +60310,25 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>26</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>1681</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60241,57 +60346,57 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="41">
+        <v>27</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>38</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="41">
+        <v>28</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>1681</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60309,23 +60414,25 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>29</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60343,23 +60450,25 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>43</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>30</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60377,23 +60486,25 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>31</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>1684</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60411,96 +60522,102 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>64</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
+        <v>32</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N26" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O26" s="8"/>
-      <c r="P26" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>81</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>33</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J27" s="8"/>
-      <c r="K27" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>83</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="9">
+        <v>34</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N28" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60509,32 +60626,32 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>85</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>35</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="K29" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N29" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60543,32 +60660,32 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>86</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="41">
+        <v>38</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J30" s="8"/>
-      <c r="K30" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N30" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60577,33 +60694,29 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>92</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="41">
+        <v>42</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60611,31 +60724,27 @@
         <v>1679</v>
       </c>
       <c r="O31" s="8"/>
-      <c r="P31" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>93</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="41">
+        <v>43</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="9" t="s">
         <v>1681</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60653,73 +60762,63 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>111</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>45</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N33" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O33" s="8"/>
-      <c r="P33" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>112</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>64</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
         <v>1679</v>
@@ -60728,96 +60827,92 @@
       <c r="P34" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="Q34" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>113</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>81</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L35" s="8"/>
-      <c r="M35" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>116</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>1691</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="41">
+        <v>83</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J36" s="8"/>
-      <c r="K36" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>120</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>85</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60825,37 +60920,29 @@
       <c r="K37" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O37" s="8"/>
-      <c r="P37" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>122</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>1375</v>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="41">
+        <v>86</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>1590</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>1094</v>
+        <v>1105</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="9" t="s">
+        <v>1702</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -60864,10 +60951,10 @@
         <v>1679</v>
       </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K38" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
         <v>1679</v>
@@ -60877,23 +60964,23 @@
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>123</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>92</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60904,7 +60991,9 @@
       <c r="L39" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="M39" s="8"/>
+      <c r="M39" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N39" s="8" t="s">
         <v>1679</v>
       </c>
@@ -60917,93 +61006,97 @@
       </c>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>125</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="41">
+        <v>93</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J40" s="8"/>
-      <c r="K40" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N40" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>127</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>111</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="K41" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="P41" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R41" s="8"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>131</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="A42" s="9">
+        <v>112</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61011,31 +61104,39 @@
       <c r="K42" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="N42" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="P42" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>136</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="41">
+        <v>113</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61053,100 +61154,110 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>138</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>116</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K44" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
     </row>
-    <row r="45" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>145</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="8"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>120</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="K45" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="P45" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>146</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>122</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="L46" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61155,57 +61266,65 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
     </row>
-    <row r="47" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>148</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>123</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K47" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M47" s="8"/>
       <c r="N47" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="P47" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>150</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="41">
+        <v>125</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61213,63 +61332,69 @@
       <c r="K48" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="L48" s="8"/>
+      <c r="L48" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="N48" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
     </row>
-    <row r="49" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>151</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>127</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J49" s="8"/>
-      <c r="K49" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+      <c r="N49" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
     </row>
-    <row r="50" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>152</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>131</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D50" s="35"/>
+      <c r="E50" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61277,48 +61402,40 @@
       <c r="K50" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
     </row>
-    <row r="51" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>162</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>136</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D51" s="35"/>
+      <c r="E51" s="9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
+      <c r="M51" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N51" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61327,102 +61444,104 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
     </row>
-    <row r="52" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>163</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>138</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J52" s="8"/>
-      <c r="K52" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
     </row>
-    <row r="53" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>166</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="8" t="s">
-        <v>1679</v>
-      </c>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="41">
+        <v>145</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q53" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
     </row>
-    <row r="54" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>168</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>146</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="M54" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N54" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61432,118 +61551,124 @@
       <c r="R54" s="8"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>178</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="A55" s="9">
+        <v>148</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J55" s="8"/>
-      <c r="K55" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
+      <c r="M55" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>182</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>150</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="K56" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L56" s="8"/>
-      <c r="M56" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>185</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>151</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="K57" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L57" s="8"/>
-      <c r="M57" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
     </row>
-    <row r="58" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
-        <v>189</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>1398</v>
+        <v>152</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>1541</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>1689</v>
+        <v>1276</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>1696</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -61565,29 +61690,31 @@
         <v>1679</v>
       </c>
       <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
+      <c r="P58" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q58" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="R58" s="8"/>
     </row>
-    <row r="59" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>190</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>162</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61603,35 +61730,33 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
-    <row r="60" spans="1:18" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>192</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>163</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="K60" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L60" s="8"/>
-      <c r="M60" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
@@ -61639,15 +61764,15 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
-        <v>193</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>1582</v>
+        <v>166</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>1542</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D61" s="9"/>
+        <v>1277</v>
+      </c>
+      <c r="D61" s="35"/>
       <c r="E61" s="9" t="s">
         <v>1101</v>
       </c>
@@ -61678,18 +61803,18 @@
       <c r="R61" s="8"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>204</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>1123</v>
+      <c r="A62" s="41">
+        <v>168</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>1610</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D62" s="9"/>
+        <v>1306</v>
+      </c>
+      <c r="D62" s="35"/>
       <c r="E62" s="9" t="s">
-        <v>1684</v>
+        <v>1090</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -61700,9 +61825,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61713,17 +61836,17 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
-        <v>207</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>1406</v>
+        <v>178</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>1434</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D63" s="9"/>
+        <v>1124</v>
+      </c>
+      <c r="D63" s="35"/>
       <c r="E63" s="9" t="s">
-        <v>1072</v>
+        <v>1096</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -61732,12 +61855,12 @@
         <v>1679</v>
       </c>
       <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="K63" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
-      <c r="N63" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
@@ -61745,17 +61868,17 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
-        <v>208</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>1402</v>
+        <v>182</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>1467</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D64" s="9"/>
+        <v>1160</v>
+      </c>
+      <c r="D64" s="35"/>
       <c r="E64" s="9" t="s">
-        <v>1072</v>
+        <v>1684</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -61766,7 +61889,9 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
+      <c r="M64" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N64" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61776,18 +61901,18 @@
       <c r="R64" s="8"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>209</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>1405</v>
+      <c r="A65" s="41">
+        <v>185</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>1645</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D65" s="9"/>
+        <v>1317</v>
+      </c>
+      <c r="D65" s="35"/>
       <c r="E65" s="9" t="s">
-        <v>1072</v>
+        <v>1681</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -61798,7 +61923,9 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
+      <c r="M65" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N65" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61809,17 +61936,17 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
-        <v>210</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>1452</v>
+        <v>189</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>1398</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D66" s="9"/>
+        <v>1156</v>
+      </c>
+      <c r="D66" s="35"/>
       <c r="E66" s="9" t="s">
-        <v>1060</v>
+        <v>1689</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -61828,30 +61955,38 @@
         <v>1679</v>
       </c>
       <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
+      <c r="K66" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N66" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
+      <c r="Q66" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R66" s="8"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
-        <v>212</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>1377</v>
+        <v>190</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>1403</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D67" s="9"/>
+        <v>1233</v>
+      </c>
+      <c r="D67" s="35"/>
       <c r="E67" s="9" t="s">
-        <v>1687</v>
+        <v>1072</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -61860,47 +61995,39 @@
         <v>1679</v>
       </c>
       <c r="J67" s="8"/>
-      <c r="K67" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K67" s="8"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M67" s="8"/>
       <c r="N67" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
-      <c r="Q67" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>214</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>192</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J68" s="8"/>
-      <c r="K68" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8" t="s">
         <v>1679</v>
@@ -61910,70 +62037,72 @@
       </c>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>215</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>193</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="K69" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
+      <c r="P69" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>223</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>204</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J70" s="8"/>
-      <c r="K70" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
       <c r="M70" s="8" t="s">
         <v>1679</v>
       </c>
@@ -61981,31 +62110,27 @@
         <v>1679</v>
       </c>
       <c r="O70" s="8"/>
-      <c r="P70" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q70" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
     </row>
-    <row r="71" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>224</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>207</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62021,23 +62146,23 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
     </row>
-    <row r="72" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>227</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>208</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62053,75 +62178,65 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>230</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>209</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J73" s="8"/>
-      <c r="K73" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O73" s="8"/>
-      <c r="P73" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q73" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>232</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>210</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D74" s="35"/>
+      <c r="E74" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J74" s="8"/>
-      <c r="K74" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+      <c r="N74" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
@@ -62129,17 +62244,17 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
-        <v>233</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>1396</v>
+        <v>212</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>1377</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D75" s="9"/>
+        <v>1115</v>
+      </c>
+      <c r="D75" s="35"/>
       <c r="E75" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -62160,130 +62275,140 @@
       </c>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
+      <c r="Q75" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R75" s="8"/>
     </row>
-    <row r="76" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>238</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>214</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="9" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+      <c r="K76" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
+      <c r="M76" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N76" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
+      <c r="Q76" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R76" s="8"/>
     </row>
-    <row r="77" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>241</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>215</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J77" s="8"/>
-      <c r="K77" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O77" s="8"/>
-      <c r="P77" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
     </row>
-    <row r="78" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>243</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>223</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
+      <c r="K78" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N78" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
+      <c r="P78" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R78" s="8"/>
     </row>
-    <row r="79" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <v>253</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10" t="s">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>224</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="E79" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62299,119 +62424,129 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
     </row>
-    <row r="80" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>254</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>227</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D80" s="35"/>
+      <c r="E80" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J80" s="8"/>
-      <c r="K80" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="N80" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
     </row>
-    <row r="81" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>257</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>230</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D81" s="35"/>
+      <c r="E81" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
+      <c r="K81" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N81" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
+      <c r="P81" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <v>260</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>232</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D82" s="35"/>
+      <c r="E82" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="K82" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
-      <c r="N82" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N82" s="8"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
     </row>
-    <row r="83" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
-        <v>264</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>233</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62428,37 +62563,33 @@
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
-      <c r="Q83" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
-    <row r="84" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>265</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="10" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>238</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D84" s="35"/>
+      <c r="E84" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
-      <c r="M84" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M84" s="8"/>
       <c r="N84" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62467,70 +62598,70 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
     </row>
-    <row r="85" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
-        <v>270</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>241</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D85" s="35"/>
+      <c r="E85" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K85" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M85" s="8"/>
       <c r="N85" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O85" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="P85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="Q85" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="R85" s="8"/>
     </row>
-    <row r="86" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <v>271</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>243</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
-      <c r="M86" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M86" s="8"/>
       <c r="N86" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62539,19 +62670,19 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
     </row>
-    <row r="87" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <v>272</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>1490</v>
+        <v>253</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>1353</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10" t="s">
-        <v>1681</v>
+        <v>1178</v>
+      </c>
+      <c r="D87" s="38"/>
+      <c r="E87" s="9" t="s">
+        <v>1060</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -62562,9 +62693,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
-      <c r="M87" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M87" s="8"/>
       <c r="N87" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62573,19 +62702,19 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
-    <row r="88" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <v>273</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>1559</v>
+        <v>254</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>1424</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="10" t="s">
-        <v>1101</v>
+        <v>1133</v>
+      </c>
+      <c r="D88" s="38"/>
+      <c r="E88" s="9" t="s">
+        <v>1074</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -62597,48 +62726,38 @@
       <c r="K88" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="L88" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="L88" s="8"/>
       <c r="M88" s="8"/>
-      <c r="N88" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N88" s="8"/>
       <c r="O88" s="8"/>
-      <c r="P88" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q88" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
     </row>
-    <row r="89" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
-        <v>274</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>257</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D89" s="38"/>
+      <c r="E89" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
-      <c r="M89" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M89" s="8"/>
       <c r="N89" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62648,18 +62767,18 @@
       <c r="R89" s="8"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
-        <v>275</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>1441</v>
+      <c r="A90" s="44">
+        <v>260</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>1587</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="8" t="s">
-        <v>1096</v>
+        <v>1148</v>
+      </c>
+      <c r="D90" s="38"/>
+      <c r="E90" s="9" t="s">
+        <v>1090</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
@@ -62668,12 +62787,12 @@
         <v>1679</v>
       </c>
       <c r="J90" s="8"/>
-      <c r="K90" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="N90" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
@@ -62681,17 +62800,19 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>276</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>1484</v>
+        <v>264</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>1378</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="8" t="s">
-        <v>1692</v>
+        <v>1223</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>1687</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -62712,22 +62833,24 @@
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
+      <c r="Q91" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R91" s="8"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
-        <v>277</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>1350</v>
+        <v>265</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>1449</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="8" t="s">
-        <v>1076</v>
+        <v>1250</v>
+      </c>
+      <c r="D92" s="35"/>
+      <c r="E92" s="9" t="s">
+        <v>1682</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -62738,30 +62861,30 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
+      <c r="M92" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N92" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
-        <v>278</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>1556</v>
+      <c r="A93" s="44">
+        <v>270</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>1666</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D93" s="9"/>
+        <v>1193</v>
+      </c>
+      <c r="D93" s="38"/>
       <c r="E93" s="8" t="s">
-        <v>1696</v>
+        <v>1711</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -62770,22 +62893,18 @@
         <v>1679</v>
       </c>
       <c r="J93" s="8"/>
-      <c r="K93" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
       <c r="M93" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="N93" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="O93" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P93" s="8"/>
       <c r="Q93" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62793,17 +62912,19 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
-        <v>279</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>1557</v>
+        <v>271</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>1486</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8" t="s">
-        <v>1101</v>
+        <v>1255</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>1684</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -62812,38 +62933,34 @@
         <v>1679</v>
       </c>
       <c r="J94" s="8"/>
-      <c r="K94" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="M94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N94" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O94" s="8"/>
-      <c r="P94" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q94" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
-        <v>280</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>1465</v>
+        <v>272</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>1490</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D95" s="8"/>
+        <v>1188</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="E95" s="8" t="s">
-        <v>1060</v>
+        <v>1681</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -62854,7 +62971,9 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
+      <c r="M95" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N95" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62865,17 +62984,19 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
-        <v>281</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>1464</v>
+        <v>273</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>1559</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10" t="s">
-        <v>1060</v>
+        <v>1191</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>1101</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
@@ -62884,41 +63005,51 @@
         <v>1679</v>
       </c>
       <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="K96" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
+      <c r="P96" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q96" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R96" s="8"/>
     </row>
-    <row r="97" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
-        <v>289</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>274</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D97" s="38"/>
+      <c r="E97" s="46" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
       <c r="I97" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
+      <c r="M97" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N97" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62927,62 +63058,70 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
     </row>
-    <row r="98" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
-        <v>291</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>275</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="39" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
       <c r="I98" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
+      <c r="K98" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
-      <c r="N98" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
     </row>
-    <row r="99" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
-        <v>292</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>276</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="39" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
+      <c r="K99" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
+      <c r="M99" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N99" s="8" t="s">
         <v>1679</v>
       </c>
@@ -62993,17 +63132,17 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
-        <v>293</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>1431</v>
+        <v>277</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>1350</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="10" t="s">
-        <v>1074</v>
+        <v>1192</v>
+      </c>
+      <c r="D100" s="35"/>
+      <c r="E100" s="9" t="s">
+        <v>1076</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -63012,30 +63151,32 @@
         <v>1679</v>
       </c>
       <c r="J100" s="8"/>
-      <c r="K100" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
+      <c r="N100" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
+      <c r="Q100" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R100" s="8"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
-        <v>299</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>1469</v>
+        <v>278</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>1556</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8" t="s">
-        <v>1684</v>
+        <v>1194</v>
+      </c>
+      <c r="D101" s="35"/>
+      <c r="E101" s="9" t="s">
+        <v>1696</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -63044,8 +63185,12 @@
         <v>1679</v>
       </c>
       <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
+      <c r="K101" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="M101" s="8" t="s">
         <v>1679</v>
       </c>
@@ -63053,23 +63198,27 @@
         <v>1679</v>
       </c>
       <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
+      <c r="P101" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R101" s="8"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
-        <v>302</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>1332</v>
+        <v>279</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>1557</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="8" t="s">
-        <v>1090</v>
+        <v>1195</v>
+      </c>
+      <c r="D102" s="38"/>
+      <c r="E102" s="9" t="s">
+        <v>1101</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -63078,30 +63227,38 @@
         <v>1679</v>
       </c>
       <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
+      <c r="K102" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="M102" s="8"/>
       <c r="N102" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
+      <c r="P102" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q102" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R102" s="8"/>
     </row>
-    <row r="103" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
-        <v>305</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>1555</v>
+        <v>280</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>1465</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10" t="s">
-        <v>1101</v>
+        <v>1129</v>
+      </c>
+      <c r="D103" s="38"/>
+      <c r="E103" s="9" t="s">
+        <v>1060</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -63110,42 +63267,34 @@
         <v>1679</v>
       </c>
       <c r="J103" s="8"/>
-      <c r="K103" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O103" s="8"/>
-      <c r="P103" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q103" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
-        <v>306</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>281</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D104" s="38"/>
+      <c r="E104" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
       <c r="I104" s="8" t="s">
         <v>1679</v>
       </c>
@@ -63163,17 +63312,17 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
-        <v>307</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>1663</v>
+        <v>289</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>1462</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D105" s="8"/>
+        <v>1128</v>
+      </c>
+      <c r="D105" s="38"/>
       <c r="E105" s="8" t="s">
-        <v>1709</v>
+        <v>1060</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -63182,36 +63331,30 @@
         <v>1679</v>
       </c>
       <c r="J105" s="8"/>
-      <c r="K105" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O105" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
-        <v>308</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>1588</v>
+        <v>291</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>1463</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D106" s="8"/>
+        <v>1131</v>
+      </c>
+      <c r="D106" s="38"/>
       <c r="E106" s="8" t="s">
-        <v>1681</v>
+        <v>1060</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -63222,9 +63365,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
-      <c r="M106" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M106" s="8"/>
       <c r="N106" s="8" t="s">
         <v>1679</v>
       </c>
@@ -63233,30 +63374,28 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
-    <row r="107" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
-        <v>313</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>292</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D107" s="38"/>
+      <c r="E107" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
       <c r="I107" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J107" s="8"/>
-      <c r="K107" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8" t="s">
@@ -63267,64 +63406,64 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
-    <row r="108" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
-        <v>314</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>293</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D108" s="38"/>
+      <c r="E108" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
       <c r="I108" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+      <c r="K108" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="L108" s="8"/>
-      <c r="M108" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N108" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
-    <row r="109" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
-        <v>319</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>299</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D109" s="38"/>
+      <c r="E109" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
       <c r="I109" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
+      <c r="M109" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N109" s="8" t="s">
         <v>1679</v>
       </c>
@@ -63334,18 +63473,18 @@
       <c r="R109" s="8"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
-        <v>324</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>1394</v>
+      <c r="A110" s="44">
+        <v>302</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>1332</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8" t="s">
-        <v>1072</v>
+        <v>1209</v>
+      </c>
+      <c r="D110" s="35"/>
+      <c r="E110" s="9" t="s">
+        <v>1090</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -63365,57 +63504,63 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
-    <row r="111" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
-        <v>327</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>305</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D111" s="38"/>
+      <c r="E111" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
       <c r="I111" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="K111" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M111" s="8"/>
       <c r="N111" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
+      <c r="P111" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q111" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="R111" s="8"/>
     </row>
-    <row r="112" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
-        <v>339</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="44">
+        <v>306</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D112" s="38"/>
+      <c r="E112" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
       <c r="I112" s="8" t="s">
         <v>1679</v>
       </c>
@@ -63427,29 +63572,27 @@
         <v>1679</v>
       </c>
       <c r="O112" s="8"/>
-      <c r="P112" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
-        <v>340</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="10" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="44">
+        <v>307</v>
+      </c>
+      <c r="B113" s="43" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D113" s="38"/>
+      <c r="E113" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
       <c r="I113" s="8" t="s">
         <v>1679</v>
       </c>
@@ -63464,27 +63607,25 @@
       <c r="N113" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q113" s="8" t="s">
-        <v>1679</v>
-      </c>
+      <c r="O113" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
-        <v>342</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>1601</v>
+      <c r="A114" s="44">
+        <v>308</v>
+      </c>
+      <c r="B114" s="43" t="s">
+        <v>1588</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D114" s="38"/>
+      <c r="E114" s="9" t="s">
         <v>1681</v>
       </c>
       <c r="F114" s="8"/>
@@ -63509,17 +63650,17 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
-        <v>343</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>1416</v>
+        <v>313</v>
+      </c>
+      <c r="B115" s="43" t="s">
+        <v>1474</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8" t="s">
-        <v>1690</v>
+        <v>1202</v>
+      </c>
+      <c r="D115" s="38"/>
+      <c r="E115" s="10" t="s">
+        <v>1693</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -63532,28 +63673,28 @@
         <v>1679</v>
       </c>
       <c r="L115" s="8"/>
-      <c r="M115" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="N115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
-        <v>344</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>1584</v>
+      <c r="A116" s="44">
+        <v>314</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>1661</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D116" s="8"/>
+        <v>1207</v>
+      </c>
+      <c r="D116" s="38"/>
       <c r="E116" s="8" t="s">
-        <v>1090</v>
+        <v>1681</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
@@ -63564,7 +63705,9 @@
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
+      <c r="M116" s="8" t="s">
+        <v>1679</v>
+      </c>
       <c r="N116" s="8" t="s">
         <v>1679</v>
       </c>
@@ -63572,6 +63715,278 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
+        <v>319</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D117" s="38"/>
+      <c r="E117" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>324</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D118" s="38"/>
+      <c r="E118" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="44">
+        <v>327</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D119" s="38"/>
+      <c r="E119" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <v>339</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D120" s="38"/>
+      <c r="E120" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>340</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D121" s="38"/>
+      <c r="E121" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q121" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="R121" s="8"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="44">
+        <v>342</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D122" s="38"/>
+      <c r="E122" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N122" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>343</v>
+      </c>
+      <c r="B123" s="43" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D123" s="38"/>
+      <c r="E123" s="9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="44">
+        <v>344</v>
+      </c>
+      <c r="B124" s="43" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D124" s="38"/>
+      <c r="E124" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00-Documentacion/Listado de reportes totales.xlsx
+++ b/00-Documentacion/Listado de reportes totales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pc\raul\Net\migracion_spooler\00-Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDCCB9A-E1F2-401E-A779-0EBA62B0C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B85588-6473-4131-9D50-B02FCD9983F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1498AA1A-1ACC-4329-A050-ACA05131B658}"/>
   </bookViews>
@@ -59584,8 +59584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9BE15D-6351-44F9-8E43-517339B371DC}">
   <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
